--- a/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
+++ b/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E914322-CDA1-4B9E-BBCC-5D6E49404BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8772EFEB-EB9E-4BA0-9A80-4A601454036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" firstSheet="1" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -1199,7 +1199,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1406,6 +1406,33 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1416,6 +1443,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,6 +1468,48 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1465,89 +1546,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1624,23 +1622,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>185059</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>772012</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8F0377-7DE6-1620-CE7D-905E30D0D87B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7A2298-DA14-F892-7ADF-31464F6E1CA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,8 +1654,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6832601" y="0"/>
-          <a:ext cx="5163458" cy="4229101"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6294271" cy="3756212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1668,23 +1666,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19423</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>126252</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>748410</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>753035</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7746F1-31DE-2642-DE94-582ACC4B34CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D178578C-5BF1-80F3-D4F4-18AF588D51D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,8 +1698,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="126252"/>
-          <a:ext cx="6260210" cy="3429748"/>
+          <a:off x="6330576" y="0"/>
+          <a:ext cx="6255871" cy="4177552"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2012,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,22 +2416,22 @@
       <c r="P22" s="70"/>
     </row>
     <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="119" t="s">
+      <c r="A23" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="123" t="s">
+      <c r="B23" s="84"/>
+      <c r="C23" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="123" t="s">
+      <c r="D23" s="88"/>
+      <c r="E23" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="124"/>
-      <c r="G23" s="82" t="s">
+      <c r="F23" s="88"/>
+      <c r="G23" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="H23" s="83"/>
+      <c r="H23" s="92"/>
       <c r="I23" s="68"/>
       <c r="J23" s="69"/>
       <c r="K23" s="69"/>
@@ -2444,14 +2442,14 @@
       <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="121"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="125"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
       <c r="I24" s="68"/>
       <c r="J24" s="69"/>
       <c r="K24" s="69"/>
@@ -2463,18 +2461,18 @@
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I25" s="68"/>
-      <c r="J25" s="127" t="s">
+      <c r="J25" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="128"/>
-      <c r="L25" s="127" t="s">
+      <c r="K25" s="96"/>
+      <c r="L25" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="M25" s="128"/>
-      <c r="N25" s="127" t="s">
+      <c r="M25" s="96"/>
+      <c r="N25" s="95" t="s">
         <v>159</v>
       </c>
-      <c r="O25" s="128"/>
+      <c r="O25" s="96"/>
       <c r="P25" s="70"/>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2487,31 +2485,31 @@
       <c r="G26" s="74"/>
       <c r="H26" s="75"/>
       <c r="I26" s="71"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="130"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="98"/>
       <c r="P26" s="72"/>
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="76"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="78"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="117"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="69"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="76"/>
@@ -2746,38 +2744,38 @@
     <row r="51" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="76"/>
       <c r="B51" s="77"/>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D51" s="87"/>
-      <c r="E51" s="86" t="s">
+      <c r="D51" s="100"/>
+      <c r="E51" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="F51" s="87"/>
+      <c r="F51" s="100"/>
       <c r="G51" s="77"/>
       <c r="H51" s="78"/>
     </row>
     <row r="52" spans="1:8" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="79"/>
       <c r="B52" s="80"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="89"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="102"/>
       <c r="G52" s="80"/>
       <c r="H52" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="J25:K26"/>
+    <mergeCell ref="N25:O26"/>
     <mergeCell ref="A23:B24"/>
     <mergeCell ref="E23:F24"/>
     <mergeCell ref="G23:H24"/>
     <mergeCell ref="L25:M26"/>
     <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="J25:K26"/>
-    <mergeCell ref="N25:O26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C23:D24" location="Cliente!A1" display="CLIENTES" xr:uid="{0449569A-9241-4F43-8EA7-13DA500F7BC0}"/>
@@ -2834,70 +2832,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="104" t="str">
         <f>+'Listado Objetos de Dominio'!A7</f>
         <v>Categoria</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>+'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene la información de las categorías de platos que existen en el restaurante. Por ejemplo plato principal, postres, bebidas, entradas, etc.</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -3081,11 +3079,11 @@
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
@@ -3112,44 +3110,44 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102" t="s">
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102" t="s">
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102" t="s">
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102" t="s">
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="103"/>
+      <c r="R13" s="113"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -3162,12 +3160,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="104" t="s">
+      <c r="K14" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -3182,88 +3180,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="45"/>
       <c r="H16" s="43"/>
       <c r="I16" s="44"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="41"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="47"/>
       <c r="H18" s="48"/>
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
       <c r="O18" s="31"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
@@ -3271,6 +3269,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
@@ -3283,17 +3292,6 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D185261F-9678-49CA-AD95-5B64B30542E5}"/>
@@ -3351,70 +3349,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="104" t="str">
         <f>+'Listado Objetos de Dominio'!A7</f>
         <v>Categoria</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>+'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene la información de las categorías de platos que existen en el restaurante. Por ejemplo plato principal, postres, bebidas, entradas, etc.</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -3598,11 +3596,11 @@
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
@@ -3629,44 +3627,44 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102" t="s">
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102" t="s">
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102" t="s">
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102" t="s">
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="103"/>
+      <c r="R13" s="113"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="115"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -3679,12 +3677,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="104" t="s">
+      <c r="K14" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="112"/>
+      <c r="N14" s="112"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -3699,88 +3697,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
       <c r="G16" s="45"/>
       <c r="H16" s="43"/>
       <c r="I16" s="44"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="41"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="47"/>
       <c r="H18" s="48"/>
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
       <c r="O18" s="31"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
@@ -3788,6 +3786,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
@@ -3800,17 +3809,6 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{5C47FB70-A130-4B3A-B4F7-897BEE8D791F}"/>
@@ -3868,70 +3866,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="104" t="str">
         <f>+'Listado Objetos de Dominio'!A9</f>
         <v>Notificacion</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>+'Listado Objetos de Dominio'!B9</f>
         <v>Objeto de dominio que contiene la información de las notificaciones generadas a partir de una reserva</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -4255,11 +4253,11 @@
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="108"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
@@ -4284,44 +4282,44 @@
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102" t="s">
+      <c r="B17" s="110"/>
+      <c r="C17" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102" t="s">
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102" t="s">
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102" t="s">
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102" t="s">
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="103"/>
+      <c r="R17" s="113"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -4334,12 +4332,12 @@
       <c r="J18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="104" t="s">
+      <c r="K18" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -4354,88 +4352,88 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="20"/>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
       <c r="O19" s="20"/>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="26"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
       <c r="G20" s="45"/>
       <c r="H20" s="43"/>
       <c r="I20" s="44"/>
       <c r="J20" s="38"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
       <c r="O20" s="23"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="27"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
       <c r="G21" s="41"/>
       <c r="H21" s="39"/>
       <c r="I21" s="40"/>
       <c r="J21" s="42"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
       <c r="O21" s="28"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
       <c r="R21" s="30"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="47"/>
       <c r="H22" s="48"/>
       <c r="I22" s="46"/>
       <c r="J22" s="47"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
       <c r="O22" s="31"/>
       <c r="P22" s="32"/>
       <c r="Q22" s="32"/>
@@ -4443,17 +4441,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="K20:N20"/>
@@ -4466,6 +4453,17 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:N17"/>
     <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EB2EDE4B-C80E-4A5A-83AB-D11BDE9A8DE1}"/>
@@ -4522,70 +4520,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="104" t="str">
         <f>+'Listado Objetos de Dominio'!A10</f>
         <v>TipoNotificacion</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>+'Listado Objetos de Dominio'!B10</f>
         <v>Objeto de dominio que contiene la información del tipo de notificaciones que se pueden presentar a partir de una reserva. Por ejemplo: Prereserva, confirmación de una reserva, cancelación de una reserva.</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -4767,11 +4765,11 @@
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
@@ -4803,44 +4801,44 @@
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102" t="s">
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102" t="s">
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102" t="s">
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102" t="s">
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="103"/>
+      <c r="R14" s="113"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
@@ -4853,12 +4851,12 @@
       <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="104" t="s">
+      <c r="K15" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
       <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
@@ -4873,88 +4871,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="45"/>
       <c r="H17" s="43"/>
       <c r="I17" s="44"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="41"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -4962,17 +4960,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -4985,6 +4972,17 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{5A0C5F57-708A-45D5-8253-22F39C2D3F68}"/>
@@ -5039,69 +5037,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los tipos de nacionalidad que pueden tener los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5323,11 +5321,11 @@
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="113"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -5359,44 +5357,44 @@
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102" t="s">
+      <c r="B16" s="110"/>
+      <c r="C16" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102" t="s">
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102" t="s">
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102" t="s">
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102" t="s">
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="103"/>
+      <c r="R16" s="113"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -5409,12 +5407,12 @@
       <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="104" t="s">
+      <c r="K17" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -5429,88 +5427,88 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="45"/>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
       <c r="O19" s="23"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="41"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="47"/>
       <c r="H21" s="48"/>
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -5518,17 +5516,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="K19:N19"/>
@@ -5541,6 +5528,17 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BE1D5D8E-6C53-4D5B-90C5-3E33EB98F852}"/>
@@ -5564,7 +5562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
@@ -5711,70 +5709,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="104" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que representa a cada uno de los tipos de identificación que tienen los clientes dentro del restaurante. Por ejemplo, cédula de ciudadanía, Tarjeta de Identidad, Pasaporte, etc.</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5981,11 +5979,11 @@
       <c r="T7" s="31"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
@@ -6024,44 +6022,44 @@
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102" t="s">
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102" t="s">
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102" t="s">
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102" t="s">
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="103"/>
+      <c r="R14" s="113"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="115"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="19" t="s">
         <v>28</v>
       </c>
@@ -6074,12 +6072,12 @@
       <c r="J15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="104" t="s">
+      <c r="K15" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
       <c r="O15" s="19" t="s">
         <v>30</v>
       </c>
@@ -6094,88 +6092,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
       <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="45"/>
       <c r="H17" s="43"/>
       <c r="I17" s="44"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="41"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="30"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
       <c r="O19" s="31"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -6183,6 +6181,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -6192,20 +6204,6 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -6268,70 +6266,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="104" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que representa a cada uno de los clientes que realiza una reserva en el restaurante</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -6887,11 +6885,11 @@
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="113"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="17" t="s">
@@ -6930,44 +6928,44 @@
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102" t="s">
+      <c r="B23" s="110"/>
+      <c r="C23" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102" t="s">
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102" t="s">
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102" t="s">
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102" t="s">
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R23" s="103"/>
+      <c r="R23" s="113"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="115"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="19" t="s">
         <v>28</v>
       </c>
@@ -6980,12 +6978,12 @@
       <c r="J24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K24" s="104" t="s">
+      <c r="K24" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="104"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="104"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
+      <c r="N24" s="112"/>
       <c r="O24" s="19" t="s">
         <v>30</v>
       </c>
@@ -7000,88 +6998,88 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="20"/>
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
       <c r="O25" s="20"/>
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="26"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
       <c r="G26" s="45"/>
       <c r="H26" s="43"/>
       <c r="I26" s="44"/>
       <c r="J26" s="38"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
       <c r="O26" s="23"/>
       <c r="P26" s="24"/>
       <c r="Q26" s="24"/>
       <c r="R26" s="27"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
       <c r="G27" s="41"/>
       <c r="H27" s="39"/>
       <c r="I27" s="40"/>
       <c r="J27" s="42"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
       <c r="O27" s="28"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
       <c r="R27" s="30"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
       <c r="G28" s="47"/>
       <c r="H28" s="48"/>
       <c r="I28" s="46"/>
       <c r="J28" s="47"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
       <c r="O28" s="31"/>
       <c r="P28" s="32"/>
       <c r="Q28" s="32"/>
@@ -7089,17 +7087,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="K25:N25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="K26:N26"/>
@@ -7112,6 +7099,17 @@
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:N23"/>
     <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="K28:N28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -7172,70 +7170,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="104" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Nacionalidad</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los tipos de nacionalidad que pueden tener los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -7463,11 +7461,11 @@
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
@@ -7506,44 +7504,44 @@
     </row>
     <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102" t="s">
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102" t="s">
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102" t="s">
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102" t="s">
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="103"/>
+      <c r="R15" s="113"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="115"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
@@ -7556,12 +7554,12 @@
       <c r="J16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="104" t="s">
+      <c r="K16" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="112"/>
       <c r="O16" s="19" t="s">
         <v>30</v>
       </c>
@@ -7576,88 +7574,88 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
       <c r="I17" s="22"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
       <c r="G18" s="45"/>
       <c r="H18" s="43"/>
       <c r="I18" s="44"/>
       <c r="J18" s="38"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
       <c r="O18" s="23"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="27"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
       <c r="G19" s="41"/>
       <c r="H19" s="39"/>
       <c r="I19" s="40"/>
       <c r="J19" s="42"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
       <c r="O19" s="28"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
       <c r="R19" s="30"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="47"/>
       <c r="H20" s="48"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
       <c r="O20" s="31"/>
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
@@ -7665,12 +7663,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="K18:N18"/>
@@ -7678,16 +7680,12 @@
     <mergeCell ref="C15:F16"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="J15:N15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -7747,70 +7745,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="104" t="str">
         <f>+'Listado Objetos de Dominio'!A4</f>
         <v>Nacionalidad</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los tipos de nacionalidad que pueden tener los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -8058,11 +8056,11 @@
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
@@ -8106,44 +8104,44 @@
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102" t="s">
+      <c r="B16" s="110"/>
+      <c r="C16" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102" t="s">
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102" t="s">
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102" t="s">
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102" t="s">
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="103"/>
+      <c r="R16" s="113"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -8156,12 +8154,12 @@
       <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="104" t="s">
+      <c r="K17" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="112"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -8176,88 +8174,88 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="45"/>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
       <c r="O19" s="23"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
       <c r="G20" s="41"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="47"/>
       <c r="H21" s="48"/>
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -8265,17 +8263,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="K19:N19"/>
@@ -8288,6 +8275,17 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{ED5983EF-10C3-4021-AA2E-6D6CBADEBCDB}"/>
@@ -8347,69 +8345,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los tipos de nacionalidad que pueden tener los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -9095,11 +9093,11 @@
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
@@ -9119,44 +9117,44 @@
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102" t="s">
+      <c r="B25" s="110"/>
+      <c r="C25" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102" t="s">
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102" t="s">
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102" t="s">
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102" t="s">
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="103"/>
+      <c r="R25" s="113"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="115"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="19" t="s">
         <v>28</v>
       </c>
@@ -9169,12 +9167,12 @@
       <c r="J26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="104" t="s">
+      <c r="K26" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="104"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="104"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="112"/>
       <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
@@ -9189,88 +9187,88 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
       <c r="G28" s="45"/>
       <c r="H28" s="43"/>
       <c r="I28" s="44"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
       <c r="O28" s="23"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="27"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
       <c r="G29" s="41"/>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="30"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120"/>
       <c r="G30" s="47"/>
       <c r="H30" s="48"/>
       <c r="I30" s="46"/>
       <c r="J30" s="47"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
       <c r="O30" s="31"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
@@ -9278,17 +9276,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="K27:N27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="K28:N28"/>
@@ -9301,6 +9288,17 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="K30:N30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EF9E0347-2B57-447E-8DF8-BD9352E99B04}"/>
@@ -9358,69 +9356,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los tipos de nacionalidad que pueden tener los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -9730,11 +9728,11 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -9773,44 +9771,44 @@
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102" t="s">
+      <c r="B18" s="110"/>
+      <c r="C18" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102" t="s">
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102" t="s">
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102" t="s">
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102" t="s">
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="103"/>
+      <c r="R18" s="113"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
@@ -9823,12 +9821,12 @@
       <c r="J19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="104" t="s">
+      <c r="K19" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
       <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
@@ -9843,88 +9841,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="45"/>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
       <c r="O21" s="23"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="41"/>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
       <c r="O22" s="28"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
       <c r="G23" s="47"/>
       <c r="H23" s="48"/>
       <c r="I23" s="46"/>
       <c r="J23" s="47"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
       <c r="O23" s="31"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
@@ -9932,18 +9930,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="A1:P1"/>
@@ -9955,6 +9941,18 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B0F04263-3BC8-473A-BA64-5D12C294F6E3}"/>
@@ -10013,70 +10011,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109" t="str">
+      <c r="B2" s="104" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>Menu</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110" t="str">
+      <c r="B3" s="105" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la información del menú del restaurante</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -10448,11 +10446,11 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -10491,44 +10489,44 @@
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="114" t="s">
+      <c r="A18" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102" t="s">
+      <c r="B18" s="110"/>
+      <c r="C18" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102" t="s">
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102" t="s">
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102" t="s">
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102" t="s">
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="103"/>
+      <c r="R18" s="113"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
@@ -10541,12 +10539,12 @@
       <c r="J19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="104" t="s">
+      <c r="K19" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
       <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
@@ -10561,88 +10559,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
       <c r="G21" s="45"/>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
       <c r="O21" s="23"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="41"/>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
       <c r="O22" s="28"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
       <c r="G23" s="47"/>
       <c r="H23" s="48"/>
       <c r="I23" s="46"/>
       <c r="J23" s="47"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
       <c r="O23" s="31"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
@@ -10650,6 +10648,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="K21:N21"/>
@@ -10662,17 +10671,6 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{CE046CF2-55A1-49BB-A51B-B44B322E3D79}"/>
@@ -10703,12 +10701,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0DE5568C0AE848B2F225150E15E78E" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="643d399a24376eab49db33c80db032ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915fd109-ae29-4648-8de1-7f064f1d0fe5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a54904d818499acdea7742e4a0622bc" ns2:_="">
     <xsd:import namespace="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
@@ -10846,6 +10838,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
@@ -10855,15 +10853,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C779E5F7-74AC-4CCB-8FB1-CBA1DF721FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10881,6 +10870,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>

--- a/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
+++ b/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861996F4-5053-46D4-BB36-1653B6E46850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95006674-72BB-4312-87EE-FA865874B04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="8" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
     <sheet name="TipoIdentificacion" sheetId="66" r:id="rId3"/>
     <sheet name="Cliente" sheetId="24" r:id="rId4"/>
-    <sheet name="PaisOrigen" sheetId="68" r:id="rId5"/>
+    <sheet name="Pais" sheetId="68" r:id="rId5"/>
     <sheet name="NumeroCelular" sheetId="73" r:id="rId6"/>
     <sheet name="Usuario" sheetId="71" state="hidden" r:id="rId7"/>
     <sheet name="Permiso" sheetId="72" state="hidden" r:id="rId8"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="393">
   <si>
     <t>Nombre</t>
   </si>
@@ -665,9 +665,6 @@
     <t>PaisOrigen</t>
   </si>
   <si>
-    <t>Atributo que identifica el país de origen del número de celular de un cliente en formato ISO3</t>
-  </si>
-  <si>
     <t>Numero</t>
   </si>
   <si>
@@ -1383,6 +1380,9 @@
   </si>
   <si>
     <t>Mostrar al usuario-Orden 5/ Mostrar (aplicación)</t>
+  </si>
+  <si>
+    <t>Pais</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1949,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2216,6 +2216,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2330,6 +2345,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2498,24 +2525,12 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2585,6 +2600,51 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2615,6 +2675,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2637,16 +2727,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2657,10 +2759,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2669,12 +2789,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2686,141 +2800,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3647,53 +3626,53 @@
       <c r="P22" s="70"/>
     </row>
     <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="104" t="s">
+      <c r="B23" s="106"/>
+      <c r="C23" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="105"/>
-      <c r="E23" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="105"/>
-      <c r="G23" s="108" t="s">
+      <c r="D23" s="110"/>
+      <c r="E23" s="109" t="s">
+        <v>164</v>
+      </c>
+      <c r="F23" s="110"/>
+      <c r="G23" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="109"/>
+      <c r="H23" s="114"/>
       <c r="I23" s="68"/>
-      <c r="J23" s="96" t="s">
+      <c r="J23" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="K23" s="97"/>
-      <c r="L23" s="96" t="s">
+      <c r="K23" s="102"/>
+      <c r="L23" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="M23" s="97"/>
-      <c r="N23" s="96" t="s">
+      <c r="M23" s="102"/>
+      <c r="N23" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="O23" s="97"/>
+      <c r="O23" s="102"/>
       <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="102"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="71"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="99"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="104"/>
       <c r="P24" s="72"/>
     </row>
   </sheetData>
@@ -3728,8 +3707,8 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3759,70 +3738,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="str">
+      <c r="B2" s="205" t="str">
         <f>+'Listado Objetos de Dominio'!A8</f>
         <v>Subcategoria</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>+'Listado Objetos de Dominio'!B8</f>
         <v>Objeto de dominio que contiene la información de las subcategorias de los productos que existen en el restaurante. Por ejemplo, entradas frías, ensaladas, sopas, pollo, cerdo, parrilla.</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -3931,9 +3910,15 @@
       <c r="P5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
+      <c r="Q5" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>225</v>
+      </c>
       <c r="T5" s="31"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -3953,7 +3938,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
@@ -3973,11 +3958,17 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
+        <v>178</v>
+      </c>
+      <c r="Q6" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>228</v>
+      </c>
       <c r="T6" s="31"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -4004,11 +3995,11 @@
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="203"/>
-      <c r="C9" s="204"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="209"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
@@ -4026,7 +4017,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="53" t="str">
         <f>+A6</f>
@@ -4035,44 +4026,44 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="205" t="s">
+      <c r="A13" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196" t="s">
+      <c r="B13" s="201"/>
+      <c r="C13" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196" t="s">
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196" t="s">
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196" t="s">
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196" t="s">
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="197"/>
+      <c r="R13" s="202"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="206"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
+      <c r="A14" s="211"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -4085,12 +4076,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="198" t="s">
+      <c r="K14" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -4105,214 +4096,214 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="138" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="144" t="s">
-        <v>331</v>
-      </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="153" t="s">
+      <c r="A15" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="148"/>
+      <c r="C15" s="153" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="156" t="s">
+      <c r="H15" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="159" t="s">
-        <v>336</v>
-      </c>
-      <c r="J15" s="156"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="146"/>
+      <c r="I15" s="168" t="s">
+        <v>335</v>
+      </c>
+      <c r="J15" s="165"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="154"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="155"/>
       <c r="O15" s="20">
         <v>1</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R15" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="142"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="152"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="161"/>
       <c r="O16" s="20">
         <v>2</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R16" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="181"/>
-      <c r="C17" s="162" t="s">
-        <v>332</v>
-      </c>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="171" t="s">
+      <c r="A17" s="189" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="190"/>
+      <c r="C17" s="171" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="180" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="177" t="s">
+      <c r="H17" s="186" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="174" t="s">
-        <v>337</v>
-      </c>
-      <c r="J17" s="171"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="164"/>
+      <c r="I17" s="183" t="s">
+        <v>336</v>
+      </c>
+      <c r="J17" s="180"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="173"/>
       <c r="O17" s="23">
         <v>3</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R17" s="95" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="184"/>
-      <c r="B18" s="185"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="170"/>
+      <c r="A18" s="193"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="179"/>
       <c r="O18" s="23">
         <v>4</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R18" s="95" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="186" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="187"/>
-      <c r="C19" s="112" t="s">
-        <v>333</v>
-      </c>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="190" t="s">
+      <c r="A19" s="195" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="196"/>
+      <c r="C19" s="117" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="192" t="s">
-        <v>335</v>
-      </c>
-      <c r="I19" s="194" t="s">
-        <v>338</v>
-      </c>
-      <c r="J19" s="243"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="114"/>
+      <c r="H19" s="199" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="139" t="s">
+        <v>337</v>
+      </c>
+      <c r="J19" s="96"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="119"/>
       <c r="O19" s="28">
         <v>3</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R19" s="86" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="188"/>
-      <c r="B20" s="189"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="244"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="117"/>
+      <c r="A20" s="197"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="122"/>
       <c r="O20" s="28">
         <v>5</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R20" s="86" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="225" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="226"/>
-      <c r="C21" s="227" t="s">
-        <v>334</v>
-      </c>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
+      <c r="A21" s="245" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="246"/>
+      <c r="C21" s="247" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="247"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
       <c r="G21" s="82" t="s">
         <v>127</v>
       </c>
@@ -4320,17 +4311,17 @@
         <v>127</v>
       </c>
       <c r="I21" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="K21" s="248" t="s">
         <v>340</v>
       </c>
-      <c r="K21" s="228" t="s">
-        <v>341</v>
-      </c>
-      <c r="L21" s="228"/>
-      <c r="M21" s="228"/>
-      <c r="N21" s="228"/>
+      <c r="L21" s="248"/>
+      <c r="M21" s="248"/>
+      <c r="N21" s="248"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -4338,7 +4329,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A17:B18"/>
     <mergeCell ref="C17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="H17:H18"/>
@@ -4346,11 +4336,8 @@
     <mergeCell ref="A19:B20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -4360,18 +4347,22 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N16"/>
-    <mergeCell ref="K17:N18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="K21:N21"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="K19:N20"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="K17:N18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="A17:B18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D185261F-9678-49CA-AD95-5B64B30542E5}"/>
@@ -4397,7 +4388,7 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="O11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -4419,7 +4410,7 @@
     <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="94.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="111.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="49.5546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="50.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -4428,70 +4419,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="str">
+      <c r="B2" s="205" t="str">
         <f>+'Listado Objetos de Dominio'!A7</f>
         <v>Categoria</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>+'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene la información de las categorías de platos que existen en el restaurante. Por ejemplo plato principal, postres, bebidas, entradas, etc.</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -4622,7 +4613,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
@@ -4673,11 +4664,11 @@
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="202" t="s">
+      <c r="A9" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="203"/>
-      <c r="C9" s="204"/>
+      <c r="B9" s="208"/>
+      <c r="C9" s="209"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
@@ -4704,44 +4695,44 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="205" t="s">
+      <c r="A13" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="196"/>
-      <c r="C13" s="196" t="s">
+      <c r="B13" s="201"/>
+      <c r="C13" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196" t="s">
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196" t="s">
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196" t="s">
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196" t="s">
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="197"/>
+      <c r="R13" s="202"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="206"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="198"/>
-      <c r="F14" s="198"/>
+      <c r="A14" s="211"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -4754,12 +4745,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="198" t="s">
+      <c r="K14" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="198"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -4774,53 +4765,53 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="138" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="235" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" s="235"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="219" t="s">
+      <c r="A15" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="148"/>
+      <c r="C15" s="265" t="s">
+        <v>365</v>
+      </c>
+      <c r="D15" s="265"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="247" t="s">
+      <c r="H15" s="283" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="159" t="s">
-        <v>370</v>
+      <c r="I15" s="168" t="s">
+        <v>369</v>
       </c>
       <c r="J15" s="21"/>
-      <c r="K15" s="235"/>
-      <c r="L15" s="235"/>
-      <c r="M15" s="235"/>
-      <c r="N15" s="235"/>
+      <c r="K15" s="265"/>
+      <c r="L15" s="265"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="265"/>
       <c r="O15" s="20">
         <v>1</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R15" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="142"/>
-      <c r="B16" s="143"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="152"/>
       <c r="C16" s="75"/>
       <c r="D16" s="75"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
-      <c r="G16" s="221"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="161"/>
+      <c r="G16" s="241"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="170"/>
       <c r="J16" s="21"/>
       <c r="K16" s="75"/>
       <c r="L16" s="75"/>
@@ -4830,63 +4821,63 @@
         <v>2</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R16" s="51" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="181"/>
-      <c r="C17" s="217" t="s">
-        <v>367</v>
-      </c>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="245" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="189" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="190"/>
+      <c r="C17" s="222" t="s">
+        <v>366</v>
+      </c>
+      <c r="D17" s="222"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="285" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="249" t="s">
+      <c r="H17" s="287" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="174" t="s">
-        <v>371</v>
+      <c r="I17" s="183" t="s">
+        <v>370</v>
       </c>
       <c r="J17" s="38"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
+      <c r="K17" s="223"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
       <c r="O17" s="23">
         <v>3</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R17" s="95" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="184"/>
-      <c r="B18" s="185"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="193"/>
+      <c r="B18" s="194"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="246"/>
-      <c r="H18" s="250"/>
-      <c r="I18" s="176"/>
+      <c r="G18" s="286"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="185"/>
       <c r="J18" s="38"/>
       <c r="K18" s="73"/>
       <c r="L18" s="73"/>
@@ -4896,63 +4887,63 @@
         <v>4</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R18" s="95" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="186" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="187"/>
-      <c r="C19" s="239" t="s">
-        <v>368</v>
-      </c>
-      <c r="D19" s="239"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="239"/>
-      <c r="G19" s="231" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="195" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="196"/>
+      <c r="C19" s="266" t="s">
+        <v>367</v>
+      </c>
+      <c r="D19" s="266"/>
+      <c r="E19" s="266"/>
+      <c r="F19" s="266"/>
+      <c r="G19" s="261" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="251" t="s">
-        <v>335</v>
-      </c>
-      <c r="I19" s="194" t="s">
-        <v>372</v>
+      <c r="H19" s="289" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="139" t="s">
+        <v>371</v>
       </c>
       <c r="J19" s="42"/>
-      <c r="K19" s="236"/>
-      <c r="L19" s="236"/>
-      <c r="M19" s="236"/>
-      <c r="N19" s="236"/>
+      <c r="K19" s="267"/>
+      <c r="L19" s="267"/>
+      <c r="M19" s="267"/>
+      <c r="N19" s="267"/>
       <c r="O19" s="28">
         <v>3</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R19" s="86" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="188"/>
-      <c r="B20" s="189"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="197"/>
+      <c r="B20" s="198"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="232"/>
-      <c r="H20" s="252"/>
-      <c r="I20" s="195"/>
+      <c r="G20" s="262"/>
+      <c r="H20" s="290"/>
+      <c r="I20" s="140"/>
       <c r="J20" s="42"/>
       <c r="K20" s="74"/>
       <c r="L20" s="74"/>
@@ -4962,44 +4953,44 @@
         <v>5</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R20" s="86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="225" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="226"/>
-      <c r="C21" s="227" t="s">
-        <v>369</v>
-      </c>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
+      <c r="A21" s="245" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="246"/>
+      <c r="C21" s="247" t="s">
+        <v>368</v>
+      </c>
+      <c r="D21" s="247"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
       <c r="G21" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="253" t="s">
+      <c r="H21" s="98" t="s">
         <v>88</v>
       </c>
       <c r="I21" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="K21" s="248" t="s">
         <v>374</v>
       </c>
-      <c r="K21" s="228" t="s">
-        <v>375</v>
-      </c>
-      <c r="L21" s="228"/>
-      <c r="M21" s="228"/>
-      <c r="N21" s="228"/>
+      <c r="L21" s="248"/>
+      <c r="M21" s="248"/>
+      <c r="N21" s="248"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -5014,8 +5005,6 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="I19:I20"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -5025,20 +5014,22 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A19:B20"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{5C47FB70-A130-4B3A-B4F7-897BEE8D791F}"/>
@@ -5092,69 +5083,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5376,11 +5367,11 @@
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="203"/>
-      <c r="C11" s="204"/>
+      <c r="B11" s="208"/>
+      <c r="C11" s="209"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -5412,44 +5403,44 @@
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="205" t="s">
+      <c r="A16" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="196"/>
-      <c r="C16" s="196" t="s">
+      <c r="B16" s="201"/>
+      <c r="C16" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="196"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="196"/>
-      <c r="G16" s="196" t="s">
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="196"/>
-      <c r="I16" s="196"/>
-      <c r="J16" s="196" t="s">
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="196"/>
-      <c r="L16" s="196"/>
-      <c r="M16" s="196"/>
-      <c r="N16" s="196"/>
-      <c r="O16" s="196" t="s">
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="196"/>
-      <c r="Q16" s="196" t="s">
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="197"/>
+      <c r="R16" s="202"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="206"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
+      <c r="A17" s="211"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -5462,12 +5453,12 @@
       <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="198" t="s">
+      <c r="K17" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="198"/>
-      <c r="M17" s="198"/>
-      <c r="N17" s="198"/>
+      <c r="L17" s="203"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="203"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -5482,88 +5473,88 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="233" t="s">
+      <c r="A18" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="234"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="265"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="265"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="235"/>
-      <c r="L18" s="235"/>
-      <c r="M18" s="235"/>
-      <c r="N18" s="235"/>
+      <c r="K18" s="265"/>
+      <c r="L18" s="265"/>
+      <c r="M18" s="265"/>
+      <c r="N18" s="265"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="215" t="s">
+      <c r="A19" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="216"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="222"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="222"/>
       <c r="G19" s="45"/>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
+      <c r="K19" s="223"/>
+      <c r="L19" s="223"/>
+      <c r="M19" s="223"/>
+      <c r="N19" s="223"/>
       <c r="O19" s="23"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="237" t="s">
+      <c r="A20" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="238"/>
-      <c r="C20" s="239"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="239"/>
-      <c r="F20" s="239"/>
+      <c r="B20" s="258"/>
+      <c r="C20" s="266"/>
+      <c r="D20" s="266"/>
+      <c r="E20" s="266"/>
+      <c r="F20" s="266"/>
       <c r="G20" s="41"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="236"/>
-      <c r="L20" s="236"/>
-      <c r="M20" s="236"/>
-      <c r="N20" s="236"/>
+      <c r="K20" s="267"/>
+      <c r="L20" s="267"/>
+      <c r="M20" s="267"/>
+      <c r="N20" s="267"/>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="225" t="s">
+      <c r="A21" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="226"/>
-      <c r="C21" s="227"/>
-      <c r="D21" s="227"/>
-      <c r="E21" s="227"/>
-      <c r="F21" s="227"/>
+      <c r="B21" s="246"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
       <c r="G21" s="47"/>
       <c r="H21" s="48"/>
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
-      <c r="K21" s="228"/>
-      <c r="L21" s="228"/>
-      <c r="M21" s="228"/>
-      <c r="N21" s="228"/>
+      <c r="K21" s="248"/>
+      <c r="L21" s="248"/>
+      <c r="M21" s="248"/>
+      <c r="N21" s="248"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -5619,7 +5610,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5650,15 +5641,15 @@
         <v>56</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
-        <v>152</v>
+        <v>392</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5666,7 +5657,7 @@
         <v>141</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5716,7 +5707,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5746,70 +5737,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="str">
+      <c r="B2" s="205" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que representa a cada uno de los tipos de identificación que tienen los clientes dentro del restaurante. Por ejemplo, cédula de ciudadanía, Tarjeta de Identidad, Pasaporte, etc.</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5923,19 +5914,19 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="S5" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="U5" s="76" t="s">
         <v>227</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="U5" s="76" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
@@ -5980,19 +5971,19 @@
         <v>48</v>
       </c>
       <c r="Q6" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T6" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="R6" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S6" s="28" t="s">
+      <c r="U6" s="79" t="s">
         <v>229</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="U6" s="79" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
@@ -6037,19 +6028,19 @@
         <v>51</v>
       </c>
       <c r="Q7" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T7" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="R7" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>227</v>
-      </c>
       <c r="U7" s="76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -6057,7 +6048,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="5"/>
@@ -6068,7 +6059,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="5" t="s">
@@ -6087,37 +6078,37 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="R8" s="23" t="s">
-        <v>227</v>
-      </c>
       <c r="S8" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T8" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="U8" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="U8" s="76" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Q9" s="277"/>
-      <c r="R9" s="278"/>
-      <c r="S9" s="279"/>
-      <c r="T9" s="280"/>
-      <c r="U9" s="281"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="81"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="203"/>
-      <c r="C10" s="204"/>
+      <c r="B10" s="208"/>
+      <c r="C10" s="209"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
@@ -6156,44 +6147,44 @@
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="205" t="s">
+      <c r="A15" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196" t="s">
+      <c r="B15" s="201"/>
+      <c r="C15" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196" t="s">
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196" t="s">
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196" t="s">
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="196" t="s">
+      <c r="P15" s="201"/>
+      <c r="Q15" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="197"/>
+      <c r="R15" s="202"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="206"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
+      <c r="A16" s="211"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="203"/>
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
       <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
@@ -6206,12 +6197,12 @@
       <c r="J16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="198" t="s">
+      <c r="K16" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
       <c r="O16" s="19" t="s">
         <v>30</v>
       </c>
@@ -6226,350 +6217,350 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="148"/>
+      <c r="C17" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="144" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="153" t="s">
+      <c r="D17" s="154"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="162" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="165" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="168" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="156" t="s">
-        <v>192</v>
-      </c>
-      <c r="I17" s="159" t="s">
-        <v>193</v>
-      </c>
-      <c r="J17" s="156"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="146"/>
+      <c r="J17" s="165"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="155"/>
       <c r="O17" s="20">
         <v>1</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="R17" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="R17" s="84" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="18" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="149"/>
+      <c r="A18" s="149"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="158"/>
       <c r="O18" s="20">
         <v>2</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="R18" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="R18" s="84" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="142"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="152"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="161"/>
       <c r="O19" s="20">
         <v>3</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="R19" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="R19" s="84" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="20" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="162" t="s">
+      <c r="A20" s="189" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="171" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="177" t="s">
-        <v>192</v>
-      </c>
-      <c r="I20" s="174" t="s">
-        <v>194</v>
-      </c>
-      <c r="J20" s="171"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="164"/>
+      <c r="B20" s="190"/>
+      <c r="C20" s="171" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="H20" s="186" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="183" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" s="180"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="173"/>
       <c r="O20" s="23">
         <v>4</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="R20" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="R20" s="85" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="21" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="166"/>
-      <c r="N21" s="167"/>
+      <c r="A21" s="191"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="176"/>
       <c r="O21" s="23">
         <v>5</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q21" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="R21" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="R21" s="85" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="22" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="184"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="170"/>
+      <c r="A22" s="193"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="182"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="179"/>
       <c r="O22" s="23">
         <v>6</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q22" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="R22" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="R22" s="85" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="23" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="186" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="187"/>
-      <c r="C23" s="112" t="s">
+      <c r="A23" s="195" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="190" t="s">
+      <c r="B23" s="196"/>
+      <c r="C23" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="192" t="s">
+      <c r="H23" s="199" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="194" t="s">
-        <v>195</v>
-      </c>
-      <c r="J23" s="190"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="114"/>
+      <c r="I23" s="139" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" s="141"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="119"/>
       <c r="O23" s="28">
         <v>4</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="R23" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="R23" s="86" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="188"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="117"/>
+      <c r="A24" s="197"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="122"/>
       <c r="O24" s="28">
         <v>7</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q24" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="R24" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="R24" s="86" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="119"/>
-      <c r="C25" s="122" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="128" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" s="130" t="s">
-        <v>192</v>
-      </c>
-      <c r="I25" s="132"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="124"/>
+      <c r="A25" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="124"/>
+      <c r="C25" s="127" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="133" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="135" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="137"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="129"/>
       <c r="O25" s="31">
         <v>4</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R25" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="120"/>
-      <c r="B26" s="121"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="127"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="131"/>
+      <c r="M26" s="131"/>
+      <c r="N26" s="132"/>
       <c r="O26" s="31">
         <v>8</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q26" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="R26" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="R26" s="87" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="27" spans="1:18" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="134" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="136" t="s">
+      <c r="A27" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="144"/>
+      <c r="C27" s="145" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="83" t="s">
-        <v>192</v>
-      </c>
       <c r="H27" s="54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I27" s="77"/>
       <c r="J27" s="78" t="s">
-        <v>197</v>
-      </c>
-      <c r="K27" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
+      <c r="K27" s="146" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+      <c r="N27" s="146"/>
       <c r="O27" s="76"/>
       <c r="P27" s="79"/>
       <c r="Q27" s="79"/>
@@ -6649,7 +6640,7 @@
   </sheetPr>
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G25" sqref="G25"/>
       <selection pane="bottomLeft" activeCell="J27" sqref="J27:J29"/>
@@ -6682,70 +6673,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="str">
+      <c r="B2" s="205" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que representa a cada uno de los clientes que realiza una reserva en el restaurante</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -6855,16 +6846,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6903,21 +6894,21 @@
         <v>72</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>39</v>
@@ -6948,19 +6939,19 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7005,16 +6996,16 @@
         <v>59</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7059,16 +7050,16 @@
         <v>62</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7113,16 +7104,16 @@
         <v>64</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7167,16 +7158,16 @@
         <v>66</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
@@ -7221,24 +7212,24 @@
         <v>74</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -7266,19 +7257,19 @@
         <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S13" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T13" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -7317,16 +7308,16 @@
         <v>70</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T14" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -7369,16 +7360,16 @@
         <v>78</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T15" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -7419,24 +7410,24 @@
         <v>80</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T16" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -7464,19 +7455,19 @@
         <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -7503,11 +7494,11 @@
     </row>
     <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="202" t="s">
+      <c r="A20" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="203"/>
-      <c r="C20" s="204"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="209"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
@@ -7546,44 +7537,44 @@
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="205" t="s">
+      <c r="A25" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="196"/>
-      <c r="C25" s="196" t="s">
+      <c r="B25" s="201"/>
+      <c r="C25" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="196"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196" t="s">
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="196"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="196" t="s">
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="196"/>
-      <c r="L25" s="196"/>
-      <c r="M25" s="196"/>
-      <c r="N25" s="196"/>
-      <c r="O25" s="196" t="s">
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="201"/>
+      <c r="N25" s="201"/>
+      <c r="O25" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196" t="s">
+      <c r="P25" s="201"/>
+      <c r="Q25" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="197"/>
+      <c r="R25" s="202"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="206"/>
-      <c r="B26" s="198"/>
-      <c r="C26" s="198"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="198"/>
+      <c r="A26" s="211"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
       <c r="G26" s="19" t="s">
         <v>28</v>
       </c>
@@ -7596,12 +7587,12 @@
       <c r="J26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="198" t="s">
+      <c r="K26" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="198"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="203"/>
       <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
@@ -7616,110 +7607,110 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="254" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="255"/>
-      <c r="C27" s="262" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="263"/>
-      <c r="E27" s="263"/>
-      <c r="F27" s="264"/>
-      <c r="G27" s="219" t="s">
+      <c r="A27" s="224" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="225"/>
+      <c r="C27" s="230" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="231"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="239" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="222" t="s">
+      <c r="H27" s="242" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="159" t="s">
-        <v>266</v>
-      </c>
-      <c r="J27" s="156"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="146"/>
+      <c r="I27" s="168" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="165"/>
+      <c r="K27" s="153"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="155"/>
       <c r="O27" s="20">
         <v>1</v>
       </c>
       <c r="P27" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q27" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="R27" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="256"/>
-      <c r="B28" s="257"/>
-      <c r="C28" s="265"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="267"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="157"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="149"/>
+      <c r="A28" s="226"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="234"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="240"/>
+      <c r="H28" s="243"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="158"/>
       <c r="O28" s="20">
         <v>2</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q28" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="R28" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="258"/>
-      <c r="B29" s="259"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="269"/>
-      <c r="E29" s="269"/>
-      <c r="F29" s="270"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="158"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
-      <c r="N29" s="152"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="236"/>
+      <c r="D29" s="237"/>
+      <c r="E29" s="237"/>
+      <c r="F29" s="238"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="161"/>
       <c r="O29" s="20">
         <v>3</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q29" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R29" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="215" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="216"/>
-      <c r="C30" s="217" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="217"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="217"/>
+      <c r="A30" s="220" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="221"/>
+      <c r="C30" s="222" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="222"/>
       <c r="G30" s="45" t="s">
         <v>56</v>
       </c>
@@ -7727,103 +7718,103 @@
         <v>56</v>
       </c>
       <c r="I30" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J30" s="38"/>
-      <c r="K30" s="218"/>
-      <c r="L30" s="218"/>
-      <c r="M30" s="218"/>
-      <c r="N30" s="218"/>
+      <c r="K30" s="223"/>
+      <c r="L30" s="223"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="223"/>
       <c r="O30" s="23">
         <v>4</v>
       </c>
       <c r="P30" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R30" s="95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="260" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="261"/>
-      <c r="C31" s="271" t="s">
-        <v>239</v>
-      </c>
-      <c r="D31" s="272"/>
-      <c r="E31" s="272"/>
-      <c r="F31" s="273"/>
-      <c r="G31" s="231" t="s">
+      <c r="A31" s="255" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="256"/>
+      <c r="C31" s="249" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="250"/>
+      <c r="E31" s="250"/>
+      <c r="F31" s="251"/>
+      <c r="G31" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="229" t="s">
+      <c r="H31" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="194" t="s">
-        <v>268</v>
-      </c>
-      <c r="J31" s="190"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
-      <c r="N31" s="114"/>
+      <c r="I31" s="139" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" s="141"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="119"/>
       <c r="O31" s="28">
         <v>5</v>
       </c>
       <c r="P31" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="29" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R31" s="86" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="237"/>
-      <c r="B32" s="238"/>
-      <c r="C32" s="274"/>
-      <c r="D32" s="275"/>
-      <c r="E32" s="275"/>
-      <c r="F32" s="276"/>
-      <c r="G32" s="232"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="191"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="117"/>
+      <c r="A32" s="257"/>
+      <c r="B32" s="258"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="262"/>
+      <c r="H32" s="260"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="121"/>
+      <c r="N32" s="122"/>
       <c r="O32" s="28">
         <v>6</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R32" s="86" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="225" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="226"/>
-      <c r="C33" s="227" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
+      <c r="A33" s="245" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="246"/>
+      <c r="C33" s="247" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="247"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
       <c r="G33" s="82" t="s">
         <v>38</v>
       </c>
@@ -7831,61 +7822,61 @@
         <v>39</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J33" s="47"/>
-      <c r="K33" s="228"/>
-      <c r="L33" s="228"/>
-      <c r="M33" s="228"/>
-      <c r="N33" s="228"/>
+      <c r="K33" s="248"/>
+      <c r="L33" s="248"/>
+      <c r="M33" s="248"/>
+      <c r="N33" s="248"/>
       <c r="O33" s="31">
         <v>5</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q33" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="R33" s="87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="207" t="s">
-        <v>235</v>
-      </c>
-      <c r="B34" s="207"/>
-      <c r="C34" s="207" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
+      <c r="A34" s="212" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="212"/>
+      <c r="C34" s="212" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="212"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
       <c r="G34" s="83"/>
       <c r="H34" s="83"/>
       <c r="I34" s="76"/>
       <c r="J34" s="76"/>
-      <c r="K34" s="209"/>
-      <c r="L34" s="210"/>
-      <c r="M34" s="210"/>
-      <c r="N34" s="211"/>
+      <c r="K34" s="214"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="215"/>
+      <c r="N34" s="216"/>
       <c r="O34" s="76"/>
       <c r="P34" s="76"/>
       <c r="Q34" s="76"/>
       <c r="R34" s="76"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="208" t="s">
-        <v>236</v>
-      </c>
-      <c r="B35" s="208"/>
-      <c r="C35" s="208" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="208"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="208"/>
+      <c r="A35" s="213" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="213"/>
+      <c r="C35" s="213" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="213"/>
+      <c r="E35" s="213"/>
+      <c r="F35" s="213"/>
       <c r="G35" s="93" t="s">
         <v>38</v>
       </c>
@@ -7894,10 +7885,10 @@
       </c>
       <c r="I35" s="94"/>
       <c r="J35" s="94"/>
-      <c r="K35" s="212"/>
-      <c r="L35" s="213"/>
-      <c r="M35" s="213"/>
-      <c r="N35" s="214"/>
+      <c r="K35" s="217"/>
+      <c r="L35" s="218"/>
+      <c r="M35" s="218"/>
+      <c r="N35" s="219"/>
       <c r="O35" s="94"/>
       <c r="P35" s="94"/>
       <c r="Q35" s="94"/>
@@ -7970,10 +7961,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8003,70 +7994,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="str">
+      <c r="B2" s="205" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
-        <v>PaisOrigen</v>
-      </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+        <v>Pais</v>
+      </c>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -8118,23 +8109,23 @@
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
-        <f>A17</f>
+        <f>A18</f>
         <v>Registrar</v>
       </c>
       <c r="R4" s="35" t="str">
-        <f>A20</f>
+        <f>A21</f>
         <v>Modificar</v>
       </c>
       <c r="S4" s="36" t="str">
-        <f>A23</f>
+        <f>A24</f>
         <v>Eliminar</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A25</f>
+        <f>A26</f>
         <v>Consultar</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -8176,16 +8167,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
@@ -8228,21 +8219,21 @@
         <v>81</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>39</v>
@@ -8251,13 +8242,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13" t="s">
@@ -8281,38 +8272,36 @@
       <c r="P7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q7" s="34"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>167</v>
+      <c r="H8" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="K8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>46</v>
@@ -8327,468 +8316,518 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="203"/>
-      <c r="C10" s="204"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="B11" s="208"/>
+      <c r="C11" s="209"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C12" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    <row r="13" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="53" t="str">
+      <c r="B13" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="53" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    <row r="14" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="53" t="str">
-        <f>+A7</f>
+      <c r="C14" s="53" t="str">
+        <f>+A8</f>
         <v>CodigoISO3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="205" t="s">
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196" t="s">
+      <c r="B16" s="201"/>
+      <c r="C16" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196" t="s">
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196" t="s">
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196" t="s">
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="196" t="s">
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="197"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="206"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="19" t="s">
+      <c r="R16" s="202"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="211"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="198" t="s">
+      <c r="K17" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="19" t="s">
+      <c r="L17" s="203"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="203"/>
+      <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="19" t="s">
+      <c r="Q17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R17" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="138" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="144" t="s">
+    <row r="18" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="148"/>
+      <c r="C18" s="153" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="162" t="s">
+        <v>392</v>
+      </c>
+      <c r="H18" s="165" t="s">
+        <v>392</v>
+      </c>
+      <c r="I18" s="168" t="s">
+        <v>269</v>
+      </c>
+      <c r="J18" s="165"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="20">
+        <v>1</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q18" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="R18" s="84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="149"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="20">
+        <v>2</v>
+      </c>
+      <c r="P19" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q19" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="R19" s="84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="151"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="20">
+        <v>3</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q20" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="R20" s="84" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="189" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="190"/>
+      <c r="C21" s="171" t="s">
         <v>262</v>
       </c>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="156" t="s">
-        <v>152</v>
-      </c>
-      <c r="I17" s="159" t="s">
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="180" t="s">
+        <v>392</v>
+      </c>
+      <c r="H21" s="186" t="s">
+        <v>392</v>
+      </c>
+      <c r="I21" s="183" t="s">
         <v>270</v>
       </c>
-      <c r="J17" s="156"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="20">
-        <v>1</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q17" s="75" t="s">
-        <v>283</v>
-      </c>
-      <c r="R17" s="84" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="140"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="282"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="282"/>
-      <c r="M18" s="282"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="20">
-        <v>2</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q18" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="R18" s="84" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="142"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="20">
-        <v>3</v>
-      </c>
-      <c r="P19" s="20" t="s">
+      <c r="J21" s="180"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="173"/>
+      <c r="O21" s="23">
+        <v>4</v>
+      </c>
+      <c r="P21" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="Q19" s="75" t="s">
+      <c r="Q21" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="R19" s="84" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="181"/>
-      <c r="C20" s="162" t="s">
+      <c r="R21" s="85" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="191"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="176"/>
+      <c r="O22" s="23">
+        <v>5</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="R22" s="85" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="193"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="179"/>
+      <c r="O23" s="23">
+        <v>6</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q23" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="R23" s="85" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="195" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="196"/>
+      <c r="C24" s="117" t="s">
         <v>263</v>
       </c>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="171" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="174" t="s">
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="141" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="199" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="J24" s="141"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="119"/>
+      <c r="O24" s="28">
+        <v>4</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="R24" s="86" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="197"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="28">
+        <v>7</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q25" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="R25" s="86" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="245" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="246"/>
+      <c r="C26" s="247" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="247"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>392</v>
+      </c>
+      <c r="I26" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="J20" s="171"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="23">
-        <v>4</v>
-      </c>
-      <c r="P20" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q20" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="R20" s="85" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="165"/>
-      <c r="D21" s="283"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="283"/>
-      <c r="M21" s="283"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="23">
-        <v>5</v>
-      </c>
-      <c r="P21" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q21" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="R21" s="85" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="184"/>
-      <c r="B22" s="185"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="179"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="169"/>
-      <c r="M22" s="169"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="23">
-        <v>6</v>
-      </c>
-      <c r="P22" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q22" s="44" t="s">
-        <v>288</v>
-      </c>
-      <c r="R22" s="85" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="186" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="187"/>
-      <c r="C23" s="112" t="s">
-        <v>264</v>
-      </c>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="190" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="192" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="194" t="s">
-        <v>273</v>
-      </c>
-      <c r="J23" s="190"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="28">
-        <v>4</v>
-      </c>
-      <c r="P23" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q23" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="R23" s="86" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="188"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="191"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="191"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="28">
-        <v>7</v>
-      </c>
-      <c r="P24" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="R24" s="86" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="225" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="226"/>
-      <c r="C25" s="227" t="s">
-        <v>265</v>
-      </c>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
-      <c r="F25" s="227"/>
-      <c r="G25" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="J25" s="47"/>
-      <c r="K25" s="228"/>
-      <c r="L25" s="228"/>
-      <c r="M25" s="228"/>
-      <c r="N25" s="228"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="33"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="248"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="248"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K23:N24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="C23:F24"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="C20:F22"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:N23"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K24:N25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="C24:F25"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="A21:B23"/>
+    <mergeCell ref="C21:F23"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H25" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
+    <hyperlink ref="H26" location="Pais!A1" display="Pais" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A25:B25" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
+    <hyperlink ref="A26:B26" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="C12" location="Nacionalidad!A6" display="Nacionalidad!A6" xr:uid="{1B137E60-A55D-4AAD-8EF4-F9E99007A7CE}"/>
-    <hyperlink ref="C13" location="Nacionalidad!A7" display="Nacionalidad!A7" xr:uid="{F53E6861-E7DD-42B3-917D-32A3B2D65384}"/>
+    <hyperlink ref="C13" location="Nacionalidad!A6" display="Nacionalidad!A6" xr:uid="{1B137E60-A55D-4AAD-8EF4-F9E99007A7CE}"/>
+    <hyperlink ref="C14" location="Nacionalidad!A7" display="Nacionalidad!A7" xr:uid="{F53E6861-E7DD-42B3-917D-32A3B2D65384}"/>
+    <hyperlink ref="H18:H20" location="Pais!A1" display="Pais" xr:uid="{4D3E8849-4C2C-40A6-9627-14B618898E87}"/>
+    <hyperlink ref="H21:H23" location="Pais!A1" display="Pais" xr:uid="{00A36F76-B620-464C-A0BD-26C68BC73A86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8800,10 +8839,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8833,70 +8872,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="str">
+      <c r="B2" s="205" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>NumeroCelular</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la información del número de celular de cada uno de los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -8948,23 +8987,23 @@
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
+        <f>A15</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>A16</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="36" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="35" t="str">
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
         <f>A18</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="36" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A20</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -9010,29 +9049,27 @@
       <c r="S5" s="28"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="7" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="K6" s="5" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>46</v>
@@ -9041,341 +9078,253 @@
         <v>47</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
       <c r="S6" s="28"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="208"/>
+      <c r="C8" s="209"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="202" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="203"/>
-      <c r="C10" s="204"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="C10" s="53" t="str">
+        <f>+A6</f>
+        <v>Numero</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="53"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="210" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="201"/>
+      <c r="C13" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="53" t="str">
-        <f>+A8</f>
-        <v>Numero</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="53"/>
-    </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="202"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="211"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="203" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="205" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="196" t="s">
-        <v>27</v>
-      </c>
-      <c r="R15" s="197"/>
+      <c r="A15" s="263" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="264"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="265"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="265"/>
+      <c r="L15" s="265"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="265"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="206"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="198"/>
-      <c r="D16" s="198"/>
-      <c r="E16" s="198"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="A16" s="220" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="221"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="223"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="233" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="234"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="235"/>
-      <c r="L17" s="235"/>
-      <c r="M17" s="235"/>
-      <c r="N17" s="235"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="26"/>
+      <c r="A17" s="257" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="258"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="266"/>
+      <c r="E17" s="266"/>
+      <c r="F17" s="266"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="267"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="267"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="215" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="216"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="27"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="237" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="238"/>
-      <c r="C19" s="239"/>
-      <c r="D19" s="239"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="239"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="236"/>
-      <c r="L19" s="236"/>
-      <c r="M19" s="236"/>
-      <c r="N19" s="236"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="225" t="s">
+      <c r="A18" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="226"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="227"/>
-      <c r="E20" s="227"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="228"/>
-      <c r="L20" s="228"/>
-      <c r="M20" s="228"/>
-      <c r="N20" s="228"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
+      <c r="B18" s="246"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="247"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="247"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="248"/>
+      <c r="L18" s="248"/>
+      <c r="M18" s="248"/>
+      <c r="N18" s="248"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="K18:N18"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{ED5983EF-10C3-4021-AA2E-6D6CBADEBCDB}"/>
-    <hyperlink ref="H20" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{4ADDEEE4-AB2A-4A2C-8B91-F2FD302FFA6A}"/>
+    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{4ADDEEE4-AB2A-4A2C-8B91-F2FD302FFA6A}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{DF04BE93-FD11-498B-8411-C023057A6989}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{925D4643-C808-40D1-8037-6956D0D0A164}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{90511AB2-4397-4090-BDC3-BC2FFF910A0A}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{410ACEA4-8107-46D3-A558-E018A8FD48EE}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{83F992CD-E1E5-46A7-AC81-DFF114393351}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{10223AB3-DD13-4033-93A8-A40ABB193968}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{410ACEA4-8107-46D3-A558-E018A8FD48EE}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{83F992CD-E1E5-46A7-AC81-DFF114393351}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{10223AB3-DD13-4033-93A8-A40ABB193968}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{3D0D7B4F-ED2B-4C7F-92D1-3B5774F927E8}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{CF5D7931-EDF4-4723-908B-8A2964047EF4}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{D555A49B-D200-4B30-811D-26BFD48D6D35}"/>
-    <hyperlink ref="C12" location="NumeroCelular!A8" display="NumeroCelular!A8" xr:uid="{3FE72DEB-EFC2-4C52-8057-BD0EB3EF7E63}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{D555A49B-D200-4B30-811D-26BFD48D6D35}"/>
+    <hyperlink ref="C10" location="NumeroCelular!A8" display="NumeroCelular!A8" xr:uid="{3FE72DEB-EFC2-4C52-8057-BD0EB3EF7E63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9420,69 +9369,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -10168,11 +10117,11 @@
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="202" t="s">
+      <c r="A21" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="203"/>
-      <c r="C21" s="204"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="209"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
@@ -10192,44 +10141,44 @@
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="205" t="s">
+      <c r="A25" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="196"/>
-      <c r="C25" s="196" t="s">
+      <c r="B25" s="201"/>
+      <c r="C25" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="196"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196" t="s">
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="196"/>
-      <c r="I25" s="196"/>
-      <c r="J25" s="196" t="s">
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="196"/>
-      <c r="L25" s="196"/>
-      <c r="M25" s="196"/>
-      <c r="N25" s="196"/>
-      <c r="O25" s="196" t="s">
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="201"/>
+      <c r="N25" s="201"/>
+      <c r="O25" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196" t="s">
+      <c r="P25" s="201"/>
+      <c r="Q25" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="197"/>
+      <c r="R25" s="202"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="206"/>
-      <c r="B26" s="198"/>
-      <c r="C26" s="198"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="198"/>
+      <c r="A26" s="211"/>
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
       <c r="G26" s="19" t="s">
         <v>28</v>
       </c>
@@ -10242,12 +10191,12 @@
       <c r="J26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="198" t="s">
+      <c r="K26" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="198"/>
-      <c r="M26" s="198"/>
-      <c r="N26" s="198"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="203"/>
       <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
@@ -10262,88 +10211,88 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="233" t="s">
+      <c r="A27" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="234"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="235"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="265"/>
+      <c r="D27" s="265"/>
+      <c r="E27" s="265"/>
+      <c r="F27" s="265"/>
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="235"/>
-      <c r="L27" s="235"/>
-      <c r="M27" s="235"/>
-      <c r="N27" s="235"/>
+      <c r="K27" s="265"/>
+      <c r="L27" s="265"/>
+      <c r="M27" s="265"/>
+      <c r="N27" s="265"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="215" t="s">
+      <c r="A28" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="216"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="217"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="222"/>
+      <c r="E28" s="222"/>
+      <c r="F28" s="222"/>
       <c r="G28" s="45"/>
       <c r="H28" s="43"/>
       <c r="I28" s="44"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="218"/>
-      <c r="L28" s="218"/>
-      <c r="M28" s="218"/>
-      <c r="N28" s="218"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="223"/>
       <c r="O28" s="23"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="27"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="237" t="s">
+      <c r="A29" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="238"/>
-      <c r="C29" s="239"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
+      <c r="B29" s="258"/>
+      <c r="C29" s="266"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="266"/>
+      <c r="F29" s="266"/>
       <c r="G29" s="41"/>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="236"/>
-      <c r="L29" s="236"/>
-      <c r="M29" s="236"/>
-      <c r="N29" s="236"/>
+      <c r="K29" s="267"/>
+      <c r="L29" s="267"/>
+      <c r="M29" s="267"/>
+      <c r="N29" s="267"/>
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="30"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="225" t="s">
+      <c r="A30" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="226"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
+      <c r="B30" s="246"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="247"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
       <c r="G30" s="47"/>
       <c r="H30" s="48"/>
       <c r="I30" s="46"/>
       <c r="J30" s="47"/>
-      <c r="K30" s="228"/>
-      <c r="L30" s="228"/>
-      <c r="M30" s="228"/>
-      <c r="N30" s="228"/>
+      <c r="K30" s="248"/>
+      <c r="L30" s="248"/>
+      <c r="M30" s="248"/>
+      <c r="N30" s="248"/>
       <c r="O30" s="31"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
@@ -10431,69 +10380,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -10803,11 +10752,11 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="203"/>
-      <c r="C13" s="204"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="209"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -10846,44 +10795,44 @@
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196" t="s">
+      <c r="B18" s="201"/>
+      <c r="C18" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196" t="s">
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
-      <c r="J18" s="196" t="s">
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="196"/>
-      <c r="L18" s="196"/>
-      <c r="M18" s="196"/>
-      <c r="N18" s="196"/>
-      <c r="O18" s="196" t="s">
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="196"/>
-      <c r="Q18" s="196" t="s">
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="197"/>
+      <c r="R18" s="202"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="206"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
+      <c r="A19" s="211"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
       <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
@@ -10896,12 +10845,12 @@
       <c r="J19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="198" t="s">
+      <c r="K19" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="198"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
       <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
@@ -10916,88 +10865,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="233" t="s">
+      <c r="A20" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="234"/>
-      <c r="C20" s="235"/>
-      <c r="D20" s="235"/>
-      <c r="E20" s="235"/>
-      <c r="F20" s="235"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="265"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="235"/>
-      <c r="L20" s="235"/>
-      <c r="M20" s="235"/>
-      <c r="N20" s="235"/>
+      <c r="K20" s="265"/>
+      <c r="L20" s="265"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="265"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="215" t="s">
+      <c r="A21" s="220" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="216"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="222"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="222"/>
       <c r="G21" s="45"/>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="218"/>
-      <c r="M21" s="218"/>
-      <c r="N21" s="218"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="223"/>
       <c r="O21" s="23"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="237" t="s">
+      <c r="A22" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="238"/>
-      <c r="C22" s="239"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="239"/>
-      <c r="F22" s="239"/>
+      <c r="B22" s="258"/>
+      <c r="C22" s="266"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="266"/>
+      <c r="F22" s="266"/>
       <c r="G22" s="41"/>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="236"/>
-      <c r="L22" s="236"/>
-      <c r="M22" s="236"/>
-      <c r="N22" s="236"/>
+      <c r="K22" s="267"/>
+      <c r="L22" s="267"/>
+      <c r="M22" s="267"/>
+      <c r="N22" s="267"/>
       <c r="O22" s="28"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="225" t="s">
+      <c r="A23" s="245" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="226"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
-      <c r="F23" s="227"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
       <c r="G23" s="47"/>
       <c r="H23" s="48"/>
       <c r="I23" s="46"/>
       <c r="J23" s="47"/>
-      <c r="K23" s="228"/>
-      <c r="L23" s="228"/>
-      <c r="M23" s="228"/>
-      <c r="N23" s="228"/>
+      <c r="K23" s="248"/>
+      <c r="L23" s="248"/>
+      <c r="M23" s="248"/>
+      <c r="N23" s="248"/>
       <c r="O23" s="31"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
@@ -11055,8 +11004,8 @@
   </sheetPr>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11086,70 +11035,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="200" t="str">
+      <c r="B2" s="205" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>Menu</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="201" t="str">
+      <c r="B3" s="206" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la información del menú del restaurante</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="201"/>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="201"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -11212,7 +11161,7 @@
         <f>A28</f>
         <v>Eliminar</v>
       </c>
-      <c r="T4" s="297" t="str">
+      <c r="T4" s="100" t="str">
         <f>A29</f>
         <v>CambiarEstado</v>
       </c>
@@ -11221,7 +11170,7 @@
         <v>Cosultar</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -11263,24 +11212,24 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="T5" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="R5" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="T5" s="296" t="s">
+      <c r="U5" s="76" t="s">
         <v>227</v>
-      </c>
-      <c r="U5" s="76" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>39</v>
@@ -11317,22 +11266,22 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T6" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="R6" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="T6" s="296" t="s">
-        <v>227</v>
-      </c>
       <c r="U6" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -11375,19 +11324,19 @@
         <v>131</v>
       </c>
       <c r="Q7" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T7" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="R7" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="T7" s="296" t="s">
-        <v>227</v>
-      </c>
       <c r="U7" s="76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -11426,19 +11375,19 @@
         <v>130</v>
       </c>
       <c r="Q8" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T8" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="R8" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S8" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="T8" s="296" t="s">
-        <v>227</v>
-      </c>
       <c r="U8" s="79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -11481,19 +11430,19 @@
         <v>129</v>
       </c>
       <c r="Q9" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T9" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="R9" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="T9" s="296" t="s">
-        <v>227</v>
-      </c>
       <c r="U9" s="79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -11536,19 +11485,19 @@
         <v>128</v>
       </c>
       <c r="Q10" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T10" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="R10" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="T10" s="63" t="s">
-        <v>227</v>
-      </c>
       <c r="U10" s="79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -11585,19 +11534,19 @@
         <v>133</v>
       </c>
       <c r="Q11" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T11" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="R11" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="T11" s="31" t="s">
-        <v>227</v>
-      </c>
       <c r="U11" s="76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -11605,7 +11554,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="5"/>
@@ -11616,7 +11565,7 @@
         <v>50</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="5" t="s">
@@ -11635,31 +11584,31 @@
         <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="T12" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="U12" s="76" t="s">
         <v>232</v>
-      </c>
-      <c r="U12" s="76" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="202" t="s">
+      <c r="A14" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="204"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="209"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
@@ -11698,10 +11647,10 @@
     </row>
     <row r="18" spans="1:18" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>176</v>
       </c>
       <c r="C18" s="53" t="str">
         <f>+A11</f>
@@ -11710,44 +11659,44 @@
     </row>
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="205" t="s">
+      <c r="A20" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="196"/>
-      <c r="C20" s="196" t="s">
+      <c r="B20" s="201"/>
+      <c r="C20" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196" t="s">
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="201"/>
+      <c r="G20" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="196"/>
-      <c r="I20" s="196"/>
-      <c r="J20" s="196" t="s">
+      <c r="H20" s="201"/>
+      <c r="I20" s="201"/>
+      <c r="J20" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="196"/>
-      <c r="L20" s="196"/>
-      <c r="M20" s="196"/>
-      <c r="N20" s="196"/>
-      <c r="O20" s="196" t="s">
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="201"/>
+      <c r="O20" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="196"/>
-      <c r="Q20" s="196" t="s">
+      <c r="P20" s="201"/>
+      <c r="Q20" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="197"/>
+      <c r="R20" s="202"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="206"/>
-      <c r="B21" s="198"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
+      <c r="A21" s="211"/>
+      <c r="B21" s="203"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
       <c r="G21" s="19" t="s">
         <v>28</v>
       </c>
@@ -11760,12 +11709,12 @@
       <c r="J21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="198" t="s">
+      <c r="K21" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
-      <c r="N21" s="198"/>
+      <c r="L21" s="203"/>
+      <c r="M21" s="203"/>
+      <c r="N21" s="203"/>
       <c r="O21" s="19" t="s">
         <v>30</v>
       </c>
@@ -11780,204 +11729,204 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="254" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="255"/>
-      <c r="C22" s="144" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="153" t="s">
+      <c r="A22" s="224" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="225"/>
+      <c r="C22" s="153" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="156" t="s">
+      <c r="H22" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="159" t="s">
-        <v>302</v>
-      </c>
-      <c r="J22" s="156"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="146"/>
+      <c r="I22" s="168" t="s">
+        <v>301</v>
+      </c>
+      <c r="J22" s="165"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="155"/>
       <c r="O22" s="20">
         <v>1</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="R22" s="84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="256"/>
-      <c r="B23" s="257"/>
-      <c r="C23" s="147"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="157"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="148"/>
-      <c r="N23" s="149"/>
+      <c r="A23" s="226"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="158"/>
       <c r="O23" s="20">
         <v>2</v>
       </c>
       <c r="P23" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="R23" s="84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="258"/>
-      <c r="B24" s="259"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="152"/>
+      <c r="A24" s="228"/>
+      <c r="B24" s="229"/>
+      <c r="C24" s="159"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="161"/>
       <c r="O24" s="20">
         <v>3</v>
       </c>
       <c r="P24" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q24" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="286" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="287"/>
-      <c r="C25" s="162" t="s">
-        <v>298</v>
-      </c>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="171" t="s">
+      <c r="A25" s="277" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="278"/>
+      <c r="C25" s="171" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="180" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="177" t="s">
+      <c r="H25" s="186" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="174" t="s">
-        <v>303</v>
-      </c>
-      <c r="J25" s="171"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="163"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="164"/>
+      <c r="I25" s="183" t="s">
+        <v>302</v>
+      </c>
+      <c r="J25" s="180"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="173"/>
       <c r="O25" s="23">
         <v>4</v>
       </c>
       <c r="P25" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R25" s="85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="288"/>
-      <c r="B26" s="289"/>
-      <c r="C26" s="165"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="165"/>
-      <c r="L26" s="166"/>
-      <c r="M26" s="166"/>
-      <c r="N26" s="167"/>
+      <c r="A26" s="279"/>
+      <c r="B26" s="280"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="176"/>
       <c r="O26" s="23">
         <v>5</v>
       </c>
       <c r="P26" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R26" s="85" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="290"/>
-      <c r="B27" s="291"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="170"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="281"/>
+      <c r="B27" s="282"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="182"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="179"/>
       <c r="O27" s="23">
         <v>6</v>
       </c>
       <c r="P27" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q27" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R27" s="85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="237" t="s">
-        <v>187</v>
-      </c>
-      <c r="B28" s="238"/>
-      <c r="C28" s="239" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="239"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="239"/>
+      <c r="A28" s="257" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="258"/>
+      <c r="C28" s="266" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="266"/>
+      <c r="E28" s="266"/>
+      <c r="F28" s="266"/>
       <c r="G28" s="41" t="s">
         <v>38</v>
       </c>
@@ -11985,103 +11934,103 @@
         <v>39</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J28" s="42"/>
-      <c r="K28" s="236"/>
-      <c r="L28" s="236"/>
-      <c r="M28" s="236"/>
-      <c r="N28" s="236"/>
+      <c r="K28" s="267"/>
+      <c r="L28" s="267"/>
+      <c r="M28" s="267"/>
+      <c r="N28" s="267"/>
       <c r="O28" s="28">
         <v>4</v>
       </c>
       <c r="P28" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R28" s="86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="292" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="293"/>
-      <c r="C29" s="122" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="128" t="s">
+      <c r="A29" s="268" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="269"/>
+      <c r="C29" s="127" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="130" t="s">
+      <c r="H29" s="135" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="132" t="s">
-        <v>304</v>
-      </c>
-      <c r="J29" s="128"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="124"/>
+      <c r="I29" s="137" t="s">
+        <v>303</v>
+      </c>
+      <c r="J29" s="133"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="128"/>
+      <c r="M29" s="128"/>
+      <c r="N29" s="129"/>
       <c r="O29" s="31">
         <v>4</v>
       </c>
       <c r="P29" s="32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q29" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R29" s="87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="294"/>
-      <c r="B30" s="295"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="126"/>
-      <c r="N30" s="127"/>
+      <c r="A30" s="270"/>
+      <c r="B30" s="271"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="132"/>
       <c r="O30" s="31">
         <v>7</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q30" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R30" s="87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="284" t="s">
-        <v>296</v>
-      </c>
-      <c r="B31" s="285"/>
-      <c r="C31" s="240" t="s">
-        <v>301</v>
-      </c>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="242"/>
+      <c r="A31" s="272" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="273"/>
+      <c r="C31" s="274" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="275"/>
+      <c r="E31" s="275"/>
+      <c r="F31" s="276"/>
       <c r="G31" s="83" t="s">
         <v>142</v>
       </c>
@@ -12089,17 +12038,17 @@
         <v>142</v>
       </c>
       <c r="I31" s="76" t="s">
+        <v>304</v>
+      </c>
+      <c r="J31" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="J31" s="76" t="s">
+      <c r="K31" s="214" t="s">
         <v>306</v>
       </c>
-      <c r="K31" s="209" t="s">
-        <v>307</v>
-      </c>
-      <c r="L31" s="210"/>
-      <c r="M31" s="210"/>
-      <c r="N31" s="211"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="215"/>
+      <c r="N31" s="216"/>
       <c r="O31" s="76"/>
       <c r="P31" s="76"/>
       <c r="Q31" s="76"/>
@@ -12121,11 +12070,19 @@
     <mergeCell ref="K21:N21"/>
     <mergeCell ref="G25:G27"/>
     <mergeCell ref="C25:F27"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="K25:N27"/>
+    <mergeCell ref="J25:J27"/>
     <mergeCell ref="A25:B27"/>
     <mergeCell ref="C29:F30"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:N30"/>
     <mergeCell ref="A29:B30"/>
@@ -12137,14 +12094,6 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="H22:H24"/>
     <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="K25:N27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{CE046CF2-55A1-49BB-A51B-B44B322E3D79}"/>
@@ -12169,21 +12118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0DE5568C0AE848B2F225150E15E78E" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="643d399a24376eab49db33c80db032ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915fd109-ae29-4648-8de1-7f064f1d0fe5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a54904d818499acdea7742e4a0622bc" ns2:_="">
     <xsd:import namespace="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
@@ -12321,24 +12255,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C779E5F7-74AC-4CCB-8FB1-CBA1DF721FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12356,6 +12288,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>

--- a/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
+++ b/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95006674-72BB-4312-87EE-FA865874B04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1E7548-51DF-4559-A8AA-4B2EB9E2E2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="10" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="397">
   <si>
     <t>Nombre</t>
   </si>
@@ -1383,6 +1383,18 @@
   </si>
   <si>
     <t>Pais</t>
+  </si>
+  <si>
+    <t>Codigo Indicativo único</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un país de origen con el mismo codigo indicativo</t>
+  </si>
+  <si>
+    <t>Atributo que identifica la contraseña del cliente en el sistema del restaurante</t>
+  </si>
+  <si>
+    <t>Requerido / Modificable</t>
   </si>
 </sst>
 </file>
@@ -1949,7 +1961,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2147,12 +2159,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3626,53 +3632,53 @@
       <c r="P22" s="70"/>
     </row>
     <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="109" t="s">
+      <c r="B23" s="104"/>
+      <c r="C23" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="110"/>
-      <c r="E23" s="109" t="s">
+      <c r="D23" s="108"/>
+      <c r="E23" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="113" t="s">
+      <c r="F23" s="108"/>
+      <c r="G23" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="114"/>
+      <c r="H23" s="112"/>
       <c r="I23" s="68"/>
-      <c r="J23" s="101" t="s">
+      <c r="J23" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="K23" s="102"/>
-      <c r="L23" s="101" t="s">
+      <c r="K23" s="100"/>
+      <c r="L23" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="M23" s="102"/>
-      <c r="N23" s="101" t="s">
+      <c r="M23" s="100"/>
+      <c r="N23" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="O23" s="102"/>
+      <c r="O23" s="100"/>
       <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="114"/>
       <c r="I24" s="71"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="104"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="102"/>
       <c r="P24" s="72"/>
     </row>
   </sheetData>
@@ -3705,10 +3711,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3732,76 +3738,76 @@
     <col min="17" max="17" width="37.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="37.21875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="33.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="str">
+      <c r="B2" s="203" t="str">
         <f>+'Listado Objetos de Dominio'!A8</f>
         <v>Subcategoria</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>+'Listado Objetos de Dominio'!B8</f>
         <v>Objeto de dominio que contiene la información de las subcategorias de los productos que existen en el restaurante. Por ejemplo, entradas frías, ensaladas, sopas, pollo, cerdo, parrilla.</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -3853,23 +3859,23 @@
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
-        <f>A15</f>
+        <f>A14</f>
         <v>Registrar</v>
       </c>
       <c r="R4" s="35" t="str">
-        <f>A17</f>
+        <f>A16</f>
         <v>Modificar</v>
       </c>
       <c r="S4" s="36" t="str">
-        <f>A19</f>
+        <f>A18</f>
         <v>Eliminar</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A21</f>
+        <f>A20</f>
         <v>Consultar</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -3919,9 +3925,11 @@
       <c r="S5" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -3969,413 +3977,393 @@
       <c r="S6" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="T6" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="205" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="206"/>
+      <c r="C8" s="207"/>
+    </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="207" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="209"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="10" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="53" t="str">
+      <c r="C10" s="53" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="208" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="199" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="199"/>
+      <c r="Q12" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="200"/>
+    </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
-        <v>23</v>
-      </c>
+      <c r="A13" s="209"/>
       <c r="B13" s="201"/>
-      <c r="C13" s="201" t="s">
-        <v>1</v>
-      </c>
+      <c r="C13" s="201"/>
       <c r="D13" s="201"/>
       <c r="E13" s="201"/>
       <c r="F13" s="201"/>
-      <c r="G13" s="201" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="201"/>
+      <c r="G13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="201" t="s">
+        <v>1</v>
+      </c>
       <c r="L13" s="201"/>
       <c r="M13" s="201"/>
       <c r="N13" s="201"/>
-      <c r="O13" s="201" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="202"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="19" t="s">
+      <c r="O13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="203" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="145" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="146"/>
+      <c r="C14" s="151" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="160" t="s">
+        <v>127</v>
+      </c>
+      <c r="H14" s="163" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="166" t="s">
+        <v>335</v>
+      </c>
+      <c r="J14" s="163"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="20">
         <v>1</v>
       </c>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="203"/>
-      <c r="O14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>32</v>
+      <c r="P14" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="147" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="153" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="162" t="s">
+      <c r="A15" s="149"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="20">
+        <v>2</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="187" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="188"/>
+      <c r="C16" s="169" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="178" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="165" t="s">
+      <c r="H16" s="184" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="168" t="s">
-        <v>335</v>
-      </c>
-      <c r="J15" s="165"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="20">
-        <v>1</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="R15" s="51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="20">
-        <v>2</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="R16" s="51" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="189" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="190"/>
-      <c r="C17" s="171" t="s">
-        <v>331</v>
-      </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="180" t="s">
+      <c r="I16" s="181" t="s">
+        <v>336</v>
+      </c>
+      <c r="J16" s="178"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="23">
+        <v>3</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="R16" s="93" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="191"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="23">
+        <v>4</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="R17" s="93" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="193" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="194"/>
+      <c r="C18" s="115" t="s">
+        <v>332</v>
+      </c>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="139" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="197" t="s">
+        <v>334</v>
+      </c>
+      <c r="I18" s="137" t="s">
+        <v>337</v>
+      </c>
+      <c r="J18" s="94"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="28">
+        <v>3</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="R18" s="84" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="195"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="28">
+        <v>5</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q19" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="R19" s="84" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="243" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="244"/>
+      <c r="C20" s="245" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="245"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="186" t="s">
+      <c r="H20" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="183" t="s">
-        <v>336</v>
-      </c>
-      <c r="J17" s="180"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="23">
-        <v>3</v>
-      </c>
-      <c r="P17" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q17" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="R17" s="95" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="193"/>
-      <c r="B18" s="194"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="23">
-        <v>4</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q18" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="R18" s="95" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="195" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="117" t="s">
-        <v>332</v>
-      </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="141" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="199" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="139" t="s">
-        <v>337</v>
-      </c>
-      <c r="J19" s="96"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="28">
-        <v>3</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q19" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="R19" s="86" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="197"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="122"/>
-      <c r="O20" s="28">
-        <v>5</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q20" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="R20" s="86" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="245" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="246"/>
-      <c r="C21" s="247" t="s">
-        <v>333</v>
-      </c>
-      <c r="D21" s="247"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="46" t="s">
+      <c r="I20" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J20" s="47" t="s">
         <v>339</v>
       </c>
-      <c r="K21" s="248" t="s">
+      <c r="K20" s="246" t="s">
         <v>340</v>
       </c>
-      <c r="L21" s="248"/>
-      <c r="M21" s="248"/>
-      <c r="N21" s="248"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
+      <c r="L20" s="246"/>
+      <c r="M20" s="246"/>
+      <c r="N20" s="246"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:N20"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N16"/>
-    <mergeCell ref="K17:N18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="K18:N19"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="K16:N17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="A16:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D185261F-9678-49CA-AD95-5B64B30542E5}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{2ED39758-8B8B-457E-A92B-A4F48E660D44}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{9423AE41-3F0B-4471-8871-5A00E481A9D9}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{B4E73532-4C6E-4F0B-906C-A3AE84C46F60}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{E535EF03-3685-473A-B81E-EED30C880A25}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{E535EF03-3685-473A-B81E-EED30C880A25}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{46FA2916-F294-43BF-B317-B7ECA3C41405}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{CDE1BAD7-B79B-478B-871E-B505A6941B52}"/>
-    <hyperlink ref="C11" location="Categoría!A6" display="Categoría!A6" xr:uid="{8AB6D96C-A97A-40DF-81ED-76D7A86DE095}"/>
-    <hyperlink ref="H15" location="Subcategoria!A2" display="Subcategoria" xr:uid="{A9F88CBA-409E-43AD-9869-FCBB4803D1AA}"/>
-    <hyperlink ref="H21" location="Subcategoria!A2" display="Subcategoria" xr:uid="{EDDC4143-23AB-459D-9B05-D9FDA005EDEA}"/>
-    <hyperlink ref="H17" location="Subcategoria!A2" display="Subcategoria" xr:uid="{7B25406F-CA80-4E9B-8B08-E76EB2FAA205}"/>
+    <hyperlink ref="C10" location="Categoría!A6" display="Categoría!A6" xr:uid="{8AB6D96C-A97A-40DF-81ED-76D7A86DE095}"/>
+    <hyperlink ref="H14" location="Subcategoria!A2" display="Subcategoria" xr:uid="{A9F88CBA-409E-43AD-9869-FCBB4803D1AA}"/>
+    <hyperlink ref="H20" location="Subcategoria!A2" display="Subcategoria" xr:uid="{EDDC4143-23AB-459D-9B05-D9FDA005EDEA}"/>
+    <hyperlink ref="H16" location="Subcategoria!A2" display="Subcategoria" xr:uid="{7B25406F-CA80-4E9B-8B08-E76EB2FAA205}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4386,10 +4374,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4412,77 +4400,77 @@
     <col min="16" max="16" width="94.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="49.5546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="str">
+      <c r="B2" s="203" t="str">
         <f>+'Listado Objetos de Dominio'!A7</f>
         <v>Categoria</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>+'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene la información de las categorías de platos que existen en el restaurante. Por ejemplo plato principal, postres, bebidas, entradas, etc.</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -4534,23 +4522,23 @@
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
-        <f>A15</f>
+        <f>A14</f>
         <v>Registrar</v>
       </c>
       <c r="R4" s="35" t="str">
-        <f>A17</f>
+        <f>A16</f>
         <v>Modificar</v>
       </c>
       <c r="S4" s="36" t="str">
-        <f>A19</f>
+        <f>A18</f>
         <v>Eliminar</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A21</f>
+        <f>A20</f>
         <v>Consultar</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -4591,12 +4579,20 @@
       <c r="P5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Q5" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -4635,401 +4631,390 @@
       <c r="P6" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
-    </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="Q6" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="205" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="206"/>
+      <c r="C8" s="207"/>
+    </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="207" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="208"/>
-      <c r="C9" s="209"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="A9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="10" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="53" t="str">
+      <c r="C10" s="53" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="208" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
+      <c r="N12" s="199"/>
+      <c r="O12" s="199" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="199"/>
+      <c r="Q12" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="200"/>
+    </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
-        <v>23</v>
-      </c>
+      <c r="A13" s="209"/>
       <c r="B13" s="201"/>
-      <c r="C13" s="201" t="s">
-        <v>1</v>
-      </c>
+      <c r="C13" s="201"/>
       <c r="D13" s="201"/>
       <c r="E13" s="201"/>
       <c r="F13" s="201"/>
-      <c r="G13" s="201" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="201"/>
+      <c r="G13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="201" t="s">
+        <v>1</v>
+      </c>
       <c r="L13" s="201"/>
       <c r="M13" s="201"/>
       <c r="N13" s="201"/>
-      <c r="O13" s="201" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201" t="s">
-        <v>27</v>
-      </c>
-      <c r="R13" s="202"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="19" t="s">
+      <c r="O13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="203" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="145" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="146"/>
+      <c r="C14" s="151" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="237" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="281" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="166" t="s">
+        <v>369</v>
+      </c>
+      <c r="J14" s="163"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="20">
         <v>1</v>
       </c>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="203"/>
-      <c r="O14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>32</v>
+      <c r="P14" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="147" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="265" t="s">
-        <v>365</v>
-      </c>
-      <c r="D15" s="265"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="265"/>
-      <c r="G15" s="239" t="s">
+      <c r="A15" s="149"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="282"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="158"/>
+      <c r="M15" s="158"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="20">
+        <v>2</v>
+      </c>
+      <c r="P15" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="187" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="188"/>
+      <c r="C16" s="169" t="s">
+        <v>366</v>
+      </c>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="283" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="283" t="s">
+      <c r="H16" s="285" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="168" t="s">
-        <v>369</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="265"/>
-      <c r="L15" s="265"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="265"/>
-      <c r="O15" s="20">
-        <v>1</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="R15" s="51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="151"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="241"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="20">
-        <v>2</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="R16" s="51" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="189" t="s">
-        <v>184</v>
-      </c>
-      <c r="B17" s="190"/>
-      <c r="C17" s="222" t="s">
-        <v>366</v>
-      </c>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="285" t="s">
+      <c r="I16" s="181" t="s">
+        <v>370</v>
+      </c>
+      <c r="J16" s="178"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="23">
+        <v>3</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="R16" s="93" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="191"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="284"/>
+      <c r="H17" s="286"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="23">
+        <v>4</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="R17" s="93" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="193" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="194"/>
+      <c r="C18" s="115" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="259" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="287" t="s">
+        <v>334</v>
+      </c>
+      <c r="I18" s="137" t="s">
+        <v>371</v>
+      </c>
+      <c r="J18" s="139"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="116"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="28">
+        <v>3</v>
+      </c>
+      <c r="P18" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q18" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="R18" s="84" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="195"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="288"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="28">
+        <v>5</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q19" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="R19" s="84" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="243" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="244"/>
+      <c r="C20" s="245" t="s">
+        <v>368</v>
+      </c>
+      <c r="D20" s="245"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="287" t="s">
+      <c r="H20" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="183" t="s">
-        <v>370</v>
-      </c>
-      <c r="J17" s="38"/>
-      <c r="K17" s="223"/>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="23">
-        <v>3</v>
-      </c>
-      <c r="P17" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q17" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="R17" s="95" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="193"/>
-      <c r="B18" s="194"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="185"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="23">
-        <v>4</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q18" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="R18" s="95" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="195" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="196"/>
-      <c r="C19" s="266" t="s">
-        <v>367</v>
-      </c>
-      <c r="D19" s="266"/>
-      <c r="E19" s="266"/>
-      <c r="F19" s="266"/>
-      <c r="G19" s="261" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="289" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="139" t="s">
-        <v>371</v>
-      </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="267"/>
-      <c r="L19" s="267"/>
-      <c r="M19" s="267"/>
-      <c r="N19" s="267"/>
-      <c r="O19" s="28">
-        <v>3</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q19" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="R19" s="86" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="197"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="28">
-        <v>5</v>
-      </c>
-      <c r="P20" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q20" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="R20" s="86" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="245" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="246"/>
-      <c r="C21" s="247" t="s">
-        <v>368</v>
-      </c>
-      <c r="D21" s="247"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="46" t="s">
+      <c r="I20" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="J20" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="K21" s="248" t="s">
+      <c r="K20" s="246" t="s">
         <v>374</v>
       </c>
-      <c r="L21" s="248"/>
-      <c r="M21" s="248"/>
-      <c r="N21" s="248"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="33"/>
+      <c r="L20" s="246"/>
+      <c r="M20" s="246"/>
+      <c r="N20" s="246"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I19:I20"/>
+  <mergeCells count="35">
+    <mergeCell ref="K18:N19"/>
+    <mergeCell ref="K16:N17"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{5C47FB70-A130-4B3A-B4F7-897BEE8D791F}"/>
@@ -5038,11 +5023,11 @@
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{6C444A78-CE6A-42EF-858F-756E9ED050F9}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{C3FD1F9D-5256-445B-9E48-D1E9E7EC95EA}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EE052356-B6F0-4952-8B51-4305DF9AE45E}"/>
-    <hyperlink ref="C11" location="Categoría!A6" display="Categoría!A6" xr:uid="{37FA6F5F-91C7-45C7-BE38-2827BC892336}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{F5BDF417-40F6-4994-8807-9AF53DF15BD2}"/>
-    <hyperlink ref="H15" location="Subcategoria!A2" display="Subcategoria" xr:uid="{3ECCBC24-0828-43D8-93BA-67ED74B27915}"/>
-    <hyperlink ref="H21" location="Subcategoria!A2" display="Subcategoria" xr:uid="{994DDE5B-1FDD-4E3C-8CDF-DBEFD6B45FD9}"/>
-    <hyperlink ref="H17" location="Subcategoria!A2" display="Subcategoria" xr:uid="{E989BEB5-5F2D-490C-9F7E-DA16FE3D5FF3}"/>
+    <hyperlink ref="C10" location="Categoría!A6" display="Categoría!A6" xr:uid="{37FA6F5F-91C7-45C7-BE38-2827BC892336}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{F5BDF417-40F6-4994-8807-9AF53DF15BD2}"/>
+    <hyperlink ref="H14" location="Subcategoria!A2" display="Subcategoria" xr:uid="{3ECCBC24-0828-43D8-93BA-67ED74B27915}"/>
+    <hyperlink ref="H20" location="Subcategoria!A2" display="Subcategoria" xr:uid="{994DDE5B-1FDD-4E3C-8CDF-DBEFD6B45FD9}"/>
+    <hyperlink ref="H16" location="Subcategoria!A2" display="Subcategoria" xr:uid="{E989BEB5-5F2D-490C-9F7E-DA16FE3D5FF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5083,69 +5068,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5367,11 +5352,11 @@
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="207" t="s">
+      <c r="A11" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="207"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -5403,44 +5388,44 @@
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="210" t="s">
+      <c r="A16" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="201"/>
-      <c r="C16" s="201" t="s">
+      <c r="B16" s="199"/>
+      <c r="C16" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201" t="s">
+      <c r="D16" s="199"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201" t="s">
+      <c r="H16" s="199"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201" t="s">
+      <c r="K16" s="199"/>
+      <c r="L16" s="199"/>
+      <c r="M16" s="199"/>
+      <c r="N16" s="199"/>
+      <c r="O16" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="201" t="s">
+      <c r="P16" s="199"/>
+      <c r="Q16" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="202"/>
+      <c r="R16" s="200"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
+      <c r="A17" s="209"/>
+      <c r="B17" s="201"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="201"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -5453,12 +5438,12 @@
       <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="203" t="s">
+      <c r="K17" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="203"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="201"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -5473,88 +5458,88 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="263" t="s">
+      <c r="A18" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="264"/>
-      <c r="C18" s="265"/>
-      <c r="D18" s="265"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="265"/>
+      <c r="B18" s="262"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="263"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="265"/>
-      <c r="L18" s="265"/>
-      <c r="M18" s="265"/>
-      <c r="N18" s="265"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="263"/>
+      <c r="N18" s="263"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="220" t="s">
+      <c r="A19" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="221"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="222"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="220"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="220"/>
       <c r="G19" s="45"/>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="223"/>
-      <c r="L19" s="223"/>
-      <c r="M19" s="223"/>
-      <c r="N19" s="223"/>
+      <c r="K19" s="221"/>
+      <c r="L19" s="221"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="221"/>
       <c r="O19" s="23"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="257" t="s">
+      <c r="A20" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="258"/>
-      <c r="C20" s="266"/>
-      <c r="D20" s="266"/>
-      <c r="E20" s="266"/>
-      <c r="F20" s="266"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="264"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="264"/>
+      <c r="F20" s="264"/>
       <c r="G20" s="41"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="267"/>
-      <c r="L20" s="267"/>
-      <c r="M20" s="267"/>
-      <c r="N20" s="267"/>
+      <c r="K20" s="265"/>
+      <c r="L20" s="265"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="265"/>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="245" t="s">
+      <c r="A21" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="246"/>
-      <c r="C21" s="247"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
+      <c r="B21" s="244"/>
+      <c r="C21" s="245"/>
+      <c r="D21" s="245"/>
+      <c r="E21" s="245"/>
+      <c r="F21" s="245"/>
       <c r="G21" s="47"/>
       <c r="H21" s="48"/>
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
-      <c r="K21" s="248"/>
-      <c r="L21" s="248"/>
-      <c r="M21" s="248"/>
-      <c r="N21" s="248"/>
+      <c r="K21" s="246"/>
+      <c r="L21" s="246"/>
+      <c r="M21" s="246"/>
+      <c r="N21" s="246"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -5706,8 +5691,8 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5737,70 +5722,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="str">
+      <c r="B2" s="203" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que representa a cada uno de los tipos de identificación que tienen los clientes dentro del restaurante. Por ejemplo, cédula de ciudadanía, Tarjeta de Identidad, Pasaporte, etc.</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5851,23 +5836,23 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="92" t="str">
+      <c r="Q4" s="90" t="str">
         <f>A17</f>
         <v>Registrar</v>
       </c>
-      <c r="R4" s="91" t="str">
+      <c r="R4" s="89" t="str">
         <f>A20</f>
         <v>Modificar</v>
       </c>
-      <c r="S4" s="90" t="str">
+      <c r="S4" s="88" t="str">
         <f>A23</f>
         <v>Eliminar</v>
       </c>
-      <c r="T4" s="89" t="str">
+      <c r="T4" s="87" t="str">
         <f>A25</f>
         <v>CambiarEstado</v>
       </c>
-      <c r="U4" s="88" t="str">
+      <c r="U4" s="86" t="str">
         <f>+A27</f>
         <v>Consultar</v>
       </c>
@@ -5925,7 +5910,7 @@
       <c r="T5" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="76" t="s">
+      <c r="U5" s="74" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5982,7 +5967,7 @@
       <c r="T6" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="77" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6039,7 +6024,7 @@
       <c r="T7" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="U7" s="76" t="s">
+      <c r="U7" s="74" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6050,7 +6035,7 @@
       <c r="B8" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -6092,7 +6077,7 @@
       <c r="T8" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="U8" s="76" t="s">
+      <c r="U8" s="74" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6101,14 +6086,14 @@
       <c r="R9" s="61"/>
       <c r="S9" s="62"/>
       <c r="T9" s="63"/>
-      <c r="U9" s="81"/>
+      <c r="U9" s="79"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="207"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
@@ -6147,44 +6132,44 @@
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201" t="s">
+      <c r="B15" s="199"/>
+      <c r="C15" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201" t="s">
+      <c r="D15" s="199"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201" t="s">
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201" t="s">
+      <c r="K15" s="199"/>
+      <c r="L15" s="199"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="199"/>
+      <c r="O15" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="201" t="s">
+      <c r="P15" s="199"/>
+      <c r="Q15" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="202"/>
+      <c r="R15" s="200"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="211"/>
-      <c r="B16" s="203"/>
-      <c r="C16" s="203"/>
-      <c r="D16" s="203"/>
-      <c r="E16" s="203"/>
-      <c r="F16" s="203"/>
+      <c r="A16" s="209"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="201"/>
       <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
@@ -6197,12 +6182,12 @@
       <c r="J16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="203" t="s">
+      <c r="K16" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
       <c r="O16" s="19" t="s">
         <v>30</v>
       </c>
@@ -6217,124 +6202,124 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="145" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="153" t="s">
+      <c r="B17" s="146"/>
+      <c r="C17" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="162" t="s">
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="H17" s="165" t="s">
+      <c r="H17" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="I17" s="168" t="s">
+      <c r="I17" s="166" t="s">
         <v>192</v>
       </c>
-      <c r="J17" s="165"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="155"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="153"/>
       <c r="O17" s="20">
         <v>1</v>
       </c>
       <c r="P17" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="Q17" s="75" t="s">
+      <c r="Q17" s="73" t="s">
         <v>206</v>
       </c>
-      <c r="R17" s="84" t="s">
+      <c r="R17" s="82" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="149"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="163"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="158"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="164"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="156"/>
       <c r="O18" s="20">
         <v>2</v>
       </c>
       <c r="P18" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="Q18" s="75" t="s">
+      <c r="Q18" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="R18" s="84" t="s">
+      <c r="R18" s="82" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="151"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="159"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="161"/>
+      <c r="A19" s="149"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="158"/>
+      <c r="M19" s="158"/>
+      <c r="N19" s="159"/>
       <c r="O19" s="20">
         <v>3</v>
       </c>
       <c r="P19" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="Q19" s="75" t="s">
+      <c r="Q19" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="R19" s="84" t="s">
+      <c r="R19" s="82" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="189" t="s">
+      <c r="A20" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="190"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="188"/>
+      <c r="C20" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="180" t="s">
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="178" t="s">
         <v>191</v>
       </c>
-      <c r="H20" s="186" t="s">
+      <c r="H20" s="184" t="s">
         <v>191</v>
       </c>
-      <c r="I20" s="183" t="s">
+      <c r="I20" s="181" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="180"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="173"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="169"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="171"/>
       <c r="O20" s="23">
         <v>4</v>
       </c>
@@ -6344,25 +6329,25 @@
       <c r="Q20" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="R20" s="85" t="s">
+      <c r="R20" s="83" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="191"/>
-      <c r="B21" s="192"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="176"/>
+      <c r="A21" s="189"/>
+      <c r="B21" s="190"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="179"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="173"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="174"/>
       <c r="O21" s="23">
         <v>5</v>
       </c>
@@ -6372,25 +6357,25 @@
       <c r="Q21" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R21" s="83" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="193"/>
-      <c r="B22" s="194"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="179"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="179"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
+      <c r="N22" s="177"/>
       <c r="O22" s="23">
         <v>6</v>
       </c>
@@ -6400,35 +6385,35 @@
       <c r="Q22" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="R22" s="85" t="s">
+      <c r="R22" s="83" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="195" t="s">
+      <c r="A23" s="193" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="196"/>
-      <c r="C23" s="117" t="s">
+      <c r="B23" s="194"/>
+      <c r="C23" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="141" t="s">
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="199" t="s">
+      <c r="H23" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="139" t="s">
+      <c r="I23" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="J23" s="141"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="119"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="117"/>
       <c r="O23" s="28">
         <v>4</v>
       </c>
@@ -6438,25 +6423,25 @@
       <c r="Q23" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="R23" s="86" t="s">
+      <c r="R23" s="84" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="197"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="121"/>
-      <c r="N24" s="122"/>
+      <c r="A24" s="195"/>
+      <c r="B24" s="196"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="198"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="119"/>
+      <c r="N24" s="120"/>
       <c r="O24" s="28">
         <v>7</v>
       </c>
@@ -6466,33 +6451,33 @@
       <c r="Q24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="R24" s="86" t="s">
+      <c r="R24" s="84" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="127" t="s">
+      <c r="B25" s="122"/>
+      <c r="C25" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="133" t="s">
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="135" t="s">
+      <c r="H25" s="133" t="s">
         <v>191</v>
       </c>
-      <c r="I25" s="137"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="129"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="131"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="127"/>
       <c r="O25" s="31">
         <v>4</v>
       </c>
@@ -6502,25 +6487,25 @@
       <c r="Q25" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="R25" s="87" t="s">
+      <c r="R25" s="85" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="125"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="132"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="130"/>
       <c r="O26" s="31">
         <v>8</v>
       </c>
@@ -6530,41 +6515,41 @@
       <c r="Q26" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="R26" s="87" t="s">
+      <c r="R26" s="85" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="81" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="143" t="s">
+    <row r="27" spans="1:18" s="79" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="144"/>
-      <c r="C27" s="145" t="s">
+      <c r="B27" s="142"/>
+      <c r="C27" s="143" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="83" t="s">
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="81" t="s">
         <v>191</v>
       </c>
       <c r="H27" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78" t="s">
+      <c r="I27" s="75"/>
+      <c r="J27" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="K27" s="146" t="s">
+      <c r="K27" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="L27" s="146"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="80"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -6638,12 +6623,12 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G25" sqref="G25"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27:J29"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6673,70 +6658,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="str">
+      <c r="B2" s="203" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que representa a cada uno de los clientes que realiza una reserva en el restaurante</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -6787,20 +6772,20 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="92" t="str">
-        <f>A27</f>
+      <c r="Q4" s="90" t="str">
+        <f>A28</f>
         <v>Registrar</v>
       </c>
-      <c r="R4" s="91" t="str">
-        <f>A30</f>
+      <c r="R4" s="89" t="str">
+        <f>A31</f>
         <v>IniciarSesion</v>
       </c>
-      <c r="S4" s="90" t="str">
-        <f>A31</f>
+      <c r="S4" s="88" t="str">
+        <f>A32</f>
         <v>Modificar</v>
       </c>
-      <c r="T4" s="89" t="str">
-        <f>A33</f>
+      <c r="T4" s="87" t="str">
+        <f>A34</f>
         <v>Eliminar</v>
       </c>
     </row>
@@ -7274,22 +7259,26 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C14" s="5">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>50</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="L14" s="5" t="s">
@@ -7299,22 +7288,22 @@
         <v>47</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="34" t="s">
         <v>225</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="T14" s="31" t="s">
         <v>228</v>
@@ -7322,22 +7311,18 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="5">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5">
-        <v>50</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="13"/>
@@ -7357,7 +7342,7 @@
         <v>46</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q15" s="34" t="s">
         <v>225</v>
@@ -7366,7 +7351,7 @@
         <v>228</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="T15" s="31" t="s">
         <v>228</v>
@@ -7374,20 +7359,22 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>152</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
       <c r="D16" s="5">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="6" t="s">
-        <v>79</v>
+      <c r="H16" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="13"/>
@@ -7401,13 +7388,13 @@
         <v>47</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="34" t="s">
         <v>225</v>
@@ -7422,24 +7409,26 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>161</v>
+        <v>141</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>141</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>15</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>50</v>
+      <c r="H17" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="12" t="s">
         <v>46</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -7449,13 +7438,13 @@
         <v>47</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="34" t="s">
         <v>225</v>
@@ -7464,493 +7453,541 @@
         <v>228</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="T17" s="31" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="63"/>
-    </row>
-    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="207" t="s">
+    <row r="18" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T18" s="31" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="63"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="208"/>
-      <c r="C20" s="209"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="B21" s="206"/>
+      <c r="C21" s="207"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+    <row r="23" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="53" t="str">
+      <c r="C23" s="53" t="str">
         <f>+A12</f>
         <v>CorreoElectronico</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+    <row r="24" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="53" t="str">
-        <f>+A16</f>
+      <c r="C24" s="53" t="str">
+        <f>+A17</f>
         <v>NumeroCelular</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="210" t="s">
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="201"/>
-      <c r="C25" s="201" t="s">
+      <c r="B26" s="199"/>
+      <c r="C26" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201" t="s">
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="201" t="s">
+      <c r="H26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
-      <c r="N25" s="201"/>
-      <c r="O25" s="201" t="s">
+      <c r="K26" s="199"/>
+      <c r="L26" s="199"/>
+      <c r="M26" s="199"/>
+      <c r="N26" s="199"/>
+      <c r="O26" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="201"/>
-      <c r="Q25" s="201" t="s">
+      <c r="P26" s="199"/>
+      <c r="Q26" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="202"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="211"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="19" t="s">
+      <c r="R26" s="200"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="209"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I27" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="203" t="s">
+      <c r="K27" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
-      <c r="O26" s="19" t="s">
+      <c r="L27" s="201"/>
+      <c r="M27" s="201"/>
+      <c r="N27" s="201"/>
+      <c r="O27" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P26" s="19" t="s">
+      <c r="P27" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q26" s="19" t="s">
+      <c r="Q27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R27" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="224" t="s">
+    <row r="28" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="222" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="225"/>
-      <c r="C27" s="230" t="s">
+      <c r="B28" s="223"/>
+      <c r="C28" s="228" t="s">
         <v>236</v>
       </c>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="232"/>
-      <c r="G27" s="239" t="s">
+      <c r="D28" s="229"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="237" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="242" t="s">
+      <c r="H28" s="240" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="168" t="s">
+      <c r="I28" s="166" t="s">
         <v>265</v>
       </c>
-      <c r="J27" s="165"/>
-      <c r="K27" s="153"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="154"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="20">
+      <c r="J28" s="163"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="20">
         <v>1</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="P28" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="Q27" s="20" t="s">
+      <c r="Q28" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="R27" s="51" t="s">
+      <c r="R28" s="51" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="226"/>
-      <c r="B28" s="227"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="243"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="20">
+    <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="224"/>
+      <c r="B29" s="225"/>
+      <c r="C29" s="231"/>
+      <c r="D29" s="232"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="238"/>
+      <c r="H29" s="241"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="20">
         <v>2</v>
       </c>
-      <c r="P28" s="20" t="s">
+      <c r="P29" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="Q28" s="20" t="s">
+      <c r="Q29" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="R28" s="51" t="s">
+      <c r="R29" s="51" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="228"/>
-      <c r="B29" s="229"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="237"/>
-      <c r="E29" s="237"/>
-      <c r="F29" s="238"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="20">
+    <row r="30" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="226"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="234"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="165"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="20">
         <v>3</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="P30" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="Q29" s="20" t="s">
+      <c r="Q30" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="R29" s="51" t="s">
+      <c r="R30" s="51" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="220" t="s">
+    <row r="31" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="218" t="s">
         <v>233</v>
       </c>
-      <c r="B30" s="221"/>
-      <c r="C30" s="222" t="s">
+      <c r="B31" s="219"/>
+      <c r="C31" s="220" t="s">
         <v>237</v>
       </c>
-      <c r="D30" s="222"/>
-      <c r="E30" s="222"/>
-      <c r="F30" s="222"/>
-      <c r="G30" s="45" t="s">
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="H31" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I31" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="223"/>
-      <c r="L30" s="223"/>
-      <c r="M30" s="223"/>
-      <c r="N30" s="223"/>
-      <c r="O30" s="23">
+      <c r="J31" s="38"/>
+      <c r="K31" s="221"/>
+      <c r="L31" s="221"/>
+      <c r="M31" s="221"/>
+      <c r="N31" s="221"/>
+      <c r="O31" s="23">
         <v>4</v>
       </c>
-      <c r="P30" s="24" t="s">
+      <c r="P31" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="Q30" s="24" t="s">
+      <c r="Q31" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="R30" s="95" t="s">
+      <c r="R31" s="93" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="255" t="s">
+    <row r="32" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="253" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="256"/>
-      <c r="C31" s="249" t="s">
+      <c r="B32" s="254"/>
+      <c r="C32" s="247" t="s">
         <v>238</v>
       </c>
-      <c r="D31" s="250"/>
-      <c r="E31" s="250"/>
-      <c r="F31" s="251"/>
-      <c r="G31" s="261" t="s">
+      <c r="D32" s="248"/>
+      <c r="E32" s="248"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="259" t="s">
         <v>56</v>
       </c>
-      <c r="H31" s="259" t="s">
+      <c r="H32" s="257" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="139" t="s">
+      <c r="I32" s="137" t="s">
         <v>267</v>
       </c>
-      <c r="J31" s="141"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="119"/>
-      <c r="O31" s="28">
+      <c r="J32" s="139"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="28">
         <v>5</v>
       </c>
-      <c r="P31" s="29" t="s">
+      <c r="P32" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="Q31" s="29" t="s">
+      <c r="Q32" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="R31" s="86" t="s">
+      <c r="R32" s="84" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="257"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="253"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="254"/>
-      <c r="G32" s="262"/>
-      <c r="H32" s="260"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="121"/>
-      <c r="N32" s="122"/>
-      <c r="O32" s="28">
+    <row r="33" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="255"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="251"/>
+      <c r="E33" s="251"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="260"/>
+      <c r="H33" s="258"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="28">
         <v>6</v>
       </c>
-      <c r="P32" s="29" t="s">
+      <c r="P33" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="Q32" s="29" t="s">
+      <c r="Q33" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="R32" s="86" t="s">
+      <c r="R33" s="84" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="245" t="s">
+    <row r="34" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="243" t="s">
         <v>186</v>
       </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="247" t="s">
+      <c r="B34" s="244"/>
+      <c r="C34" s="245" t="s">
         <v>239</v>
       </c>
-      <c r="D33" s="247"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="82" t="s">
+      <c r="D34" s="245"/>
+      <c r="E34" s="245"/>
+      <c r="F34" s="245"/>
+      <c r="G34" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H34" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="46" t="s">
+      <c r="I34" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="J33" s="47"/>
-      <c r="K33" s="248"/>
-      <c r="L33" s="248"/>
-      <c r="M33" s="248"/>
-      <c r="N33" s="248"/>
-      <c r="O33" s="31">
+      <c r="J34" s="47"/>
+      <c r="K34" s="246"/>
+      <c r="L34" s="246"/>
+      <c r="M34" s="246"/>
+      <c r="N34" s="246"/>
+      <c r="O34" s="31">
         <v>5</v>
       </c>
-      <c r="P33" s="32" t="s">
+      <c r="P34" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="Q33" s="32" t="s">
+      <c r="Q34" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="R33" s="87" t="s">
+      <c r="R34" s="85" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="212" t="s">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="210" t="s">
         <v>234</v>
       </c>
-      <c r="B34" s="212"/>
-      <c r="C34" s="212" t="s">
+      <c r="B35" s="210"/>
+      <c r="C35" s="210" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="212"/>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="214"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="215"/>
-      <c r="N34" s="216"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="213" t="s">
+      <c r="D35" s="210"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="210"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="212"/>
+      <c r="L35" s="213"/>
+      <c r="M35" s="213"/>
+      <c r="N35" s="214"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="211" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="213"/>
-      <c r="C35" s="213" t="s">
+      <c r="B36" s="211"/>
+      <c r="C36" s="211" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="213"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="93" t="s">
+      <c r="D36" s="211"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="93" t="s">
+      <c r="H36" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="217"/>
-      <c r="L35" s="218"/>
-      <c r="M35" s="218"/>
-      <c r="N35" s="219"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="216"/>
+      <c r="M36" s="216"/>
+      <c r="N36" s="217"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="C31:F32"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="K31:N32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="C32:F33"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="K32:N33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="K31:N31"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="C27:F29"/>
-    <mergeCell ref="K27:N29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:F27"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="C28:F30"/>
+    <mergeCell ref="K28:N30"/>
+    <mergeCell ref="G28:G30"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="C35:F35"/>
-    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="C36:F36"/>
     <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
-    <hyperlink ref="H33" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
+    <hyperlink ref="H34" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{25C12BD1-D4FF-4A66-A1D2-16B9D6F696EA}"/>
     <hyperlink ref="R4" location="Cliente!A29" display="Cliente!A29" xr:uid="{A2870EFD-A505-493E-87E8-2E1411795896}"/>
     <hyperlink ref="S4" location="Cliente!A30" display="Cliente!A30" xr:uid="{255B7490-DDA4-4BEF-98CA-B99448352900}"/>
     <hyperlink ref="T4" location="Cliente!A32" display="Cliente!A32" xr:uid="{706882A1-07E0-4948-8B9C-8861D2CC8FE3}"/>
-    <hyperlink ref="A30:B30" location="Cliente!R4" display="IniciarSesion" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
-    <hyperlink ref="A33:B33" location="Cliente!T4" display="Eliminar" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
+    <hyperlink ref="A31:B31" location="Cliente!R4" display="IniciarSesion" xr:uid="{B337A699-0CE0-4F38-BF55-7E8C0A137EBF}"/>
+    <hyperlink ref="A34:B34" location="Cliente!T4" display="Eliminar" xr:uid="{715E6582-9CD3-4DEC-9198-02819694A183}"/>
     <hyperlink ref="Q4" location="Cliente!A26" display="Cliente!A26" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
     <hyperlink ref="B6" location="TipoIdentificacion!A2" display="TipoIdentificacion" xr:uid="{C74898D3-2008-4598-8D6D-F52B5092C2B9}"/>
-    <hyperlink ref="B15" location="PaisOrigen!A1" display="PaisOrigen" xr:uid="{DDACAE97-3D4F-4336-A561-32860C923531}"/>
-    <hyperlink ref="C22" location="Cliente!A11" display="Cliente!A11" xr:uid="{204A7217-38F5-49B8-AB59-3FC8A1201E2E}"/>
-    <hyperlink ref="C23" location="Cliente!A14" display="Cliente!A14" xr:uid="{8111DCAE-8DC3-48E7-928D-7B3605332C98}"/>
-    <hyperlink ref="B16" location="NumeroCelular!A1" display="NumeroCelular" xr:uid="{63D6FB49-979C-4007-A196-D2EE72F02C7E}"/>
-    <hyperlink ref="A27:B29" location="Cliente!Q4" display="Registrar" xr:uid="{423C99B2-0CF5-4005-B5EC-BB4228038CA8}"/>
-    <hyperlink ref="A31:B32" location="Cliente!S4" display="Modificar" xr:uid="{73FF2DAD-4FA9-4556-96C0-235E13914121}"/>
+    <hyperlink ref="B16" location="PaisOrigen!A1" display="PaisOrigen" xr:uid="{DDACAE97-3D4F-4336-A561-32860C923531}"/>
+    <hyperlink ref="C23" location="Cliente!A11" display="Cliente!A11" xr:uid="{204A7217-38F5-49B8-AB59-3FC8A1201E2E}"/>
+    <hyperlink ref="C24" location="Cliente!A14" display="Cliente!A14" xr:uid="{8111DCAE-8DC3-48E7-928D-7B3605332C98}"/>
+    <hyperlink ref="B17" location="NumeroCelular!A1" display="NumeroCelular" xr:uid="{63D6FB49-979C-4007-A196-D2EE72F02C7E}"/>
+    <hyperlink ref="A28:B30" location="Cliente!Q4" display="Registrar" xr:uid="{423C99B2-0CF5-4005-B5EC-BB4228038CA8}"/>
+    <hyperlink ref="A32:B33" location="Cliente!S4" display="Modificar" xr:uid="{73FF2DAD-4FA9-4556-96C0-235E13914121}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7961,10 +7998,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I23"/>
+    <sheetView topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7994,70 +8031,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="str">
+      <c r="B2" s="203" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -8109,19 +8146,19 @@
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
-        <f>A18</f>
+        <f>A19</f>
         <v>Registrar</v>
       </c>
       <c r="R4" s="35" t="str">
-        <f>A21</f>
+        <f>A22</f>
         <v>Modificar</v>
       </c>
       <c r="S4" s="36" t="str">
-        <f>A24</f>
+        <f>A25</f>
         <v>Eliminar</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A26</f>
+        <f>A27</f>
         <v>Consultar</v>
       </c>
     </row>
@@ -8272,10 +8309,18 @@
       <c r="P7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="31"/>
+      <c r="Q7" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -8381,11 +8426,11 @@
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="207" t="s">
+      <c r="A11" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="207"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -8410,424 +8455,437 @@
         <v>Nombre</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="53" t="str">
+        <f>+A7</f>
+        <v>CodigoIndicativo</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="53" t="str">
+      <c r="C15" s="53" t="str">
         <f>+A8</f>
         <v>CodigoISO3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="210" t="s">
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="201"/>
-      <c r="C16" s="201" t="s">
+      <c r="B17" s="199"/>
+      <c r="C17" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201" t="s">
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201" t="s">
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201" t="s">
+      <c r="K17" s="199"/>
+      <c r="L17" s="199"/>
+      <c r="M17" s="199"/>
+      <c r="N17" s="199"/>
+      <c r="O17" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="201" t="s">
+      <c r="P17" s="199"/>
+      <c r="Q17" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="202"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="211"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="203"/>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="19" t="s">
+      <c r="R17" s="200"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="209"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="201"/>
+      <c r="F18" s="201"/>
+      <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="203" t="s">
+      <c r="K18" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="19" t="s">
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q17" s="19" t="s">
+      <c r="Q18" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R18" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="147" t="s">
+    <row r="19" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="145" t="s">
         <v>181</v>
       </c>
-      <c r="B18" s="148"/>
-      <c r="C18" s="153" t="s">
+      <c r="B19" s="146"/>
+      <c r="C19" s="151" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="162" t="s">
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="160" t="s">
         <v>392</v>
       </c>
-      <c r="H18" s="165" t="s">
+      <c r="H19" s="163" t="s">
         <v>392</v>
       </c>
-      <c r="I18" s="168" t="s">
+      <c r="I19" s="166" t="s">
         <v>269</v>
       </c>
-      <c r="J18" s="165"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="20">
+      <c r="J19" s="163"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="20">
         <v>1</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P19" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="Q18" s="75" t="s">
+      <c r="Q19" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="R18" s="84" t="s">
+      <c r="R19" s="82" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="149"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="163"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="20">
+    <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="147"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="20">
         <v>2</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P20" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="Q19" s="75" t="s">
+      <c r="Q20" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="R19" s="84" t="s">
+      <c r="R20" s="82" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="151"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="20">
+    <row r="21" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="149"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="157"/>
+      <c r="L21" s="158"/>
+      <c r="M21" s="158"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="20">
         <v>3</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="P21" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="Q20" s="75" t="s">
+      <c r="Q21" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="R20" s="84" t="s">
+      <c r="R21" s="82" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="189" t="s">
+    <row r="22" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="B21" s="190"/>
-      <c r="C21" s="171" t="s">
+      <c r="B22" s="188"/>
+      <c r="C22" s="169" t="s">
         <v>262</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="180" t="s">
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="178" t="s">
         <v>392</v>
       </c>
-      <c r="H21" s="186" t="s">
+      <c r="H22" s="184" t="s">
         <v>392</v>
       </c>
-      <c r="I21" s="183" t="s">
+      <c r="I22" s="181" t="s">
         <v>270</v>
       </c>
-      <c r="J21" s="180"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="23">
+      <c r="J22" s="178"/>
+      <c r="K22" s="169"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="23">
         <v>4</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="P22" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="Q21" s="44" t="s">
+      <c r="Q22" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="R21" s="85" t="s">
+      <c r="R22" s="83" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="191"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="176"/>
-      <c r="O22" s="23">
+    <row r="23" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="189"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="179"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="179"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="174"/>
+      <c r="O23" s="23">
         <v>5</v>
       </c>
-      <c r="P22" s="24" t="s">
+      <c r="P23" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="Q22" s="44" t="s">
+      <c r="Q23" s="44" t="s">
         <v>286</v>
       </c>
-      <c r="R22" s="85" t="s">
+      <c r="R23" s="83" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="193"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="23">
+    <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="191"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="176"/>
+      <c r="M24" s="176"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="23">
         <v>6</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P24" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="Q23" s="44" t="s">
+      <c r="Q24" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="R23" s="85" t="s">
+      <c r="R24" s="83" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="195" t="s">
+    <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="193" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="196"/>
-      <c r="C24" s="117" t="s">
+      <c r="B25" s="194"/>
+      <c r="C25" s="115" t="s">
         <v>263</v>
       </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="119"/>
-      <c r="G24" s="141" t="s">
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="199" t="s">
+      <c r="H25" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="139" t="s">
+      <c r="I25" s="137" t="s">
         <v>272</v>
       </c>
-      <c r="J24" s="141"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="119"/>
-      <c r="O24" s="28">
+      <c r="J25" s="139"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="28">
         <v>4</v>
       </c>
-      <c r="P24" s="29" t="s">
+      <c r="P25" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="Q24" s="29" t="s">
+      <c r="Q25" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="R24" s="86" t="s">
+      <c r="R25" s="84" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="197"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="122"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="122"/>
-      <c r="O25" s="28">
+    <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="195"/>
+      <c r="B26" s="196"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="198"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="28">
         <v>7</v>
       </c>
-      <c r="P25" s="29" t="s">
+      <c r="P26" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="Q25" s="29" t="s">
+      <c r="Q26" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="R25" s="86" t="s">
+      <c r="R26" s="84" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="245" t="s">
+    <row r="27" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="243" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="246"/>
-      <c r="C26" s="247" t="s">
+      <c r="B27" s="244"/>
+      <c r="C27" s="245" t="s">
         <v>264</v>
       </c>
-      <c r="D26" s="247"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="47" t="s">
+      <c r="D27" s="245"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="H26" s="48" t="s">
+      <c r="H27" s="48" t="s">
         <v>392</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I27" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="J26" s="47"/>
-      <c r="K26" s="248"/>
-      <c r="L26" s="248"/>
-      <c r="M26" s="248"/>
-      <c r="N26" s="248"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="33"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="246"/>
+      <c r="L27" s="246"/>
+      <c r="M27" s="246"/>
+      <c r="N27" s="246"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="K21:N23"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K24:N25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="C24:F25"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C21:F23"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K25:N26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="C19:F21"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="A25:B26"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H26" location="Pais!A1" display="Pais" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
+    <hyperlink ref="H27" location="Pais!A1" display="Pais" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A26:B26" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
+    <hyperlink ref="A27:B27" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
     <hyperlink ref="C13" location="Nacionalidad!A6" display="Nacionalidad!A6" xr:uid="{1B137E60-A55D-4AAD-8EF4-F9E99007A7CE}"/>
-    <hyperlink ref="C14" location="Nacionalidad!A7" display="Nacionalidad!A7" xr:uid="{F53E6861-E7DD-42B3-917D-32A3B2D65384}"/>
-    <hyperlink ref="H18:H20" location="Pais!A1" display="Pais" xr:uid="{4D3E8849-4C2C-40A6-9627-14B618898E87}"/>
-    <hyperlink ref="H21:H23" location="Pais!A1" display="Pais" xr:uid="{00A36F76-B620-464C-A0BD-26C68BC73A86}"/>
+    <hyperlink ref="C15" location="Nacionalidad!A7" display="Nacionalidad!A7" xr:uid="{F53E6861-E7DD-42B3-917D-32A3B2D65384}"/>
+    <hyperlink ref="H19:H21" location="Pais!A1" display="Pais" xr:uid="{4D3E8849-4C2C-40A6-9627-14B618898E87}"/>
+    <hyperlink ref="H22:H24" location="Pais!A1" display="Pais" xr:uid="{00A36F76-B620-464C-A0BD-26C68BC73A86}"/>
+    <hyperlink ref="C14" location="Nacionalidad!A6" display="Nacionalidad!A6" xr:uid="{15980356-2168-4D3C-AC18-CA9DD844964E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8872,70 +8930,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="str">
+      <c r="B2" s="203" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>NumeroCelular</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la información del número de celular de cada uno de los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -9003,7 +9061,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -9093,11 +9151,11 @@
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="207" t="s">
+      <c r="A8" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="208"/>
-      <c r="C8" s="209"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="207"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -9129,44 +9187,44 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
+      <c r="A13" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201" t="s">
+      <c r="B13" s="199"/>
+      <c r="C13" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201" t="s">
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201" t="s">
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201" t="s">
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201" t="s">
+      <c r="P13" s="199"/>
+      <c r="Q13" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="202"/>
+      <c r="R13" s="200"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="211"/>
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
+      <c r="A14" s="209"/>
+      <c r="B14" s="201"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -9179,12 +9237,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="203" t="s">
+      <c r="K14" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
-      <c r="N14" s="203"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="201"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -9199,88 +9257,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="263" t="s">
+      <c r="A15" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="264"/>
-      <c r="C15" s="265"/>
-      <c r="D15" s="265"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="265"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="263"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="265"/>
-      <c r="L15" s="265"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="265"/>
+      <c r="K15" s="263"/>
+      <c r="L15" s="263"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="263"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="220" t="s">
+      <c r="A16" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="221"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="222"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="220"/>
+      <c r="E16" s="220"/>
+      <c r="F16" s="220"/>
       <c r="G16" s="45"/>
       <c r="H16" s="43"/>
       <c r="I16" s="44"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="223"/>
-      <c r="L16" s="223"/>
-      <c r="M16" s="223"/>
-      <c r="N16" s="223"/>
+      <c r="K16" s="221"/>
+      <c r="L16" s="221"/>
+      <c r="M16" s="221"/>
+      <c r="N16" s="221"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="257" t="s">
+      <c r="A17" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="258"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="266"/>
-      <c r="F17" s="266"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
       <c r="G17" s="41"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="267"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="267"/>
+      <c r="K17" s="265"/>
+      <c r="L17" s="265"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="265"/>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="245" t="s">
+      <c r="A18" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="246"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="247"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="247"/>
+      <c r="B18" s="244"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="245"/>
+      <c r="E18" s="245"/>
+      <c r="F18" s="245"/>
       <c r="G18" s="47"/>
       <c r="H18" s="48"/>
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
-      <c r="K18" s="248"/>
-      <c r="L18" s="248"/>
-      <c r="M18" s="248"/>
-      <c r="N18" s="248"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="246"/>
+      <c r="M18" s="246"/>
+      <c r="N18" s="246"/>
       <c r="O18" s="31"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
@@ -9369,69 +9427,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -10047,7 +10105,7 @@
       <c r="S17" s="28"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>106</v>
       </c>
@@ -10117,11 +10175,11 @@
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="207"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
@@ -10141,44 +10199,44 @@
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="210" t="s">
+      <c r="A25" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="201"/>
-      <c r="C25" s="201" t="s">
+      <c r="B25" s="199"/>
+      <c r="C25" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201" t="s">
+      <c r="D25" s="199"/>
+      <c r="E25" s="199"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="201" t="s">
+      <c r="H25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
-      <c r="N25" s="201"/>
-      <c r="O25" s="201" t="s">
+      <c r="K25" s="199"/>
+      <c r="L25" s="199"/>
+      <c r="M25" s="199"/>
+      <c r="N25" s="199"/>
+      <c r="O25" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="201"/>
-      <c r="Q25" s="201" t="s">
+      <c r="P25" s="199"/>
+      <c r="Q25" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="202"/>
+      <c r="R25" s="200"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="211"/>
-      <c r="B26" s="203"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="203"/>
+      <c r="A26" s="209"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
       <c r="G26" s="19" t="s">
         <v>28</v>
       </c>
@@ -10191,12 +10249,12 @@
       <c r="J26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="203" t="s">
+      <c r="K26" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="203"/>
-      <c r="M26" s="203"/>
-      <c r="N26" s="203"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="201"/>
       <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
@@ -10211,88 +10269,88 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="263" t="s">
+      <c r="A27" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="264"/>
-      <c r="C27" s="265"/>
-      <c r="D27" s="265"/>
-      <c r="E27" s="265"/>
-      <c r="F27" s="265"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="265"/>
-      <c r="L27" s="265"/>
-      <c r="M27" s="265"/>
-      <c r="N27" s="265"/>
+      <c r="K27" s="263"/>
+      <c r="L27" s="263"/>
+      <c r="M27" s="263"/>
+      <c r="N27" s="263"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="220" t="s">
+      <c r="A28" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="221"/>
-      <c r="C28" s="222"/>
-      <c r="D28" s="222"/>
-      <c r="E28" s="222"/>
-      <c r="F28" s="222"/>
+      <c r="B28" s="219"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
       <c r="G28" s="45"/>
       <c r="H28" s="43"/>
       <c r="I28" s="44"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="223"/>
+      <c r="K28" s="221"/>
+      <c r="L28" s="221"/>
+      <c r="M28" s="221"/>
+      <c r="N28" s="221"/>
       <c r="O28" s="23"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="27"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="257" t="s">
+      <c r="A29" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="258"/>
-      <c r="C29" s="266"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
+      <c r="B29" s="256"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="264"/>
       <c r="G29" s="41"/>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="267"/>
-      <c r="L29" s="267"/>
-      <c r="M29" s="267"/>
-      <c r="N29" s="267"/>
+      <c r="K29" s="265"/>
+      <c r="L29" s="265"/>
+      <c r="M29" s="265"/>
+      <c r="N29" s="265"/>
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="30"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="245" t="s">
+      <c r="A30" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="246"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="247"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="247"/>
+      <c r="B30" s="244"/>
+      <c r="C30" s="245"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="245"/>
       <c r="G30" s="47"/>
       <c r="H30" s="48"/>
       <c r="I30" s="46"/>
       <c r="J30" s="47"/>
-      <c r="K30" s="248"/>
-      <c r="L30" s="248"/>
-      <c r="M30" s="248"/>
-      <c r="N30" s="248"/>
+      <c r="K30" s="246"/>
+      <c r="L30" s="246"/>
+      <c r="M30" s="246"/>
+      <c r="N30" s="246"/>
       <c r="O30" s="31"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
@@ -10380,69 +10438,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -10752,11 +10810,11 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="207"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -10795,44 +10853,44 @@
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="210" t="s">
+      <c r="A18" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201" t="s">
+      <c r="B18" s="199"/>
+      <c r="C18" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
-      <c r="G18" s="201" t="s">
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201" t="s">
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
-      <c r="O18" s="201" t="s">
+      <c r="K18" s="199"/>
+      <c r="L18" s="199"/>
+      <c r="M18" s="199"/>
+      <c r="N18" s="199"/>
+      <c r="O18" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="201" t="s">
+      <c r="P18" s="199"/>
+      <c r="Q18" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="202"/>
+      <c r="R18" s="200"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="211"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
+      <c r="A19" s="209"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="201"/>
       <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
@@ -10845,12 +10903,12 @@
       <c r="J19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="203" t="s">
+      <c r="K19" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="201"/>
       <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
@@ -10865,88 +10923,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="263" t="s">
+      <c r="A20" s="261" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="264"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="265"/>
-      <c r="L20" s="265"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="265"/>
+      <c r="K20" s="263"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="263"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="221"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="222"/>
-      <c r="E21" s="222"/>
-      <c r="F21" s="222"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="220"/>
+      <c r="F21" s="220"/>
       <c r="G21" s="45"/>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="223"/>
-      <c r="L21" s="223"/>
-      <c r="M21" s="223"/>
-      <c r="N21" s="223"/>
+      <c r="K21" s="221"/>
+      <c r="L21" s="221"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="221"/>
       <c r="O21" s="23"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="257" t="s">
+      <c r="A22" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="258"/>
-      <c r="C22" s="266"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="266"/>
-      <c r="F22" s="266"/>
+      <c r="B22" s="256"/>
+      <c r="C22" s="264"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="264"/>
       <c r="G22" s="41"/>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="267"/>
-      <c r="L22" s="267"/>
-      <c r="M22" s="267"/>
-      <c r="N22" s="267"/>
+      <c r="K22" s="265"/>
+      <c r="L22" s="265"/>
+      <c r="M22" s="265"/>
+      <c r="N22" s="265"/>
       <c r="O22" s="28"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="245" t="s">
+      <c r="A23" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="246"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
+      <c r="B23" s="244"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="245"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="245"/>
       <c r="G23" s="47"/>
       <c r="H23" s="48"/>
       <c r="I23" s="46"/>
       <c r="J23" s="47"/>
-      <c r="K23" s="248"/>
-      <c r="L23" s="248"/>
-      <c r="M23" s="248"/>
-      <c r="N23" s="248"/>
+      <c r="K23" s="246"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
       <c r="O23" s="31"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
@@ -11035,70 +11093,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="205" t="str">
+      <c r="B2" s="203" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>Menu</v>
       </c>
-      <c r="C2" s="205"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="206" t="str">
+      <c r="B3" s="204" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la información del menú del restaurante</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
-      <c r="M3" s="206"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="206"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -11149,19 +11207,19 @@
       <c r="P4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="92" t="str">
+      <c r="Q4" s="90" t="str">
         <f>A22</f>
         <v>Registrar</v>
       </c>
-      <c r="R4" s="91" t="str">
+      <c r="R4" s="89" t="str">
         <f>A25</f>
         <v>Modificar</v>
       </c>
-      <c r="S4" s="90" t="str">
+      <c r="S4" s="88" t="str">
         <f>A28</f>
         <v>Eliminar</v>
       </c>
-      <c r="T4" s="100" t="str">
+      <c r="T4" s="98" t="str">
         <f>A29</f>
         <v>CambiarEstado</v>
       </c>
@@ -11220,10 +11278,10 @@
       <c r="S5" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="T5" s="99" t="s">
+      <c r="T5" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="U5" s="76" t="s">
+      <c r="U5" s="74" t="s">
         <v>227</v>
       </c>
     </row>
@@ -11277,10 +11335,10 @@
       <c r="S6" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="T6" s="99" t="s">
+      <c r="T6" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="U6" s="79" t="s">
+      <c r="U6" s="77" t="s">
         <v>384</v>
       </c>
     </row>
@@ -11332,10 +11390,10 @@
       <c r="S7" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="T7" s="99" t="s">
+      <c r="T7" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="U7" s="76" t="s">
+      <c r="U7" s="74" t="s">
         <v>388</v>
       </c>
     </row>
@@ -11383,10 +11441,10 @@
       <c r="S8" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="T8" s="99" t="s">
+      <c r="T8" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="U8" s="79" t="s">
+      <c r="U8" s="77" t="s">
         <v>389</v>
       </c>
     </row>
@@ -11438,10 +11496,10 @@
       <c r="S9" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="T9" s="99" t="s">
+      <c r="T9" s="97" t="s">
         <v>226</v>
       </c>
-      <c r="U9" s="79" t="s">
+      <c r="U9" s="77" t="s">
         <v>390</v>
       </c>
     </row>
@@ -11496,7 +11554,7 @@
       <c r="T10" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="U10" s="79" t="s">
+      <c r="U10" s="77" t="s">
         <v>390</v>
       </c>
     </row>
@@ -11545,7 +11603,7 @@
       <c r="T11" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="U11" s="76" t="s">
+      <c r="U11" s="74" t="s">
         <v>391</v>
       </c>
     </row>
@@ -11556,7 +11614,7 @@
       <c r="B12" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -11598,17 +11656,17 @@
       <c r="T12" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="74" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="207" t="s">
+      <c r="A14" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="208"/>
-      <c r="C14" s="209"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="207"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
@@ -11659,44 +11717,44 @@
     </row>
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="210" t="s">
+      <c r="A20" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="201"/>
-      <c r="C20" s="201" t="s">
+      <c r="B20" s="199"/>
+      <c r="C20" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="201" t="s">
+      <c r="D20" s="199"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="201"/>
-      <c r="I20" s="201"/>
-      <c r="J20" s="201" t="s">
+      <c r="H20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201" t="s">
+      <c r="K20" s="199"/>
+      <c r="L20" s="199"/>
+      <c r="M20" s="199"/>
+      <c r="N20" s="199"/>
+      <c r="O20" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="201" t="s">
+      <c r="P20" s="199"/>
+      <c r="Q20" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="202"/>
+      <c r="R20" s="200"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="211"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
+      <c r="A21" s="209"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
       <c r="G21" s="19" t="s">
         <v>28</v>
       </c>
@@ -11709,12 +11767,12 @@
       <c r="J21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="203" t="s">
+      <c r="K21" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="203"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="201"/>
       <c r="O21" s="19" t="s">
         <v>30</v>
       </c>
@@ -11729,30 +11787,30 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="224" t="s">
+      <c r="A22" s="222" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="225"/>
-      <c r="C22" s="153" t="s">
+      <c r="B22" s="223"/>
+      <c r="C22" s="151" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="162" t="s">
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="160" t="s">
         <v>142</v>
       </c>
-      <c r="H22" s="165" t="s">
+      <c r="H22" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="168" t="s">
+      <c r="I22" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="J22" s="165"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="155"/>
+      <c r="J22" s="163"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="153"/>
       <c r="O22" s="20">
         <v>1</v>
       </c>
@@ -11762,25 +11820,25 @@
       <c r="Q22" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="R22" s="84" t="s">
+      <c r="R22" s="82" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="226"/>
-      <c r="B23" s="227"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="158"/>
+      <c r="A23" s="224"/>
+      <c r="B23" s="225"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="164"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="156"/>
       <c r="O23" s="20">
         <v>2</v>
       </c>
@@ -11790,25 +11848,25 @@
       <c r="Q23" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="R23" s="84" t="s">
+      <c r="R23" s="82" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="228"/>
-      <c r="B24" s="229"/>
-      <c r="C24" s="159"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="161"/>
+      <c r="A24" s="226"/>
+      <c r="B24" s="227"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="158"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="159"/>
       <c r="O24" s="20">
         <v>3</v>
       </c>
@@ -11818,35 +11876,35 @@
       <c r="Q24" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="R24" s="84" t="s">
+      <c r="R24" s="82" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="275" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="171" t="s">
+      <c r="B25" s="276"/>
+      <c r="C25" s="169" t="s">
         <v>297</v>
       </c>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="180" t="s">
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="186" t="s">
+      <c r="H25" s="184" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="183" t="s">
+      <c r="I25" s="181" t="s">
         <v>302</v>
       </c>
-      <c r="J25" s="180"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="173"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="171"/>
       <c r="O25" s="23">
         <v>4</v>
       </c>
@@ -11856,25 +11914,25 @@
       <c r="Q25" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="R25" s="85" t="s">
+      <c r="R25" s="83" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="279"/>
-      <c r="B26" s="280"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="175"/>
-      <c r="M26" s="175"/>
-      <c r="N26" s="176"/>
+      <c r="A26" s="277"/>
+      <c r="B26" s="278"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="174"/>
       <c r="O26" s="23">
         <v>5</v>
       </c>
@@ -11884,25 +11942,25 @@
       <c r="Q26" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="R26" s="85" t="s">
+      <c r="R26" s="83" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="281"/>
-      <c r="B27" s="282"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="179"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="185"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="179"/>
+      <c r="A27" s="279"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="177"/>
       <c r="O27" s="23">
         <v>6</v>
       </c>
@@ -11912,21 +11970,21 @@
       <c r="Q27" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="R27" s="85" t="s">
+      <c r="R27" s="83" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="257" t="s">
+      <c r="A28" s="255" t="s">
         <v>186</v>
       </c>
-      <c r="B28" s="258"/>
-      <c r="C28" s="266" t="s">
+      <c r="B28" s="256"/>
+      <c r="C28" s="264" t="s">
         <v>298</v>
       </c>
-      <c r="D28" s="266"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="266"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="264"/>
       <c r="G28" s="41" t="s">
         <v>38</v>
       </c>
@@ -11937,10 +11995,10 @@
         <v>268</v>
       </c>
       <c r="J28" s="42"/>
-      <c r="K28" s="267"/>
-      <c r="L28" s="267"/>
-      <c r="M28" s="267"/>
-      <c r="N28" s="267"/>
+      <c r="K28" s="265"/>
+      <c r="L28" s="265"/>
+      <c r="M28" s="265"/>
+      <c r="N28" s="265"/>
       <c r="O28" s="28">
         <v>4</v>
       </c>
@@ -11950,35 +12008,35 @@
       <c r="Q28" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="R28" s="86" t="s">
+      <c r="R28" s="84" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="268" t="s">
+      <c r="A29" s="266" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="269"/>
-      <c r="C29" s="127" t="s">
+      <c r="B29" s="267"/>
+      <c r="C29" s="125" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="133" t="s">
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="135" t="s">
+      <c r="H29" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="137" t="s">
+      <c r="I29" s="135" t="s">
         <v>303</v>
       </c>
-      <c r="J29" s="133"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="129"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="127"/>
       <c r="O29" s="31">
         <v>4</v>
       </c>
@@ -11988,25 +12046,25 @@
       <c r="Q29" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="R29" s="87" t="s">
+      <c r="R29" s="85" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="270"/>
-      <c r="B30" s="271"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="132"/>
+      <c r="A30" s="268"/>
+      <c r="B30" s="269"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="130"/>
       <c r="O30" s="31">
         <v>7</v>
       </c>
@@ -12016,43 +12074,43 @@
       <c r="Q30" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="R30" s="87" t="s">
+      <c r="R30" s="85" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="272" t="s">
+      <c r="A31" s="270" t="s">
         <v>295</v>
       </c>
-      <c r="B31" s="273"/>
-      <c r="C31" s="274" t="s">
+      <c r="B31" s="271"/>
+      <c r="C31" s="272" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="275"/>
-      <c r="E31" s="275"/>
-      <c r="F31" s="276"/>
-      <c r="G31" s="83" t="s">
+      <c r="D31" s="273"/>
+      <c r="E31" s="273"/>
+      <c r="F31" s="274"/>
+      <c r="G31" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="H31" s="76" t="s">
+      <c r="H31" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="J31" s="76" t="s">
+      <c r="J31" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="K31" s="214" t="s">
+      <c r="K31" s="212" t="s">
         <v>306</v>
       </c>
-      <c r="L31" s="215"/>
-      <c r="M31" s="215"/>
-      <c r="N31" s="216"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
+      <c r="L31" s="213"/>
+      <c r="M31" s="213"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -12118,6 +12176,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0DE5568C0AE848B2F225150E15E78E" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="643d399a24376eab49db33c80db032ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915fd109-ae29-4648-8de1-7f064f1d0fe5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a54904d818499acdea7742e4a0622bc" ns2:_="">
     <xsd:import namespace="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
@@ -12255,22 +12328,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C779E5F7-74AC-4CCB-8FB1-CBA1DF721FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12288,23 +12363,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>

--- a/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
+++ b/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1E7548-51DF-4559-A8AA-4B2EB9E2E2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB465FE-F492-44B3-99C3-562CD1CE53D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="10" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -3714,7 +3714,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:T6"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4376,7 +4376,7 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -6625,10 +6625,10 @@
   </sheetPr>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G25" sqref="G25"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6789,7 +6789,7 @@
         <v>Eliminar</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>385</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="222" t="s">
         <v>181</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="218" t="s">
         <v>233</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="253" t="s">
         <v>184</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="255"/>
       <c r="B33" s="256"/>
       <c r="C33" s="250"/>
@@ -7841,7 +7841,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="243" t="s">
         <v>186</v>
       </c>
@@ -11063,7 +11063,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
+++ b/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB465FE-F492-44B3-99C3-562CD1CE53D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A961FDA-B02D-478A-B78B-4C0DA7EF2E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="NumeroCelular" sheetId="73" r:id="rId6"/>
     <sheet name="Usuario" sheetId="71" state="hidden" r:id="rId7"/>
     <sheet name="Permiso" sheetId="72" state="hidden" r:id="rId8"/>
-    <sheet name="Menu" sheetId="82" r:id="rId9"/>
+    <sheet name="Plato" sheetId="82" r:id="rId9"/>
     <sheet name="Subcategoria" sheetId="84" r:id="rId10"/>
     <sheet name="Categoría" sheetId="70" r:id="rId11"/>
     <sheet name="OrigenReserva" sheetId="75" state="hidden" r:id="rId12"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="399">
   <si>
     <t>Nombre</t>
   </si>
@@ -590,30 +590,9 @@
     <t>Subcategoria</t>
   </si>
   <si>
-    <t>Atributo que identifica la subcategoría de los productos del restaurante</t>
-  </si>
-  <si>
-    <t>Atributo que identifica la categoría de los productos del restaurante</t>
-  </si>
-  <si>
-    <t>Atributo que identifica el precio de los productos del restaurante</t>
-  </si>
-  <si>
-    <t>Atributo que describe cada uno de los productos del restaurante</t>
-  </si>
-  <si>
-    <t>No es posible tener más de un producto con el mismo nombre</t>
-  </si>
-  <si>
-    <t>Atributo que identifica la representación gráfica de cada uno de los productos del restaurante</t>
-  </si>
-  <si>
     <t>Descripción única</t>
   </si>
   <si>
-    <t>No es posible tener más de un producto con la misma descripción</t>
-  </si>
-  <si>
     <t>Atributo que identifica el nombre de la categoría a la cual pertenecen los productos del restaurante.</t>
   </si>
   <si>
@@ -656,12 +635,6 @@
     <t>Objeto de dominio que contiene la información de las subcategorias de los productos que existen en el restaurante. Por ejemplo, entradas frías, ensaladas, sopas, pollo, cerdo, parrilla.</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la información del menú del restaurante</t>
-  </si>
-  <si>
-    <t>MENU</t>
-  </si>
-  <si>
     <t>PaisOrigen</t>
   </si>
   <si>
@@ -725,15 +698,9 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Atributo que indica si un producto del menú se encuentra disponible o no en un momento determinado</t>
-  </si>
-  <si>
     <t>Imagen Única</t>
   </si>
   <si>
-    <t>No es posible tener más de un producto con la misma imagen</t>
-  </si>
-  <si>
     <t>No es posible tener más de una subcategoría con el mismo nombre</t>
   </si>
   <si>
@@ -1395,6 +1362,45 @@
   </si>
   <si>
     <t>Requerido / Modificable</t>
+  </si>
+  <si>
+    <t>Atributo que describe cada uno de los platos del restaurante</t>
+  </si>
+  <si>
+    <t>Atributo que identifica el precio de los platos del restaurante</t>
+  </si>
+  <si>
+    <t>Atributo que identifica la categoría de los platos del restaurante</t>
+  </si>
+  <si>
+    <t>Atributo que identifica la subcategoría de los platos del restaurante</t>
+  </si>
+  <si>
+    <t>Atributo que identifica la representación gráfica de cada uno de los platos del restaurante</t>
+  </si>
+  <si>
+    <t>Atributo que indica si un plato del menú se encuentra disponible o no en un momento determinado</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un plato con el mismo nombre</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un plato con la misma descripción</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un plato con la misma imagen</t>
+  </si>
+  <si>
+    <t>PLATO</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la información de los platos del restaurante</t>
+  </si>
+  <si>
+    <t>Atributo que identifica la categoría a la cual pertenece la subcategoría de los platos del restaurante</t>
+  </si>
+  <si>
+    <t>Filtro/Mostrar al usuario-Orden 2-soporta criterio de orden(Defecto:ASC)/Mostrar (aplicación)</t>
   </si>
 </sst>
 </file>
@@ -1961,7 +1967,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2285,6 +2291,69 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2303,6 +2372,156 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2357,218 +2576,134 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2594,134 +2729,11 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2732,11 +2744,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2765,23 +2789,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2789,23 +2813,116 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3227,7 +3344,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:F24"/>
+      <selection activeCell="J23" sqref="J23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3633,7 +3750,7 @@
     </row>
     <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="103" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B23" s="104"/>
       <c r="C23" s="107" t="s">
@@ -3641,24 +3758,24 @@
       </c>
       <c r="D23" s="108"/>
       <c r="E23" s="107" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F23" s="108"/>
       <c r="G23" s="111" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H23" s="112"/>
       <c r="I23" s="68"/>
       <c r="J23" s="99" t="s">
-        <v>151</v>
+        <v>395</v>
       </c>
       <c r="K23" s="100"/>
       <c r="L23" s="99" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M23" s="100"/>
       <c r="N23" s="99" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O23" s="100"/>
       <c r="P23" s="70"/>
@@ -3698,7 +3815,7 @@
     <hyperlink ref="G23:H24" location="NumeroCelular!A1" display="NUMEROCELULAR" xr:uid="{3ACB5CFD-2EB1-42E6-9BD3-5C44BCD1DE10}"/>
     <hyperlink ref="L23:M24" location="Categoría!A1" display="CATEGORIA" xr:uid="{1B9CFF1F-370A-4C37-9492-079BFB45D9DA}"/>
     <hyperlink ref="N23:O24" location="Subcategoria!A1" display="SUBCATEGORIA" xr:uid="{73A07F54-79FB-4A3C-B036-76E3EC2291E6}"/>
-    <hyperlink ref="J23:K24" location="Menu!A1" display="MENU" xr:uid="{73E8797D-97B0-4F70-96A5-C591E55E5836}"/>
+    <hyperlink ref="J23:K24" location="Plato!A1" display="PLATO" xr:uid="{73E8797D-97B0-4F70-96A5-C591E55E5836}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3711,10 +3828,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3744,70 +3861,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="str">
+      <c r="B2" s="119" t="str">
         <f>+'Listado Objetos de Dominio'!A8</f>
         <v>Subcategoria</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>+'Listado Objetos de Dominio'!B8</f>
         <v>Objeto de dominio que contiene la información de las subcategorias de los productos que existen en el restaurante. Por ejemplo, entradas frías, ensaladas, sopas, pollo, cerdo, parrilla.</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -3859,23 +3976,23 @@
         <v>1</v>
       </c>
       <c r="Q4" s="37" t="str">
-        <f>A14</f>
+        <f>A15</f>
         <v>Registrar</v>
       </c>
       <c r="R4" s="35" t="str">
-        <f>A16</f>
+        <f>A17</f>
         <v>Modificar</v>
       </c>
       <c r="S4" s="36" t="str">
-        <f>A18</f>
+        <f>A19</f>
         <v>Eliminar</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A20</f>
+        <f>A21</f>
         <v>Consultar</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -3917,16 +4034,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -3946,7 +4063,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
@@ -3966,404 +4083,453 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="205" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="207"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:20" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C10" s="53" t="str">
+      <c r="B11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="53" t="str">
         <f>+A6</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="208" t="s">
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="199"/>
-      <c r="C12" s="199" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="199" t="s">
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="199"/>
-      <c r="O12" s="199" t="s">
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="199" t="s">
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="200"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="209"/>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="19" t="s">
+      <c r="R13" s="116"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="125"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="201" t="s">
+      <c r="K14" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="19" t="s">
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R14" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="145" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="151" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="160" t="s">
+    <row r="15" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="151"/>
+      <c r="C15" s="156" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="157"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="H14" s="163" t="s">
+      <c r="H15" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="166" t="s">
-        <v>335</v>
-      </c>
-      <c r="J14" s="163"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="20">
+      <c r="I15" s="171" t="s">
+        <v>324</v>
+      </c>
+      <c r="J15" s="168"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="20">
         <v>1</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P15" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="R15" s="51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="154"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="163"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="20">
+        <v>2</v>
+      </c>
+      <c r="P16" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="R16" s="51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="127"/>
+      <c r="C17" s="174" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="183" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="189" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="186" t="s">
+        <v>325</v>
+      </c>
+      <c r="J17" s="183"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="176"/>
+      <c r="O17" s="23">
+        <v>3</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="R17" s="93" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="130"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="23">
+        <v>4</v>
+      </c>
+      <c r="P18" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q18" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="R18" s="93" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="133"/>
+      <c r="C19" s="136" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="142" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="144" t="s">
+        <v>323</v>
+      </c>
+      <c r="I19" s="208" t="s">
+        <v>326</v>
+      </c>
+      <c r="J19" s="94"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="28">
+        <v>3</v>
+      </c>
+      <c r="P19" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q19" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="R19" s="84" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="134"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="140"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="28">
+        <v>5</v>
+      </c>
+      <c r="P20" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q20" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="Q14" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="R14" s="51" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="149"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="20">
-        <v>2</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="R15" s="51" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="187" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="169" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="178" t="s">
+      <c r="R20" s="84" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="210" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="211"/>
+      <c r="C21" s="212" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="H16" s="184" t="s">
+      <c r="H21" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="181" t="s">
-        <v>336</v>
-      </c>
-      <c r="J16" s="178"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="171"/>
-      <c r="O16" s="23">
-        <v>3</v>
-      </c>
-      <c r="P16" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="R16" s="93" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="191"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="23">
-        <v>4</v>
-      </c>
-      <c r="P17" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q17" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="R17" s="93" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="193" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="194"/>
-      <c r="C18" s="115" t="s">
-        <v>332</v>
-      </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="139" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="197" t="s">
-        <v>334</v>
-      </c>
-      <c r="I18" s="137" t="s">
-        <v>337</v>
-      </c>
-      <c r="J18" s="94"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="28">
-        <v>3</v>
-      </c>
-      <c r="P18" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q18" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="R18" s="84" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="28">
-        <v>5</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q19" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="R19" s="84" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="243" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="244"/>
-      <c r="C20" s="245" t="s">
-        <v>333</v>
-      </c>
-      <c r="D20" s="245"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="K20" s="246" t="s">
-        <v>340</v>
-      </c>
-      <c r="L20" s="246"/>
-      <c r="M20" s="246"/>
-      <c r="N20" s="246"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="33"/>
+      <c r="I21" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="K21" s="213" t="s">
+        <v>329</v>
+      </c>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="213"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:N20"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="K17:N18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="K18:N19"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="K16:N17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C19:F20"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{D185261F-9678-49CA-AD95-5B64B30542E5}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{2ED39758-8B8B-457E-A92B-A4F48E660D44}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{9423AE41-3F0B-4471-8871-5A00E481A9D9}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{B4E73532-4C6E-4F0B-906C-A3AE84C46F60}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{E535EF03-3685-473A-B81E-EED30C880A25}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{E535EF03-3685-473A-B81E-EED30C880A25}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{46FA2916-F294-43BF-B317-B7ECA3C41405}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{CDE1BAD7-B79B-478B-871E-B505A6941B52}"/>
-    <hyperlink ref="C10" location="Categoría!A6" display="Categoría!A6" xr:uid="{8AB6D96C-A97A-40DF-81ED-76D7A86DE095}"/>
-    <hyperlink ref="H14" location="Subcategoria!A2" display="Subcategoria" xr:uid="{A9F88CBA-409E-43AD-9869-FCBB4803D1AA}"/>
-    <hyperlink ref="H20" location="Subcategoria!A2" display="Subcategoria" xr:uid="{EDDC4143-23AB-459D-9B05-D9FDA005EDEA}"/>
-    <hyperlink ref="H16" location="Subcategoria!A2" display="Subcategoria" xr:uid="{7B25406F-CA80-4E9B-8B08-E76EB2FAA205}"/>
+    <hyperlink ref="C11" location="Categoría!A6" display="Categoría!A6" xr:uid="{8AB6D96C-A97A-40DF-81ED-76D7A86DE095}"/>
+    <hyperlink ref="H15" location="Subcategoria!A2" display="Subcategoria" xr:uid="{A9F88CBA-409E-43AD-9869-FCBB4803D1AA}"/>
+    <hyperlink ref="H21" location="Subcategoria!A2" display="Subcategoria" xr:uid="{EDDC4143-23AB-459D-9B05-D9FDA005EDEA}"/>
+    <hyperlink ref="H17" location="Subcategoria!A2" display="Subcategoria" xr:uid="{7B25406F-CA80-4E9B-8B08-E76EB2FAA205}"/>
+    <hyperlink ref="B7" location="Categoría!A1" display="Categoria" xr:uid="{150F23F5-1AC9-44EF-8376-D2B890BA9975}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4407,70 +4573,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="str">
+      <c r="B2" s="119" t="str">
         <f>+'Listado Objetos de Dominio'!A7</f>
         <v>Categoria</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>+'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene la información de las categorías de platos que existen en el restaurante. Por ejemplo plato principal, postres, bebidas, entradas, etc.</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -4538,7 +4704,7 @@
         <v>Consultar</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -4580,16 +4746,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -4609,7 +4775,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
@@ -4629,28 +4795,28 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="207"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -4677,44 +4843,44 @@
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="208" t="s">
+      <c r="A12" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="199"/>
-      <c r="C12" s="199" t="s">
+      <c r="B12" s="115"/>
+      <c r="C12" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="199"/>
-      <c r="G12" s="199" t="s">
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="199"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="199" t="s">
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="199"/>
-      <c r="L12" s="199"/>
-      <c r="M12" s="199"/>
-      <c r="N12" s="199"/>
-      <c r="O12" s="199" t="s">
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="199"/>
-      <c r="Q12" s="199" t="s">
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="200"/>
+      <c r="R12" s="116"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="209"/>
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
@@ -4727,12 +4893,12 @@
       <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="201" t="s">
+      <c r="K13" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
       <c r="O13" s="19" t="s">
         <v>30</v>
       </c>
@@ -4747,214 +4913,214 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="145" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="151" t="s">
-        <v>365</v>
-      </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="237" t="s">
+      <c r="A14" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="151"/>
+      <c r="C14" s="156" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="250" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="281" t="s">
+      <c r="H14" s="287" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="166" t="s">
-        <v>369</v>
-      </c>
-      <c r="J14" s="163"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="152"/>
-      <c r="M14" s="152"/>
-      <c r="N14" s="153"/>
+      <c r="I14" s="171" t="s">
+        <v>358</v>
+      </c>
+      <c r="J14" s="168"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="158"/>
       <c r="O14" s="20">
         <v>1</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="R14" s="51" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="149"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="282"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="158"/>
-      <c r="M15" s="158"/>
-      <c r="N15" s="159"/>
+      <c r="A15" s="154"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="252"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="164"/>
       <c r="O15" s="20">
         <v>2</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="R15" s="51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="127"/>
+      <c r="C16" s="174" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="281" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="283" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="186" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="187" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="169" t="s">
-        <v>366</v>
-      </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="283" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="285" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="181" t="s">
-        <v>370</v>
-      </c>
-      <c r="J16" s="178"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="171"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="176"/>
       <c r="O16" s="23">
         <v>3</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="R16" s="93" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="191"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="284"/>
-      <c r="H17" s="286"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
-      <c r="N17" s="177"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="282"/>
+      <c r="H17" s="284"/>
+      <c r="I17" s="188"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="181"/>
+      <c r="N17" s="182"/>
       <c r="O17" s="23">
         <v>4</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="R17" s="93" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="193" t="s">
-        <v>186</v>
-      </c>
-      <c r="B18" s="194"/>
-      <c r="C18" s="115" t="s">
-        <v>367</v>
-      </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="259" t="s">
+      <c r="A18" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="287" t="s">
-        <v>334</v>
-      </c>
-      <c r="I18" s="137" t="s">
-        <v>371</v>
-      </c>
-      <c r="J18" s="139"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="117"/>
+      <c r="H18" s="285" t="s">
+        <v>323</v>
+      </c>
+      <c r="I18" s="208" t="s">
+        <v>360</v>
+      </c>
+      <c r="J18" s="142"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
       <c r="O18" s="28">
         <v>3</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="R18" s="84" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="195"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="288"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="120"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="286"/>
+      <c r="I19" s="209"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="141"/>
       <c r="O19" s="28">
         <v>5</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="R19" s="84" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="243" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="244"/>
-      <c r="C20" s="245" t="s">
-        <v>368</v>
-      </c>
-      <c r="D20" s="245"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="245"/>
+      <c r="A20" s="210" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="211"/>
+      <c r="C20" s="212" t="s">
+        <v>357</v>
+      </c>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
       <c r="G20" s="80" t="s">
         <v>88</v>
       </c>
@@ -4962,17 +5128,17 @@
         <v>88</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="K20" s="246" t="s">
-        <v>374</v>
-      </c>
-      <c r="L20" s="246"/>
-      <c r="M20" s="246"/>
-      <c r="N20" s="246"/>
+        <v>362</v>
+      </c>
+      <c r="K20" s="213" t="s">
+        <v>363</v>
+      </c>
+      <c r="L20" s="213"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="213"/>
       <c r="O20" s="31"/>
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
@@ -4980,6 +5146,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
     <mergeCell ref="K18:N19"/>
     <mergeCell ref="K16:N17"/>
     <mergeCell ref="K14:N15"/>
@@ -4996,25 +5181,6 @@
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{5C47FB70-A130-4B3A-B4F7-897BEE8D791F}"/>
@@ -5068,69 +5234,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5246,7 +5412,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>39</v>
@@ -5352,11 +5518,11 @@
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="207"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -5371,10 +5537,10 @@
     </row>
     <row r="13" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C13" s="53" t="str">
         <f>+A6</f>
@@ -5388,44 +5554,44 @@
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="199"/>
-      <c r="C16" s="199" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="199"/>
-      <c r="G16" s="199" t="s">
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="199"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="199" t="s">
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="199"/>
-      <c r="L16" s="199"/>
-      <c r="M16" s="199"/>
-      <c r="N16" s="199"/>
-      <c r="O16" s="199" t="s">
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="199"/>
-      <c r="Q16" s="199" t="s">
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="200"/>
+      <c r="R16" s="116"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="209"/>
-      <c r="B17" s="201"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="201"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -5438,12 +5604,12 @@
       <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="201" t="s">
+      <c r="K17" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -5458,88 +5624,88 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="261" t="s">
+      <c r="A18" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="262"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="265"/>
+      <c r="E18" s="265"/>
+      <c r="F18" s="265"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="263"/>
-      <c r="L18" s="263"/>
-      <c r="M18" s="263"/>
-      <c r="N18" s="263"/>
+      <c r="K18" s="265"/>
+      <c r="L18" s="265"/>
+      <c r="M18" s="265"/>
+      <c r="N18" s="265"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="218" t="s">
+      <c r="A19" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="219"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="220"/>
-      <c r="E19" s="220"/>
-      <c r="F19" s="220"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="233"/>
       <c r="G19" s="45"/>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="221"/>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="221"/>
+      <c r="K19" s="234"/>
+      <c r="L19" s="234"/>
+      <c r="M19" s="234"/>
+      <c r="N19" s="234"/>
       <c r="O19" s="23"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="255" t="s">
+      <c r="A20" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="256"/>
-      <c r="C20" s="264"/>
-      <c r="D20" s="264"/>
-      <c r="E20" s="264"/>
-      <c r="F20" s="264"/>
+      <c r="B20" s="223"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="261"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="261"/>
       <c r="G20" s="41"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="265"/>
-      <c r="L20" s="265"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="265"/>
+      <c r="K20" s="262"/>
+      <c r="L20" s="262"/>
+      <c r="M20" s="262"/>
+      <c r="N20" s="262"/>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="243" t="s">
+      <c r="A21" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="244"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="245"/>
-      <c r="E21" s="245"/>
-      <c r="F21" s="245"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
       <c r="G21" s="47"/>
       <c r="H21" s="48"/>
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
-      <c r="K21" s="246"/>
-      <c r="L21" s="246"/>
-      <c r="M21" s="246"/>
-      <c r="N21" s="246"/>
+      <c r="K21" s="213"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="213"/>
+      <c r="N21" s="213"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -5547,17 +5713,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="K19:N19"/>
@@ -5570,6 +5725,17 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BE1D5D8E-6C53-4D5B-90C5-3E33EB98F852}"/>
@@ -5595,7 +5761,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5618,7 +5784,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5626,31 +5792,31 @@
         <v>56</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="55" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>150</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5658,7 +5824,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5666,7 +5832,7 @@
         <v>127</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5676,7 +5842,7 @@
     <hyperlink ref="A4" location="Nacionalidad!A2" display="Nacioanlidad" xr:uid="{1AF6E738-8AC4-4C46-95C1-E5202F091496}"/>
     <hyperlink ref="A7" location="Categoría!A2" display="Categoria" xr:uid="{6526C8A5-71A1-4589-9A01-1C3D7EEF36A6}"/>
     <hyperlink ref="A5" location="NumeroCelular!A1" display="NumeroCelular" xr:uid="{E87E5D63-90B7-4CCD-A47C-561FA8D2BFFB}"/>
-    <hyperlink ref="A6" location="Menu!A2" display="Menu" xr:uid="{DA646F2E-BC74-4659-822E-8EC722B4EEE4}"/>
+    <hyperlink ref="A6" location="Plato!A1" display="Plato" xr:uid="{DA646F2E-BC74-4659-822E-8EC722B4EEE4}"/>
     <hyperlink ref="A8" location="Subcategoria!A2" display="Subcategoria" xr:uid="{55627CA9-887C-4F05-94D3-63AEC127FF06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5691,7 +5857,7 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -5722,70 +5888,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="str">
+      <c r="B2" s="119" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que representa a cada uno de los tipos de identificación que tienen los clientes dentro del restaurante. Por ejemplo, cédula de ciudadanía, Tarjeta de Identidad, Pasaporte, etc.</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5899,19 +6065,19 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U5" s="74" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
@@ -5956,19 +6122,19 @@
         <v>48</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
@@ -6013,19 +6179,19 @@
         <v>51</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U7" s="74" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -6033,7 +6199,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="5"/>
@@ -6044,7 +6210,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="5" t="s">
@@ -6063,22 +6229,22 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="U8" s="74" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6089,11 +6255,11 @@
       <c r="U9" s="79"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="205" t="s">
+      <c r="A10" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="206"/>
-      <c r="C10" s="207"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
@@ -6132,44 +6298,44 @@
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="199"/>
-      <c r="C15" s="199" t="s">
+      <c r="B15" s="115"/>
+      <c r="C15" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="199"/>
-      <c r="E15" s="199"/>
-      <c r="F15" s="199"/>
-      <c r="G15" s="199" t="s">
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="199"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="199" t="s">
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="199"/>
-      <c r="L15" s="199"/>
-      <c r="M15" s="199"/>
-      <c r="N15" s="199"/>
-      <c r="O15" s="199" t="s">
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="199"/>
-      <c r="Q15" s="199" t="s">
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="200"/>
+      <c r="R15" s="116"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="209"/>
-      <c r="B16" s="201"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
+      <c r="A16" s="125"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
@@ -6182,12 +6348,12 @@
       <c r="J16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="201" t="s">
+      <c r="K16" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="201"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="201"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
       <c r="O16" s="19" t="s">
         <v>30</v>
       </c>
@@ -6202,350 +6368,350 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="151"/>
+      <c r="C17" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="165" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="168" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" s="171" t="s">
         <v>181</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="151" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="160" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I17" s="166" t="s">
-        <v>192</v>
-      </c>
-      <c r="J17" s="163"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="152"/>
-      <c r="M17" s="152"/>
-      <c r="N17" s="153"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="158"/>
       <c r="O17" s="20">
         <v>1</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="73" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="R17" s="82" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="156"/>
+      <c r="A18" s="152"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="161"/>
       <c r="O18" s="20">
         <v>2</v>
       </c>
       <c r="P18" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q18" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="R18" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="Q18" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="R18" s="82" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="149"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="159"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="159"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="164"/>
       <c r="O19" s="20">
         <v>3</v>
       </c>
       <c r="P19" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q19" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="Q19" s="73" t="s">
-        <v>210</v>
-      </c>
       <c r="R19" s="82" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="187" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="188"/>
-      <c r="C20" s="169" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="178" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" s="184" t="s">
-        <v>191</v>
-      </c>
-      <c r="I20" s="181" t="s">
-        <v>193</v>
-      </c>
-      <c r="J20" s="178"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="171"/>
+      <c r="A20" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="127"/>
+      <c r="C20" s="174" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="183" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="189" t="s">
+        <v>180</v>
+      </c>
+      <c r="I20" s="186" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" s="183"/>
+      <c r="K20" s="174"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="176"/>
       <c r="O20" s="23">
         <v>4</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="R20" s="83" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="189"/>
-      <c r="B21" s="190"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="179"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="174"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="184"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="179"/>
       <c r="O21" s="23">
         <v>5</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="Q21" s="44" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="R21" s="83" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="191"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="176"/>
-      <c r="M22" s="176"/>
-      <c r="N22" s="177"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="182"/>
       <c r="O22" s="23">
         <v>6</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="44" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="R22" s="83" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="193" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="194"/>
-      <c r="C23" s="115" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="139" t="s">
+      <c r="A23" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="133"/>
+      <c r="C23" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="197" t="s">
+      <c r="H23" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="J23" s="139"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="117"/>
+      <c r="I23" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="142"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
       <c r="O23" s="28">
         <v>4</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="Q23" s="29" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="R23" s="84" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="195"/>
-      <c r="B24" s="196"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="119"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="119"/>
-      <c r="N24" s="120"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="209"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="140"/>
+      <c r="N24" s="141"/>
       <c r="O24" s="28">
         <v>7</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="29" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="121" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="125" t="s">
-        <v>189</v>
-      </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="131" t="s">
-        <v>191</v>
-      </c>
-      <c r="H25" s="133" t="s">
-        <v>191</v>
-      </c>
-      <c r="I25" s="135"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="127"/>
+      <c r="A25" s="192" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="193"/>
+      <c r="C25" s="196" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="197"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="202" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="204" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="206"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="196"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="198"/>
       <c r="O25" s="31">
         <v>4</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="R25" s="85" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="123"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="130"/>
+      <c r="A26" s="194"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="200"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="199"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
+      <c r="N26" s="201"/>
       <c r="O26" s="31">
         <v>8</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="R26" s="85" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="141" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
+      <c r="A27" s="146" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="147"/>
+      <c r="C27" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
       <c r="G27" s="81" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H27" s="54" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="I27" s="75"/>
       <c r="J27" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" s="144" t="s">
-        <v>195</v>
-      </c>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
+        <v>185</v>
+      </c>
+      <c r="K27" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
       <c r="O27" s="74"/>
       <c r="P27" s="77"/>
       <c r="Q27" s="77"/>
@@ -6553,22 +6719,16 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="K23:N24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:N26"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="K27:N27"/>
@@ -6585,16 +6745,22 @@
     <mergeCell ref="H20:H22"/>
     <mergeCell ref="G20:G22"/>
     <mergeCell ref="C20:F22"/>
-    <mergeCell ref="K23:N24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:N26"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:N15"/>
+    <mergeCell ref="O15:P15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -6628,7 +6794,7 @@
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G25" sqref="G25"/>
-      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6658,70 +6824,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="str">
+      <c r="B2" s="119" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que representa a cada uno de los clientes que realiza una reserva en el restaurante</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -6831,16 +6997,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
@@ -6879,21 +7045,21 @@
         <v>72</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>39</v>
@@ -6924,19 +7090,19 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -6981,16 +7147,16 @@
         <v>59</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7035,16 +7201,16 @@
         <v>62</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7089,16 +7255,16 @@
         <v>64</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7143,16 +7309,16 @@
         <v>66</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
@@ -7197,24 +7363,24 @@
         <v>74</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -7242,19 +7408,19 @@
         <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S13" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T13" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -7294,19 +7460,19 @@
         <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="T14" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -7345,24 +7511,24 @@
         <v>70</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T15" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
@@ -7397,24 +7563,24 @@
         <v>78</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="T16" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
@@ -7447,24 +7613,24 @@
         <v>80</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -7492,19 +7658,19 @@
         <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T18" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -7531,11 +7697,11 @@
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="205" t="s">
+      <c r="A21" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="206"/>
-      <c r="C21" s="207"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
@@ -7574,44 +7740,44 @@
     </row>
     <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="208" t="s">
+      <c r="A26" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="199"/>
-      <c r="C26" s="199" t="s">
+      <c r="B26" s="115"/>
+      <c r="C26" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="199"/>
-      <c r="E26" s="199"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199" t="s">
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199" t="s">
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="199"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="199"/>
-      <c r="N26" s="199"/>
-      <c r="O26" s="199" t="s">
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P26" s="199"/>
-      <c r="Q26" s="199" t="s">
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="200"/>
+      <c r="R26" s="116"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="209"/>
-      <c r="B27" s="201"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
       <c r="G27" s="19" t="s">
         <v>28</v>
       </c>
@@ -7624,12 +7790,12 @@
       <c r="J27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="201" t="s">
+      <c r="K27" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L27" s="201"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="201"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
       <c r="O27" s="19" t="s">
         <v>30</v>
       </c>
@@ -7644,110 +7810,110 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="222" t="s">
-        <v>181</v>
-      </c>
-      <c r="B28" s="223"/>
-      <c r="C28" s="228" t="s">
-        <v>236</v>
-      </c>
-      <c r="D28" s="229"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="230"/>
-      <c r="G28" s="237" t="s">
+      <c r="A28" s="235" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="236"/>
+      <c r="C28" s="241" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="242"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="240" t="s">
+      <c r="H28" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="166" t="s">
-        <v>265</v>
-      </c>
-      <c r="J28" s="163"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="153"/>
+      <c r="I28" s="171" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" s="168"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="158"/>
       <c r="O28" s="20">
         <v>1</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="20" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="R28" s="51" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="224"/>
-      <c r="B29" s="225"/>
-      <c r="C29" s="231"/>
-      <c r="D29" s="232"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="233"/>
-      <c r="G29" s="238"/>
-      <c r="H29" s="241"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="156"/>
+      <c r="A29" s="237"/>
+      <c r="B29" s="238"/>
+      <c r="C29" s="244"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="246"/>
+      <c r="G29" s="251"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="161"/>
       <c r="O29" s="20">
         <v>2</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="Q29" s="20" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="R29" s="51" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="226"/>
-      <c r="B30" s="227"/>
-      <c r="C30" s="234"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="235"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="239"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="158"/>
-      <c r="M30" s="158"/>
-      <c r="N30" s="159"/>
+      <c r="A30" s="239"/>
+      <c r="B30" s="240"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="248"/>
+      <c r="E30" s="248"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="252"/>
+      <c r="H30" s="230"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="163"/>
+      <c r="M30" s="163"/>
+      <c r="N30" s="164"/>
       <c r="O30" s="20">
         <v>3</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="Q30" s="20" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="R30" s="51" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="218" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="219"/>
-      <c r="C31" s="220" t="s">
-        <v>237</v>
-      </c>
-      <c r="D31" s="220"/>
-      <c r="E31" s="220"/>
-      <c r="F31" s="220"/>
+      <c r="A31" s="231" t="s">
+        <v>222</v>
+      </c>
+      <c r="B31" s="232"/>
+      <c r="C31" s="233" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="233"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="233"/>
       <c r="G31" s="45" t="s">
         <v>56</v>
       </c>
@@ -7755,103 +7921,103 @@
         <v>56</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="J31" s="38"/>
-      <c r="K31" s="221"/>
-      <c r="L31" s="221"/>
-      <c r="M31" s="221"/>
-      <c r="N31" s="221"/>
+      <c r="K31" s="234"/>
+      <c r="L31" s="234"/>
+      <c r="M31" s="234"/>
+      <c r="N31" s="234"/>
       <c r="O31" s="23">
         <v>4</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="R31" s="93" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="253" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="254"/>
-      <c r="C32" s="247" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="248"/>
-      <c r="E32" s="248"/>
-      <c r="F32" s="249"/>
-      <c r="G32" s="259" t="s">
+      <c r="A32" s="220" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="221"/>
+      <c r="C32" s="214" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="257" t="s">
+      <c r="H32" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="137" t="s">
-        <v>267</v>
-      </c>
-      <c r="J32" s="139"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="117"/>
+      <c r="I32" s="208" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" s="142"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="138"/>
       <c r="O32" s="28">
         <v>5</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="R32" s="84" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="255"/>
-      <c r="B33" s="256"/>
-      <c r="C33" s="250"/>
-      <c r="D33" s="251"/>
-      <c r="E33" s="251"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="260"/>
-      <c r="H33" s="258"/>
-      <c r="I33" s="138"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="120"/>
+      <c r="A33" s="222"/>
+      <c r="B33" s="223"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="227"/>
+      <c r="H33" s="225"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="140"/>
+      <c r="M33" s="140"/>
+      <c r="N33" s="141"/>
       <c r="O33" s="28">
         <v>6</v>
       </c>
       <c r="P33" s="29" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="Q33" s="29" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="R33" s="84" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="243" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="244"/>
-      <c r="C34" s="245" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="245"/>
-      <c r="E34" s="245"/>
-      <c r="F34" s="245"/>
+      <c r="A34" s="210" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="211"/>
+      <c r="C34" s="212" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="212"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
       <c r="G34" s="80" t="s">
         <v>38</v>
       </c>
@@ -7859,61 +8025,61 @@
         <v>39</v>
       </c>
       <c r="I34" s="46" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="J34" s="47"/>
-      <c r="K34" s="246"/>
-      <c r="L34" s="246"/>
-      <c r="M34" s="246"/>
-      <c r="N34" s="246"/>
+      <c r="K34" s="213"/>
+      <c r="L34" s="213"/>
+      <c r="M34" s="213"/>
+      <c r="N34" s="213"/>
       <c r="O34" s="31">
         <v>5</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="32" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="R34" s="85" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="210" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35" s="210"/>
-      <c r="C35" s="210" t="s">
-        <v>240</v>
-      </c>
-      <c r="D35" s="210"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="210"/>
+      <c r="A35" s="253" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="253"/>
+      <c r="C35" s="253" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="253"/>
+      <c r="E35" s="253"/>
+      <c r="F35" s="253"/>
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
       <c r="I35" s="74"/>
       <c r="J35" s="74"/>
-      <c r="K35" s="212"/>
-      <c r="L35" s="213"/>
-      <c r="M35" s="213"/>
-      <c r="N35" s="214"/>
+      <c r="K35" s="255"/>
+      <c r="L35" s="256"/>
+      <c r="M35" s="256"/>
+      <c r="N35" s="257"/>
       <c r="O35" s="74"/>
       <c r="P35" s="74"/>
       <c r="Q35" s="74"/>
       <c r="R35" s="74"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="211" t="s">
-        <v>235</v>
-      </c>
-      <c r="B36" s="211"/>
-      <c r="C36" s="211" t="s">
-        <v>241</v>
-      </c>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
+      <c r="A36" s="254" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="254"/>
+      <c r="C36" s="254" t="s">
+        <v>230</v>
+      </c>
+      <c r="D36" s="254"/>
+      <c r="E36" s="254"/>
+      <c r="F36" s="254"/>
       <c r="G36" s="91" t="s">
         <v>38</v>
       </c>
@@ -7922,10 +8088,10 @@
       </c>
       <c r="I36" s="92"/>
       <c r="J36" s="92"/>
-      <c r="K36" s="215"/>
-      <c r="L36" s="216"/>
-      <c r="M36" s="216"/>
-      <c r="N36" s="217"/>
+      <c r="K36" s="258"/>
+      <c r="L36" s="259"/>
+      <c r="M36" s="259"/>
+      <c r="N36" s="260"/>
       <c r="O36" s="92"/>
       <c r="P36" s="92"/>
       <c r="Q36" s="92"/>
@@ -7933,21 +8099,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="C32:F33"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="K32:N33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="K31:N31"/>
@@ -7964,12 +8121,21 @@
     <mergeCell ref="C28:F30"/>
     <mergeCell ref="K28:N30"/>
     <mergeCell ref="G28:G30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="C32:F33"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="K32:N33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -8000,8 +8166,8 @@
   </sheetPr>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8031,70 +8197,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="str">
+      <c r="B2" s="119" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -8204,16 +8370,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
@@ -8256,16 +8422,16 @@
         <v>81</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
@@ -8285,7 +8451,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13" t="s">
@@ -8310,16 +8476,16 @@
         <v>82</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T7" s="32" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
@@ -8364,21 +8530,21 @@
         <v>82</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>86</v>
@@ -8389,7 +8555,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
@@ -8409,28 +8575,28 @@
         <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="205" t="s">
+      <c r="A11" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="207"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -8448,7 +8614,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C13" s="53" t="str">
         <f>+A6</f>
@@ -8457,10 +8623,10 @@
     </row>
     <row r="14" spans="1:20" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C14" s="53" t="str">
         <f>+A7</f>
@@ -8481,44 +8647,44 @@
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="199"/>
-      <c r="C17" s="199" t="s">
+      <c r="B17" s="115"/>
+      <c r="C17" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199" t="s">
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="199"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="199" t="s">
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="199"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="199"/>
-      <c r="N17" s="199"/>
-      <c r="O17" s="199" t="s">
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="199"/>
-      <c r="Q17" s="199" t="s">
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="200"/>
+      <c r="R17" s="116"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="209"/>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="201"/>
+      <c r="A18" s="125"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -8531,12 +8697,12 @@
       <c r="J18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="201" t="s">
+      <c r="K18" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -8551,284 +8717,284 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="145" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="151" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="160" t="s">
-        <v>392</v>
-      </c>
-      <c r="H19" s="163" t="s">
-        <v>392</v>
-      </c>
-      <c r="I19" s="166" t="s">
-        <v>269</v>
-      </c>
-      <c r="J19" s="163"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="153"/>
+      <c r="A19" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="151"/>
+      <c r="C19" s="156" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="165" t="s">
+        <v>381</v>
+      </c>
+      <c r="H19" s="168" t="s">
+        <v>381</v>
+      </c>
+      <c r="I19" s="171" t="s">
+        <v>258</v>
+      </c>
+      <c r="J19" s="168"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="158"/>
       <c r="O19" s="20">
         <v>1</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="73" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="R19" s="82" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="147"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="156"/>
+      <c r="A20" s="152"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="161"/>
       <c r="O20" s="20">
         <v>2</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="73" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="R20" s="82" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="149"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="158"/>
-      <c r="M21" s="158"/>
-      <c r="N21" s="159"/>
+      <c r="A21" s="154"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="164"/>
       <c r="O21" s="20">
         <v>3</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="Q21" s="73" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="R21" s="82" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="187" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="188"/>
-      <c r="C22" s="169" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="178" t="s">
-        <v>392</v>
-      </c>
-      <c r="H22" s="184" t="s">
-        <v>392</v>
-      </c>
-      <c r="I22" s="181" t="s">
-        <v>270</v>
-      </c>
-      <c r="J22" s="178"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="171"/>
+      <c r="A22" s="126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="127"/>
+      <c r="C22" s="174" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="183" t="s">
+        <v>381</v>
+      </c>
+      <c r="H22" s="189" t="s">
+        <v>381</v>
+      </c>
+      <c r="I22" s="186" t="s">
+        <v>259</v>
+      </c>
+      <c r="J22" s="183"/>
+      <c r="K22" s="174"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="176"/>
       <c r="O22" s="23">
         <v>4</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Q22" s="44" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="R22" s="83" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="189"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="174"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="187"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="179"/>
       <c r="O23" s="23">
         <v>5</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="44" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="R23" s="83" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="191"/>
-      <c r="B24" s="192"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="176"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="176"/>
-      <c r="M24" s="176"/>
-      <c r="N24" s="177"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="182"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="188"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="181"/>
+      <c r="M24" s="181"/>
+      <c r="N24" s="182"/>
       <c r="O24" s="23">
         <v>6</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Q24" s="44" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="R24" s="83" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="193" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="194"/>
-      <c r="C25" s="115" t="s">
-        <v>263</v>
-      </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="139" t="s">
+      <c r="A25" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="133"/>
+      <c r="C25" s="136" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="197" t="s">
+      <c r="H25" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="137" t="s">
-        <v>272</v>
-      </c>
-      <c r="J25" s="139"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="117"/>
+      <c r="I25" s="208" t="s">
+        <v>261</v>
+      </c>
+      <c r="J25" s="142"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
       <c r="O25" s="28">
         <v>4</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="R25" s="84" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="195"/>
-      <c r="B26" s="196"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="120"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="141"/>
       <c r="O26" s="28">
         <v>7</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="R26" s="84" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="243" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="244"/>
-      <c r="C27" s="245" t="s">
-        <v>264</v>
-      </c>
-      <c r="D27" s="245"/>
-      <c r="E27" s="245"/>
-      <c r="F27" s="245"/>
+      <c r="A27" s="210" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="211"/>
+      <c r="C27" s="212" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
       <c r="G27" s="47" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="J27" s="47"/>
-      <c r="K27" s="246"/>
-      <c r="L27" s="246"/>
-      <c r="M27" s="246"/>
-      <c r="N27" s="246"/>
+      <c r="K27" s="213"/>
+      <c r="L27" s="213"/>
+      <c r="M27" s="213"/>
+      <c r="N27" s="213"/>
       <c r="O27" s="31"/>
       <c r="P27" s="32"/>
       <c r="Q27" s="32"/>
@@ -8836,13 +9002,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K25:N26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:N21"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="A25:B26"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H19:H21"/>
     <mergeCell ref="G19:G21"/>
@@ -8852,25 +9030,13 @@
     <mergeCell ref="H22:H24"/>
     <mergeCell ref="A22:B24"/>
     <mergeCell ref="C22:F24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:F18"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:N21"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K25:N26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -8930,70 +9096,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="str">
+      <c r="B2" s="119" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>NumeroCelular</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la información del número de celular de cada uno de los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -9109,10 +9275,10 @@
     </row>
     <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -9127,7 +9293,7 @@
         <v>58</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>46</v>
@@ -9142,7 +9308,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
@@ -9151,11 +9317,11 @@
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="205" t="s">
+      <c r="A8" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="207"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -9170,10 +9336,10 @@
     </row>
     <row r="10" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C10" s="53" t="str">
         <f>+A6</f>
@@ -9187,44 +9353,44 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="208" t="s">
+      <c r="A13" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="199"/>
-      <c r="C13" s="199" t="s">
+      <c r="B13" s="115"/>
+      <c r="C13" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="199" t="s">
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="199"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="199"/>
-      <c r="O13" s="199" t="s">
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="199"/>
-      <c r="Q13" s="199" t="s">
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="200"/>
+      <c r="R13" s="116"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="209"/>
-      <c r="B14" s="201"/>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -9237,12 +9403,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="201" t="s">
+      <c r="K14" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -9257,88 +9423,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="261" t="s">
+      <c r="A15" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="262"/>
-      <c r="C15" s="263"/>
-      <c r="D15" s="263"/>
-      <c r="E15" s="263"/>
-      <c r="F15" s="263"/>
+      <c r="B15" s="264"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="265"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="265"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="263"/>
-      <c r="L15" s="263"/>
-      <c r="M15" s="263"/>
-      <c r="N15" s="263"/>
+      <c r="K15" s="265"/>
+      <c r="L15" s="265"/>
+      <c r="M15" s="265"/>
+      <c r="N15" s="265"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="218" t="s">
+      <c r="A16" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="219"/>
-      <c r="C16" s="220"/>
-      <c r="D16" s="220"/>
-      <c r="E16" s="220"/>
-      <c r="F16" s="220"/>
+      <c r="B16" s="232"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
       <c r="G16" s="45"/>
       <c r="H16" s="43"/>
       <c r="I16" s="44"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="221"/>
-      <c r="M16" s="221"/>
-      <c r="N16" s="221"/>
+      <c r="K16" s="234"/>
+      <c r="L16" s="234"/>
+      <c r="M16" s="234"/>
+      <c r="N16" s="234"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="255" t="s">
+      <c r="A17" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="256"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
       <c r="G17" s="41"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="265"/>
-      <c r="L17" s="265"/>
-      <c r="M17" s="265"/>
-      <c r="N17" s="265"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="262"/>
+      <c r="M17" s="262"/>
+      <c r="N17" s="262"/>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="243" t="s">
+      <c r="A18" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="244"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="245"/>
-      <c r="E18" s="245"/>
-      <c r="F18" s="245"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
       <c r="G18" s="47"/>
       <c r="H18" s="48"/>
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="246"/>
-      <c r="M18" s="246"/>
-      <c r="N18" s="246"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="213"/>
+      <c r="M18" s="213"/>
+      <c r="N18" s="213"/>
       <c r="O18" s="31"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
@@ -9346,17 +9512,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
@@ -9369,6 +9524,17 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{ED5983EF-10C3-4021-AA2E-6D6CBADEBCDB}"/>
@@ -9427,69 +9593,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -10105,7 +10271,7 @@
       <c r="S17" s="28"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>106</v>
       </c>
@@ -10175,11 +10341,11 @@
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="205" t="s">
+      <c r="A21" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="206"/>
-      <c r="C21" s="207"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
@@ -10199,44 +10365,44 @@
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="208" t="s">
+      <c r="A25" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="199"/>
-      <c r="C25" s="199" t="s">
+      <c r="B25" s="115"/>
+      <c r="C25" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="199"/>
-      <c r="E25" s="199"/>
-      <c r="F25" s="199"/>
-      <c r="G25" s="199" t="s">
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199" t="s">
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="199"/>
-      <c r="L25" s="199"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="199"/>
-      <c r="O25" s="199" t="s">
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="199" t="s">
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="200"/>
+      <c r="R25" s="116"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="209"/>
-      <c r="B26" s="201"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
       <c r="G26" s="19" t="s">
         <v>28</v>
       </c>
@@ -10249,12 +10415,12 @@
       <c r="J26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="201" t="s">
+      <c r="K26" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="201"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="201"/>
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
       <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
@@ -10269,88 +10435,88 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="261" t="s">
+      <c r="A27" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="262"/>
-      <c r="C27" s="263"/>
-      <c r="D27" s="263"/>
-      <c r="E27" s="263"/>
-      <c r="F27" s="263"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="265"/>
+      <c r="D27" s="265"/>
+      <c r="E27" s="265"/>
+      <c r="F27" s="265"/>
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="263"/>
-      <c r="L27" s="263"/>
-      <c r="M27" s="263"/>
-      <c r="N27" s="263"/>
+      <c r="K27" s="265"/>
+      <c r="L27" s="265"/>
+      <c r="M27" s="265"/>
+      <c r="N27" s="265"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="218" t="s">
+      <c r="A28" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="219"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
+      <c r="B28" s="232"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="233"/>
       <c r="G28" s="45"/>
       <c r="H28" s="43"/>
       <c r="I28" s="44"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="221"/>
-      <c r="L28" s="221"/>
-      <c r="M28" s="221"/>
-      <c r="N28" s="221"/>
+      <c r="K28" s="234"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="234"/>
+      <c r="N28" s="234"/>
       <c r="O28" s="23"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="27"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="255" t="s">
+      <c r="A29" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="256"/>
-      <c r="C29" s="264"/>
-      <c r="D29" s="264"/>
-      <c r="E29" s="264"/>
-      <c r="F29" s="264"/>
+      <c r="B29" s="223"/>
+      <c r="C29" s="261"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="261"/>
       <c r="G29" s="41"/>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="265"/>
-      <c r="L29" s="265"/>
-      <c r="M29" s="265"/>
-      <c r="N29" s="265"/>
+      <c r="K29" s="262"/>
+      <c r="L29" s="262"/>
+      <c r="M29" s="262"/>
+      <c r="N29" s="262"/>
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="30"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="243" t="s">
+      <c r="A30" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="244"/>
-      <c r="C30" s="245"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="212"/>
+      <c r="F30" s="212"/>
       <c r="G30" s="47"/>
       <c r="H30" s="48"/>
       <c r="I30" s="46"/>
       <c r="J30" s="47"/>
-      <c r="K30" s="246"/>
-      <c r="L30" s="246"/>
-      <c r="M30" s="246"/>
-      <c r="N30" s="246"/>
+      <c r="K30" s="213"/>
+      <c r="L30" s="213"/>
+      <c r="M30" s="213"/>
+      <c r="N30" s="213"/>
       <c r="O30" s="31"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
@@ -10358,17 +10524,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="K27:N27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="K28:N28"/>
@@ -10381,6 +10536,17 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="K30:N30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EF9E0347-2B57-447E-8DF8-BD9352E99B04}"/>
@@ -10438,69 +10604,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -10810,11 +10976,11 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="205" t="s">
+      <c r="A13" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="206"/>
-      <c r="C13" s="207"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -10853,44 +11019,44 @@
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="208" t="s">
+      <c r="A18" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="199"/>
-      <c r="C18" s="199" t="s">
+      <c r="B18" s="115"/>
+      <c r="C18" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199" t="s">
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="199" t="s">
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="199"/>
-      <c r="L18" s="199"/>
-      <c r="M18" s="199"/>
-      <c r="N18" s="199"/>
-      <c r="O18" s="199" t="s">
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="199" t="s">
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="200"/>
+      <c r="R18" s="116"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="209"/>
-      <c r="B19" s="201"/>
-      <c r="C19" s="201"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="201"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
       <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
@@ -10903,12 +11069,12 @@
       <c r="J19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="201" t="s">
+      <c r="K19" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="201"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
       <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
@@ -10923,88 +11089,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="261" t="s">
+      <c r="A20" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="262"/>
-      <c r="C20" s="263"/>
-      <c r="D20" s="263"/>
-      <c r="E20" s="263"/>
-      <c r="F20" s="263"/>
+      <c r="B20" s="264"/>
+      <c r="C20" s="265"/>
+      <c r="D20" s="265"/>
+      <c r="E20" s="265"/>
+      <c r="F20" s="265"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="263"/>
-      <c r="L20" s="263"/>
-      <c r="M20" s="263"/>
-      <c r="N20" s="263"/>
+      <c r="K20" s="265"/>
+      <c r="L20" s="265"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="265"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="231" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="220"/>
-      <c r="E21" s="220"/>
-      <c r="F21" s="220"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="233"/>
       <c r="G21" s="45"/>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="221"/>
-      <c r="L21" s="221"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="221"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="234"/>
+      <c r="M21" s="234"/>
+      <c r="N21" s="234"/>
       <c r="O21" s="23"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="255" t="s">
+      <c r="A22" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="256"/>
-      <c r="C22" s="264"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="264"/>
-      <c r="F22" s="264"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="261"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
       <c r="G22" s="41"/>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="265"/>
-      <c r="L22" s="265"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="265"/>
+      <c r="K22" s="262"/>
+      <c r="L22" s="262"/>
+      <c r="M22" s="262"/>
+      <c r="N22" s="262"/>
       <c r="O22" s="28"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="243" t="s">
+      <c r="A23" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="244"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="245"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
       <c r="G23" s="47"/>
       <c r="H23" s="48"/>
       <c r="I23" s="46"/>
       <c r="J23" s="47"/>
-      <c r="K23" s="246"/>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
+      <c r="K23" s="213"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="213"/>
+      <c r="N23" s="213"/>
       <c r="O23" s="31"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
@@ -11012,18 +11178,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="K19:N19"/>
     <mergeCell ref="A1:P1"/>
@@ -11035,6 +11189,18 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="J18:N18"/>
     <mergeCell ref="O18:P18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="K23:N23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{B0F04263-3BC8-473A-BA64-5D12C294F6E3}"/>
@@ -11062,8 +11228,8 @@
   </sheetPr>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11093,70 +11259,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="203" t="str">
+      <c r="B2" s="119" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
-        <v>Menu</v>
-      </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
+        <v>Plato</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="204" t="str">
+      <c r="B3" s="120" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
-        <v>Objeto de dominio que contiene la información del menú del restaurante</v>
-      </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
+        <v>Objeto de dominio que contiene la información de los platos del restaurante</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -11270,24 +11436,24 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="T5" s="97" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U5" s="74" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>39</v>
@@ -11324,22 +11490,22 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T6" s="97" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -11379,22 +11545,22 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T7" s="97" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U7" s="74" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -11430,22 +11596,22 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>387</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T8" s="97" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U8" s="77" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -11485,22 +11651,22 @@
         <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>388</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T9" s="97" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U9" s="77" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -11540,22 +11706,22 @@
         <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>389</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T10" s="63" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U10" s="77" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -11563,7 +11729,7 @@
         <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -11589,22 +11755,22 @@
         <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>390</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="U11" s="74" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -11612,7 +11778,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C12" s="74"/>
       <c r="D12" s="5"/>
@@ -11623,7 +11789,7 @@
         <v>50</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="5" t="s">
@@ -11642,31 +11808,31 @@
         <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>173</v>
+        <v>391</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="U12" s="74" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="205" t="s">
+      <c r="A14" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="206"/>
-      <c r="C14" s="207"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
@@ -11684,19 +11850,19 @@
         <v>52</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>132</v>
+        <v>392</v>
       </c>
       <c r="C16" s="53" t="str">
         <f>+A6</f>
-        <v>Plato</v>
+        <v>Nombre</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>135</v>
+        <v>393</v>
       </c>
       <c r="C17" s="53" t="str">
         <f>+A7</f>
@@ -11705,10 +11871,10 @@
     </row>
     <row r="18" spans="1:18" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>175</v>
+        <v>394</v>
       </c>
       <c r="C18" s="53" t="str">
         <f>+A11</f>
@@ -11717,44 +11883,44 @@
     </row>
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="208" t="s">
+      <c r="A20" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="199" t="s">
+      <c r="B20" s="115"/>
+      <c r="C20" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="199"/>
-      <c r="E20" s="199"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199" t="s">
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="199" t="s">
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="199"/>
-      <c r="L20" s="199"/>
-      <c r="M20" s="199"/>
-      <c r="N20" s="199"/>
-      <c r="O20" s="199" t="s">
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
+      <c r="O20" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="199"/>
-      <c r="Q20" s="199" t="s">
+      <c r="P20" s="115"/>
+      <c r="Q20" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="200"/>
+      <c r="R20" s="116"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="209"/>
-      <c r="B21" s="201"/>
-      <c r="C21" s="201"/>
-      <c r="D21" s="201"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="201"/>
+      <c r="A21" s="125"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
       <c r="G21" s="19" t="s">
         <v>28</v>
       </c>
@@ -11767,12 +11933,12 @@
       <c r="J21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="201" t="s">
+      <c r="K21" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="201"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
       <c r="O21" s="19" t="s">
         <v>30</v>
       </c>
@@ -11787,204 +11953,204 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="222" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="223"/>
-      <c r="C22" s="151" t="s">
+      <c r="A22" s="235" t="s">
+        <v>170</v>
+      </c>
+      <c r="B22" s="236"/>
+      <c r="C22" s="241" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="242"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="250" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="228" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="289" t="s">
+        <v>290</v>
+      </c>
+      <c r="J22" s="228"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="242"/>
+      <c r="M22" s="242"/>
+      <c r="N22" s="243"/>
+      <c r="O22" s="290">
+        <v>1</v>
+      </c>
+      <c r="P22" s="290" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="160" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="163" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="166" t="s">
+      <c r="Q22" s="290" t="s">
+        <v>303</v>
+      </c>
+      <c r="R22" s="82" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="237"/>
+      <c r="B23" s="238"/>
+      <c r="C23" s="244"/>
+      <c r="D23" s="245"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="246"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="229"/>
+      <c r="I23" s="291"/>
+      <c r="J23" s="229"/>
+      <c r="K23" s="244"/>
+      <c r="L23" s="245"/>
+      <c r="M23" s="245"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="290">
+        <v>2</v>
+      </c>
+      <c r="P23" s="290" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q23" s="290" t="s">
+        <v>304</v>
+      </c>
+      <c r="R23" s="82" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="239"/>
+      <c r="B24" s="240"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="248"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="252"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="292"/>
+      <c r="J24" s="230"/>
+      <c r="K24" s="247"/>
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="249"/>
+      <c r="O24" s="290">
+        <v>3</v>
+      </c>
+      <c r="P24" s="290" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q24" s="290" t="s">
+        <v>305</v>
+      </c>
+      <c r="R24" s="82" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="266" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" s="267"/>
+      <c r="C25" s="293" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="294"/>
+      <c r="E25" s="294"/>
+      <c r="F25" s="295"/>
+      <c r="G25" s="281" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="296" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="297" t="s">
+        <v>291</v>
+      </c>
+      <c r="J25" s="281"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="294"/>
+      <c r="N25" s="295"/>
+      <c r="O25" s="45">
+        <v>4</v>
+      </c>
+      <c r="P25" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q25" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="R25" s="83" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="268"/>
+      <c r="B26" s="269"/>
+      <c r="C26" s="298"/>
+      <c r="D26" s="299"/>
+      <c r="E26" s="299"/>
+      <c r="F26" s="300"/>
+      <c r="G26" s="301"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="303"/>
+      <c r="J26" s="301"/>
+      <c r="K26" s="298"/>
+      <c r="L26" s="299"/>
+      <c r="M26" s="299"/>
+      <c r="N26" s="300"/>
+      <c r="O26" s="45">
+        <v>5</v>
+      </c>
+      <c r="P26" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q26" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="R26" s="83" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="270"/>
+      <c r="B27" s="271"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="305"/>
+      <c r="E27" s="305"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="282"/>
+      <c r="H27" s="307"/>
+      <c r="I27" s="308"/>
+      <c r="J27" s="282"/>
+      <c r="K27" s="304"/>
+      <c r="L27" s="305"/>
+      <c r="M27" s="305"/>
+      <c r="N27" s="306"/>
+      <c r="O27" s="45">
+        <v>6</v>
+      </c>
+      <c r="P27" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="J22" s="163"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="20">
-        <v>1</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="R22" s="82" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="224"/>
-      <c r="B23" s="225"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="164"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="20">
-        <v>2</v>
-      </c>
-      <c r="P23" s="20" t="s">
+      <c r="Q27" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="R27" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="R23" s="82" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="226"/>
-      <c r="B24" s="227"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="159"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="158"/>
-      <c r="M24" s="158"/>
-      <c r="N24" s="159"/>
-      <c r="O24" s="20">
-        <v>3</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="R24" s="82" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="275" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="276"/>
-      <c r="C25" s="169" t="s">
-        <v>297</v>
-      </c>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="178" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="184" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="181" t="s">
-        <v>302</v>
-      </c>
-      <c r="J25" s="178"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="23">
-        <v>4</v>
-      </c>
-      <c r="P25" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q25" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="R25" s="83" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="277"/>
-      <c r="B26" s="278"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="23">
-        <v>5</v>
-      </c>
-      <c r="P26" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q26" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="R26" s="83" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="279"/>
-      <c r="B27" s="280"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="176"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="23">
-        <v>6</v>
-      </c>
-      <c r="P27" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q27" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="R27" s="83" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="28" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="255" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="256"/>
-      <c r="C28" s="264" t="s">
-        <v>298</v>
-      </c>
-      <c r="D28" s="264"/>
-      <c r="E28" s="264"/>
-      <c r="F28" s="264"/>
+      <c r="A28" s="222" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="223"/>
+      <c r="C28" s="261" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" s="261"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="261"/>
       <c r="G28" s="41" t="s">
         <v>38</v>
       </c>
@@ -11992,128 +12158,157 @@
         <v>39</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="265"/>
-      <c r="L28" s="265"/>
-      <c r="M28" s="265"/>
-      <c r="N28" s="265"/>
-      <c r="O28" s="28">
+        <v>257</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="K28" s="261"/>
+      <c r="L28" s="261"/>
+      <c r="M28" s="261"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="41">
         <v>4</v>
       </c>
-      <c r="P28" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q28" s="29" t="s">
+      <c r="P28" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q28" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="R28" s="309" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="272" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="273"/>
+      <c r="C29" s="310" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29" s="311"/>
+      <c r="E29" s="311"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="313" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="314" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="315" t="s">
+        <v>292</v>
+      </c>
+      <c r="J29" s="313"/>
+      <c r="K29" s="310"/>
+      <c r="L29" s="311"/>
+      <c r="M29" s="311"/>
+      <c r="N29" s="312"/>
+      <c r="O29" s="80">
+        <v>4</v>
+      </c>
+      <c r="P29" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q29" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="R29" s="316" t="s">
         <v>317</v>
       </c>
-      <c r="R28" s="84" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="266" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="267"/>
-      <c r="C29" s="125" t="s">
-        <v>299</v>
-      </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="131" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="135" t="s">
-        <v>303</v>
-      </c>
-      <c r="J29" s="131"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="31">
-        <v>4</v>
-      </c>
-      <c r="P29" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q29" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="R29" s="85" t="s">
-        <v>328</v>
-      </c>
     </row>
     <row r="30" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="268"/>
-      <c r="B30" s="269"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="130"/>
-      <c r="O30" s="31">
+      <c r="A30" s="274"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="317"/>
+      <c r="D30" s="318"/>
+      <c r="E30" s="318"/>
+      <c r="F30" s="319"/>
+      <c r="G30" s="320"/>
+      <c r="H30" s="321"/>
+      <c r="I30" s="322"/>
+      <c r="J30" s="320"/>
+      <c r="K30" s="317"/>
+      <c r="L30" s="318"/>
+      <c r="M30" s="318"/>
+      <c r="N30" s="319"/>
+      <c r="O30" s="80">
         <v>7</v>
       </c>
-      <c r="P30" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q30" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="R30" s="85" t="s">
-        <v>329</v>
+      <c r="P30" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q30" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="R30" s="316" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="270" t="s">
+      <c r="A31" s="276" t="s">
+        <v>284</v>
+      </c>
+      <c r="B31" s="277"/>
+      <c r="C31" s="278" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="279"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="81" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" s="81" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" s="323" t="s">
         <v>295</v>
       </c>
-      <c r="B31" s="271"/>
-      <c r="C31" s="272" t="s">
-        <v>300</v>
-      </c>
-      <c r="D31" s="273"/>
-      <c r="E31" s="273"/>
-      <c r="F31" s="274"/>
-      <c r="G31" s="81" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="74" t="s">
-        <v>304</v>
-      </c>
-      <c r="J31" s="74" t="s">
-        <v>305</v>
-      </c>
-      <c r="K31" s="212" t="s">
-        <v>306</v>
-      </c>
-      <c r="L31" s="213"/>
-      <c r="M31" s="213"/>
-      <c r="N31" s="214"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
+      <c r="L31" s="324"/>
+      <c r="M31" s="324"/>
+      <c r="N31" s="325"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="C22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:N30"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="A25:B27"/>
+    <mergeCell ref="C29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="C25:F27"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:N24"/>
+    <mergeCell ref="K25:N27"/>
+    <mergeCell ref="J25:J27"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -12123,35 +12318,6 @@
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="O20:P20"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="C25:F27"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:N24"/>
-    <mergeCell ref="K25:N27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="A25:B27"/>
-    <mergeCell ref="C29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:N30"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="C22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{CE046CF2-55A1-49BB-A51B-B44B322E3D79}"/>
@@ -12185,12 +12351,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0DE5568C0AE848B2F225150E15E78E" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="643d399a24376eab49db33c80db032ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915fd109-ae29-4648-8de1-7f064f1d0fe5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a54904d818499acdea7742e4a0622bc" ns2:_="">
     <xsd:import namespace="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
@@ -12328,6 +12488,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
@@ -12337,15 +12503,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C779E5F7-74AC-4CCB-8FB1-CBA1DF721FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12363,6 +12520,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>

--- a/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
+++ b/2.1_Plantilla Modelo enriquecido-Requisitos de información Restaurante - 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cardo\Documents\UCO\SEMESTRE2\DOO\Proyecto Extraclase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A961FDA-B02D-478A-B78B-4C0DA7EF2E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C37FB-555A-4F7A-B285-2CD00A5E78BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="9" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="400">
   <si>
     <t>Nombre</t>
   </si>
@@ -611,9 +611,6 @@
     <t>NumeroCelular</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
     <t>Objeto de dominio que representa a cada uno de los tipos de identificación que tienen los clientes dentro del restaurante. Por ejemplo, cédula de ciudadanía, Tarjeta de Identidad, Pasaporte, etc.</t>
   </si>
   <si>
@@ -1401,6 +1398,12 @@
   </si>
   <si>
     <t>Filtro/Mostrar al usuario-Orden 2-soporta criterio de orden(Defecto:ASC)/Mostrar (aplicación)</t>
+  </si>
+  <si>
+    <t>Pais[]</t>
+  </si>
+  <si>
+    <t>Contiene el listado/arreglo/conjunto de todos los paises existentes que cumplen con los parámetros recibidos</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +1970,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2243,6 +2246,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2744,6 +2756,42 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2762,6 +2810,60 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2789,11 +2891,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2813,115 +2927,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3749,53 +3755,53 @@
       <c r="P22" s="70"/>
     </row>
     <row r="23" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="107"/>
+      <c r="C23" s="110" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="111"/>
+      <c r="E23" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="111"/>
+      <c r="G23" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="107" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="108"/>
-      <c r="E23" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="108"/>
-      <c r="G23" s="111" t="s">
+      <c r="H23" s="115"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="102" t="s">
+        <v>394</v>
+      </c>
+      <c r="K23" s="103"/>
+      <c r="L23" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="112"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="99" t="s">
-        <v>395</v>
-      </c>
-      <c r="K23" s="100"/>
-      <c r="L23" s="99" t="s">
+      <c r="M23" s="103"/>
+      <c r="N23" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="100"/>
-      <c r="N23" s="99" t="s">
-        <v>140</v>
-      </c>
-      <c r="O23" s="100"/>
+      <c r="O23" s="103"/>
       <c r="P23" s="70"/>
     </row>
     <row r="24" spans="1:16" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="105"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="114"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
       <c r="I24" s="71"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="101"/>
-      <c r="O24" s="102"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="105"/>
       <c r="P24" s="72"/>
     </row>
   </sheetData>
@@ -3830,8 +3836,8 @@
   </sheetPr>
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3861,70 +3867,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="str">
+      <c r="B2" s="122" t="str">
         <f>+'Listado Objetos de Dominio'!A8</f>
         <v>Subcategoria</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>+'Listado Objetos de Dominio'!B8</f>
         <v>Objeto de dominio que contiene la información de las subcategorias de los productos que existen en el restaurante. Por ejemplo, entradas frías, ensaladas, sopas, pollo, cerdo, parrilla.</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -4034,16 +4040,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="S5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="31" t="s">
         <v>215</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -4063,7 +4069,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
@@ -4083,19 +4089,19 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S6" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T6" s="32" t="s">
         <v>217</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="69" x14ac:dyDescent="0.3">
@@ -4131,28 +4137,28 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T7" s="32" t="s">
         <v>397</v>
-      </c>
-      <c r="Q7" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
@@ -4170,7 +4176,7 @@
         <v>99</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="53" t="str">
         <f>+A6</f>
@@ -4179,44 +4185,44 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115" t="s">
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115" t="s">
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115" t="s">
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115" t="s">
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="116"/>
+      <c r="R13" s="119"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="125"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -4229,12 +4235,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="117" t="s">
+      <c r="K14" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -4249,214 +4255,214 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="150" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="156" t="s">
-        <v>319</v>
-      </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="165" t="s">
+      <c r="A15" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="154"/>
+      <c r="C15" s="159" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="168" t="s">
+      <c r="H15" s="171" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="171" t="s">
-        <v>324</v>
-      </c>
-      <c r="J15" s="168"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="158"/>
+      <c r="I15" s="174" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="171"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="161"/>
       <c r="O15" s="20">
         <v>1</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R15" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="154"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="164"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="165"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="167"/>
       <c r="O16" s="20">
         <v>2</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R16" s="51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="126" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="174" t="s">
-        <v>320</v>
-      </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="183" t="s">
+      <c r="A17" s="129" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="177" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="186" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="189" t="s">
+      <c r="H17" s="192" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="186" t="s">
-        <v>325</v>
-      </c>
-      <c r="J17" s="183"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="176"/>
+      <c r="I17" s="189" t="s">
+        <v>324</v>
+      </c>
+      <c r="J17" s="186"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="178"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="179"/>
       <c r="O17" s="23">
         <v>3</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R17" s="93" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="130"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="185"/>
-      <c r="H18" s="191"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="185"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="182"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="185"/>
       <c r="O18" s="23">
         <v>4</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R18" s="93" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="136" t="s">
-        <v>321</v>
-      </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="142" t="s">
+      <c r="A19" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="136"/>
+      <c r="C19" s="139" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="144" t="s">
-        <v>323</v>
-      </c>
-      <c r="I19" s="208" t="s">
-        <v>326</v>
+      <c r="H19" s="147" t="s">
+        <v>322</v>
+      </c>
+      <c r="I19" s="211" t="s">
+        <v>325</v>
       </c>
       <c r="J19" s="94"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="138"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="141"/>
       <c r="O19" s="28">
         <v>3</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q19" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R19" s="84" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="134"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="209"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="212"/>
       <c r="J20" s="95"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="141"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="144"/>
       <c r="O20" s="28">
         <v>5</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R20" s="84" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="210" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="211"/>
-      <c r="C21" s="212" t="s">
-        <v>322</v>
-      </c>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="212"/>
+      <c r="A21" s="213" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="214"/>
+      <c r="C21" s="215" t="s">
+        <v>321</v>
+      </c>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="215"/>
       <c r="G21" s="80" t="s">
         <v>127</v>
       </c>
@@ -4464,17 +4470,17 @@
         <v>127</v>
       </c>
       <c r="I21" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J21" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="J21" s="47" t="s">
+      <c r="K21" s="216" t="s">
         <v>328</v>
       </c>
-      <c r="K21" s="213" t="s">
-        <v>329</v>
-      </c>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
-      <c r="N21" s="213"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="216"/>
+      <c r="N21" s="216"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -4573,70 +4579,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="str">
+      <c r="B2" s="122" t="str">
         <f>+'Listado Objetos de Dominio'!A7</f>
         <v>Categoria</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>+'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene la información de las categorías de platos que existen en el restaurante. Por ejemplo plato principal, postres, bebidas, entradas, etc.</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -4746,16 +4752,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -4775,7 +4781,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
@@ -4798,25 +4804,25 @@
         <v>129</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S6" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T6" s="32" t="s">
         <v>217</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -4843,44 +4849,44 @@
     </row>
     <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="115" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115" t="s">
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115" t="s">
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115" t="s">
+      <c r="K12" s="118"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="118"/>
+      <c r="O12" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115" t="s">
+      <c r="P12" s="118"/>
+      <c r="Q12" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R12" s="116"/>
+      <c r="R12" s="119"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="125"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
@@ -4893,12 +4899,12 @@
       <c r="J13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="117" t="s">
+      <c r="K13" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
       <c r="O13" s="19" t="s">
         <v>30</v>
       </c>
@@ -4913,214 +4919,214 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="150" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="151"/>
-      <c r="C14" s="156" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="250" t="s">
+      <c r="A14" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="154"/>
+      <c r="C14" s="159" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="253" t="s">
         <v>88</v>
       </c>
-      <c r="H14" s="287" t="s">
+      <c r="H14" s="324" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="171" t="s">
-        <v>358</v>
-      </c>
-      <c r="J14" s="168"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="158"/>
+      <c r="I14" s="174" t="s">
+        <v>357</v>
+      </c>
+      <c r="J14" s="171"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="161"/>
       <c r="O14" s="20">
         <v>1</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R14" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="154"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="252"/>
-      <c r="H15" s="288"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="164"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="255"/>
+      <c r="H15" s="325"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="167"/>
       <c r="O15" s="20">
         <v>2</v>
       </c>
       <c r="P15" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R15" s="51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="126" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="174" t="s">
-        <v>355</v>
-      </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="281" t="s">
+      <c r="A16" s="129" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="177" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="269" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="283" t="s">
+      <c r="H16" s="320" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="186" t="s">
-        <v>359</v>
-      </c>
-      <c r="J16" s="183"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="176"/>
+      <c r="I16" s="189" t="s">
+        <v>358</v>
+      </c>
+      <c r="J16" s="186"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="179"/>
       <c r="O16" s="23">
         <v>3</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R16" s="93" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="182"/>
-      <c r="G17" s="282"/>
-      <c r="H17" s="284"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="182"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="185"/>
+      <c r="G17" s="271"/>
+      <c r="H17" s="321"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="184"/>
+      <c r="N17" s="185"/>
       <c r="O17" s="23">
         <v>4</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R17" s="93" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="133"/>
-      <c r="C18" s="136" t="s">
-        <v>356</v>
-      </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="226" t="s">
+      <c r="A18" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="136"/>
+      <c r="C18" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="285" t="s">
-        <v>323</v>
-      </c>
-      <c r="I18" s="208" t="s">
-        <v>360</v>
-      </c>
-      <c r="J18" s="142"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="138"/>
+      <c r="H18" s="322" t="s">
+        <v>322</v>
+      </c>
+      <c r="I18" s="211" t="s">
+        <v>359</v>
+      </c>
+      <c r="J18" s="145"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="141"/>
       <c r="O18" s="28">
         <v>3</v>
       </c>
       <c r="P18" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R18" s="84" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="134"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="286"/>
-      <c r="I19" s="209"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="141"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="323"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="144"/>
       <c r="O19" s="28">
         <v>5</v>
       </c>
       <c r="P19" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R19" s="84" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="210" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="211"/>
-      <c r="C20" s="212" t="s">
-        <v>357</v>
-      </c>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
+      <c r="A20" s="213" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="214"/>
+      <c r="C20" s="215" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
       <c r="G20" s="80" t="s">
         <v>88</v>
       </c>
@@ -5128,17 +5134,17 @@
         <v>88</v>
       </c>
       <c r="I20" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="J20" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="K20" s="216" t="s">
         <v>362</v>
       </c>
-      <c r="K20" s="213" t="s">
-        <v>363</v>
-      </c>
-      <c r="L20" s="213"/>
-      <c r="M20" s="213"/>
-      <c r="N20" s="213"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="216"/>
+      <c r="N20" s="216"/>
       <c r="O20" s="31"/>
       <c r="P20" s="32"/>
       <c r="Q20" s="32"/>
@@ -5156,6 +5162,12 @@
     <mergeCell ref="A16:B17"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="K18:N19"/>
+    <mergeCell ref="K16:N17"/>
+    <mergeCell ref="K14:N15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="C18:F19"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -5165,12 +5177,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="K18:N19"/>
-    <mergeCell ref="K16:N17"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="C16:F17"/>
-    <mergeCell ref="C18:F19"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J18:J19"/>
@@ -5234,69 +5240,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -5518,11 +5524,11 @@
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -5554,44 +5560,44 @@
     </row>
     <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115" t="s">
+      <c r="B16" s="118"/>
+      <c r="C16" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115" t="s">
+      <c r="D16" s="118"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115" t="s">
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115" t="s">
+      <c r="K16" s="118"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="118"/>
+      <c r="O16" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115" t="s">
+      <c r="P16" s="118"/>
+      <c r="Q16" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="116"/>
+      <c r="R16" s="119"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="125"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
@@ -5604,12 +5610,12 @@
       <c r="J17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="117" t="s">
+      <c r="K17" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
       <c r="O17" s="19" t="s">
         <v>30</v>
       </c>
@@ -5624,88 +5630,88 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="263" t="s">
+      <c r="A18" s="266" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="264"/>
-      <c r="C18" s="265"/>
-      <c r="D18" s="265"/>
-      <c r="E18" s="265"/>
-      <c r="F18" s="265"/>
+      <c r="B18" s="267"/>
+      <c r="C18" s="268"/>
+      <c r="D18" s="268"/>
+      <c r="E18" s="268"/>
+      <c r="F18" s="268"/>
       <c r="G18" s="20"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="265"/>
-      <c r="L18" s="265"/>
-      <c r="M18" s="265"/>
-      <c r="N18" s="265"/>
+      <c r="K18" s="268"/>
+      <c r="L18" s="268"/>
+      <c r="M18" s="268"/>
+      <c r="N18" s="268"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="26"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="231" t="s">
+      <c r="A19" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="232"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="233"/>
-      <c r="F19" s="233"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="236"/>
+      <c r="F19" s="236"/>
       <c r="G19" s="45"/>
       <c r="H19" s="43"/>
       <c r="I19" s="44"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="234"/>
-      <c r="L19" s="234"/>
-      <c r="M19" s="234"/>
-      <c r="N19" s="234"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="237"/>
+      <c r="N19" s="237"/>
       <c r="O19" s="23"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="222" t="s">
+      <c r="A20" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="223"/>
-      <c r="C20" s="261"/>
-      <c r="D20" s="261"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="261"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="264"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="264"/>
+      <c r="F20" s="264"/>
       <c r="G20" s="41"/>
       <c r="H20" s="39"/>
       <c r="I20" s="40"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="262"/>
-      <c r="L20" s="262"/>
-      <c r="M20" s="262"/>
-      <c r="N20" s="262"/>
+      <c r="K20" s="265"/>
+      <c r="L20" s="265"/>
+      <c r="M20" s="265"/>
+      <c r="N20" s="265"/>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
       <c r="R20" s="30"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="210" t="s">
+      <c r="A21" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="211"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="212"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="215"/>
       <c r="G21" s="47"/>
       <c r="H21" s="48"/>
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
-      <c r="N21" s="213"/>
+      <c r="K21" s="216"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="216"/>
+      <c r="N21" s="216"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
@@ -5784,7 +5790,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -5792,15 +5798,15 @@
         <v>56</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5808,15 +5814,15 @@
         <v>134</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5824,7 +5830,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -5832,7 +5838,7 @@
         <v>127</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5857,8 +5863,8 @@
   </sheetPr>
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5888,70 +5894,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="str">
+      <c r="B2" s="122" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que representa a cada uno de los tipos de identificación que tienen los clientes dentro del restaurante. Por ejemplo, cédula de ciudadanía, Tarjeta de Identidad, Pasaporte, etc.</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -6065,19 +6071,19 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="S5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="U5" s="74" t="s">
         <v>215</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="T5" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="U5" s="74" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
@@ -6122,19 +6128,19 @@
         <v>48</v>
       </c>
       <c r="Q6" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T6" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="R6" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S6" s="28" t="s">
+      <c r="U6" s="77" t="s">
         <v>217</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="U6" s="77" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
@@ -6179,19 +6185,19 @@
         <v>51</v>
       </c>
       <c r="Q7" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T7" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="R7" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>215</v>
-      </c>
       <c r="U7" s="74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -6199,7 +6205,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="5"/>
@@ -6210,7 +6216,7 @@
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="5" t="s">
@@ -6229,22 +6235,22 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R8" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="R8" s="23" t="s">
-        <v>215</v>
-      </c>
       <c r="S8" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T8" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="U8" s="74" t="s">
         <v>220</v>
-      </c>
-      <c r="U8" s="74" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6255,11 +6261,11 @@
       <c r="U9" s="79"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="123"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
@@ -6298,44 +6304,44 @@
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115" t="s">
+      <c r="B15" s="118"/>
+      <c r="C15" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115" t="s">
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115" t="s">
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115" t="s">
+      <c r="K15" s="118"/>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="118"/>
+      <c r="O15" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115" t="s">
+      <c r="P15" s="118"/>
+      <c r="Q15" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="116"/>
+      <c r="R15" s="119"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="125"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="19" t="s">
         <v>28</v>
       </c>
@@ -6348,12 +6354,12 @@
       <c r="J16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="117" t="s">
+      <c r="K16" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
       <c r="O16" s="19" t="s">
         <v>30</v>
       </c>
@@ -6368,350 +6374,350 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="154"/>
+      <c r="C17" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="151"/>
-      <c r="C17" s="156" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="165" t="s">
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="168" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="171" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="H17" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="I17" s="171" t="s">
-        <v>181</v>
-      </c>
-      <c r="J17" s="168"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
-      <c r="N17" s="158"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="161"/>
       <c r="O17" s="20">
         <v>1</v>
       </c>
       <c r="P17" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q17" s="73" t="s">
+        <v>194</v>
+      </c>
+      <c r="R17" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="R17" s="82" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="18" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="152"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="161"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="164"/>
       <c r="O18" s="20">
         <v>2</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q18" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="R18" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="R18" s="82" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="19" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="154"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="164"/>
+      <c r="A19" s="157"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="167"/>
       <c r="O19" s="20">
         <v>3</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q19" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="R19" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="R19" s="82" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="20" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="126" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="127"/>
-      <c r="C20" s="174" t="s">
+      <c r="A20" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="183" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="189" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" s="186" t="s">
-        <v>182</v>
-      </c>
-      <c r="J20" s="183"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="176"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="177" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="186" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="192" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="189" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" s="186"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="179"/>
       <c r="O20" s="23">
         <v>4</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="R20" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="R20" s="83" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="21" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="184"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="179"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="182"/>
       <c r="O21" s="23">
         <v>5</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="R21" s="83" t="s">
         <v>203</v>
       </c>
-      <c r="R21" s="83" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="22" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="185"/>
-      <c r="H22" s="191"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="182"/>
+      <c r="A22" s="133"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="185"/>
       <c r="O22" s="23">
         <v>6</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="R22" s="83" t="s">
         <v>205</v>
       </c>
-      <c r="R22" s="83" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="23" spans="1:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="136" t="s">
+      <c r="A23" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="142" t="s">
+      <c r="B23" s="136"/>
+      <c r="C23" s="139" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="144" t="s">
+      <c r="H23" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="I23" s="208" t="s">
-        <v>183</v>
-      </c>
-      <c r="J23" s="142"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="138"/>
+      <c r="I23" s="211" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="145"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="140"/>
+      <c r="M23" s="140"/>
+      <c r="N23" s="141"/>
       <c r="O23" s="28">
         <v>4</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q23" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="R23" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="R23" s="84" t="s">
-        <v>208</v>
-      </c>
     </row>
     <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="134"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="209"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="140"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="141"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="144"/>
       <c r="O24" s="28">
         <v>7</v>
       </c>
       <c r="P24" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q24" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="R24" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="R24" s="84" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="192" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="193"/>
-      <c r="C25" s="196" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="202" t="s">
-        <v>180</v>
-      </c>
-      <c r="H25" s="204" t="s">
-        <v>180</v>
-      </c>
-      <c r="I25" s="206"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="196"/>
-      <c r="L25" s="197"/>
-      <c r="M25" s="197"/>
-      <c r="N25" s="198"/>
+      <c r="A25" s="195" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="196"/>
+      <c r="C25" s="199" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="205" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="207" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="209"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="201"/>
       <c r="O25" s="31">
         <v>4</v>
       </c>
       <c r="P25" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R25" s="85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="194"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="207"/>
-      <c r="J26" s="203"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="201"/>
+      <c r="A26" s="197"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="202"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="203"/>
+      <c r="M26" s="203"/>
+      <c r="N26" s="204"/>
       <c r="O26" s="31">
         <v>8</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="R26" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="R26" s="85" t="s">
-        <v>213</v>
-      </c>
     </row>
     <row r="27" spans="1:18" s="79" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="146" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="147"/>
-      <c r="C27" s="148" t="s">
+      <c r="A27" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="150"/>
+      <c r="C27" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="81" t="s">
-        <v>180</v>
-      </c>
       <c r="H27" s="54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I27" s="75"/>
       <c r="J27" s="76" t="s">
-        <v>185</v>
-      </c>
-      <c r="K27" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="149"/>
+      <c r="K27" s="152" t="s">
+        <v>183</v>
+      </c>
+      <c r="L27" s="152"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="152"/>
       <c r="O27" s="74"/>
       <c r="P27" s="77"/>
       <c r="Q27" s="77"/>
@@ -6791,8 +6797,8 @@
   </sheetPr>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G25" sqref="G25"/>
       <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
@@ -6824,70 +6830,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="str">
+      <c r="B2" s="122" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que representa a cada uno de los clientes que realiza una reserva en el restaurante</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -6997,16 +7003,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
@@ -7045,21 +7051,21 @@
         <v>72</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T6" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>39</v>
@@ -7090,19 +7096,19 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T7" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7147,16 +7153,16 @@
         <v>59</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7201,16 +7207,16 @@
         <v>62</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7255,16 +7261,16 @@
         <v>64</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R10" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S10" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T10" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
@@ -7309,16 +7315,16 @@
         <v>66</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S11" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T11" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="82.8" x14ac:dyDescent="0.3">
@@ -7363,24 +7369,24 @@
         <v>74</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T12" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -7408,19 +7414,19 @@
         <v>46</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S13" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T13" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -7460,19 +7466,19 @@
         <v>46</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S14" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T14" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -7511,24 +7517,24 @@
         <v>70</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S15" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T15" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="5">
         <v>5</v>
@@ -7563,16 +7569,16 @@
         <v>78</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S16" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T16" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -7613,24 +7619,24 @@
         <v>80</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S17" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T17" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -7658,19 +7664,19 @@
         <v>46</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S18" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T18" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -7697,11 +7703,11 @@
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
@@ -7740,44 +7746,44 @@
     </row>
     <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="124" t="s">
+      <c r="A26" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115" t="s">
+      <c r="B26" s="118"/>
+      <c r="C26" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115" t="s">
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115" t="s">
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115" t="s">
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="118"/>
+      <c r="O26" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115" t="s">
+      <c r="P26" s="118"/>
+      <c r="Q26" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R26" s="116"/>
+      <c r="R26" s="119"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="125"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="19" t="s">
         <v>28</v>
       </c>
@@ -7790,12 +7796,12 @@
       <c r="J27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="117" t="s">
+      <c r="K27" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L27" s="117"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
       <c r="O27" s="19" t="s">
         <v>30</v>
       </c>
@@ -7810,110 +7816,110 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="235" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="241" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="242"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="250" t="s">
+      <c r="A28" s="238" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="239"/>
+      <c r="C28" s="244" t="s">
+        <v>224</v>
+      </c>
+      <c r="D28" s="245"/>
+      <c r="E28" s="245"/>
+      <c r="F28" s="246"/>
+      <c r="G28" s="253" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="228" t="s">
+      <c r="H28" s="231" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="171" t="s">
-        <v>254</v>
-      </c>
-      <c r="J28" s="168"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
-      <c r="N28" s="158"/>
+      <c r="I28" s="174" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" s="171"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="161"/>
       <c r="O28" s="20">
         <v>1</v>
       </c>
       <c r="P28" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R28" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="237"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="244"/>
-      <c r="D29" s="245"/>
-      <c r="E29" s="245"/>
-      <c r="F29" s="246"/>
-      <c r="G29" s="251"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="161"/>
+      <c r="A29" s="240"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="164"/>
       <c r="O29" s="20">
         <v>2</v>
       </c>
       <c r="P29" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q29" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R29" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="239"/>
-      <c r="B30" s="240"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="248"/>
-      <c r="E30" s="248"/>
-      <c r="F30" s="249"/>
-      <c r="G30" s="252"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="162"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="164"/>
+      <c r="A30" s="242"/>
+      <c r="B30" s="243"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="251"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="255"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="165"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="167"/>
       <c r="O30" s="20">
         <v>3</v>
       </c>
       <c r="P30" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q30" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R30" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="231" t="s">
-        <v>222</v>
-      </c>
-      <c r="B31" s="232"/>
-      <c r="C31" s="233" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="233"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="233"/>
+      <c r="A31" s="234" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="235"/>
+      <c r="C31" s="236" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="236"/>
+      <c r="E31" s="236"/>
+      <c r="F31" s="236"/>
       <c r="G31" s="45" t="s">
         <v>56</v>
       </c>
@@ -7921,103 +7927,103 @@
         <v>56</v>
       </c>
       <c r="I31" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J31" s="38"/>
-      <c r="K31" s="234"/>
-      <c r="L31" s="234"/>
-      <c r="M31" s="234"/>
-      <c r="N31" s="234"/>
+      <c r="K31" s="237"/>
+      <c r="L31" s="237"/>
+      <c r="M31" s="237"/>
+      <c r="N31" s="237"/>
       <c r="O31" s="23">
         <v>4</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="R31" s="93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="220" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="221"/>
-      <c r="C32" s="214" t="s">
-        <v>227</v>
-      </c>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="226" t="s">
+      <c r="A32" s="223" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="224"/>
+      <c r="C32" s="217" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="219"/>
+      <c r="G32" s="229" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="224" t="s">
+      <c r="H32" s="227" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="208" t="s">
-        <v>256</v>
-      </c>
-      <c r="J32" s="142"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="138"/>
+      <c r="I32" s="211" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" s="145"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="141"/>
       <c r="O32" s="28">
         <v>5</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R32" s="84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="222"/>
-      <c r="B33" s="223"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="225"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="141"/>
+      <c r="A33" s="225"/>
+      <c r="B33" s="226"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="221"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="222"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="144"/>
       <c r="O33" s="28">
         <v>6</v>
       </c>
       <c r="P33" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q33" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R33" s="84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="210" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="211"/>
-      <c r="C34" s="212" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" s="212"/>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
+      <c r="A34" s="213" t="s">
+        <v>174</v>
+      </c>
+      <c r="B34" s="214"/>
+      <c r="C34" s="215" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="215"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
       <c r="G34" s="80" t="s">
         <v>38</v>
       </c>
@@ -8025,61 +8031,61 @@
         <v>39</v>
       </c>
       <c r="I34" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J34" s="47"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="213"/>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
+      <c r="K34" s="216"/>
+      <c r="L34" s="216"/>
+      <c r="M34" s="216"/>
+      <c r="N34" s="216"/>
       <c r="O34" s="31">
         <v>5</v>
       </c>
       <c r="P34" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R34" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="253" t="s">
-        <v>223</v>
-      </c>
-      <c r="B35" s="253"/>
-      <c r="C35" s="253" t="s">
-        <v>229</v>
-      </c>
-      <c r="D35" s="253"/>
-      <c r="E35" s="253"/>
-      <c r="F35" s="253"/>
+      <c r="A35" s="256" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="256"/>
+      <c r="C35" s="256" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="256"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="256"/>
       <c r="G35" s="81"/>
       <c r="H35" s="81"/>
       <c r="I35" s="74"/>
       <c r="J35" s="74"/>
-      <c r="K35" s="255"/>
-      <c r="L35" s="256"/>
-      <c r="M35" s="256"/>
-      <c r="N35" s="257"/>
+      <c r="K35" s="258"/>
+      <c r="L35" s="259"/>
+      <c r="M35" s="259"/>
+      <c r="N35" s="260"/>
       <c r="O35" s="74"/>
       <c r="P35" s="74"/>
       <c r="Q35" s="74"/>
       <c r="R35" s="74"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="254" t="s">
-        <v>224</v>
-      </c>
-      <c r="B36" s="254"/>
-      <c r="C36" s="254" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="254"/>
-      <c r="E36" s="254"/>
-      <c r="F36" s="254"/>
+      <c r="A36" s="257" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="257"/>
+      <c r="C36" s="257" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="257"/>
+      <c r="E36" s="257"/>
+      <c r="F36" s="257"/>
       <c r="G36" s="91" t="s">
         <v>38</v>
       </c>
@@ -8088,10 +8094,10 @@
       </c>
       <c r="I36" s="92"/>
       <c r="J36" s="92"/>
-      <c r="K36" s="258"/>
-      <c r="L36" s="259"/>
-      <c r="M36" s="259"/>
-      <c r="N36" s="260"/>
+      <c r="K36" s="261"/>
+      <c r="L36" s="262"/>
+      <c r="M36" s="262"/>
+      <c r="N36" s="263"/>
       <c r="O36" s="92"/>
       <c r="P36" s="92"/>
       <c r="Q36" s="92"/>
@@ -8166,8 +8172,8 @@
   </sheetPr>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8197,70 +8203,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="str">
+      <c r="B2" s="122" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -8370,16 +8376,16 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S5" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T5" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
@@ -8422,16 +8428,16 @@
         <v>81</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R6" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S6" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
@@ -8451,7 +8457,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13" t="s">
@@ -8476,16 +8482,16 @@
         <v>82</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S7" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T7" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
@@ -8530,21 +8536,21 @@
         <v>82</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R8" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S8" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T8" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>86</v>
@@ -8555,7 +8561,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="6"/>
@@ -8575,28 +8581,28 @@
         <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R9" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S9" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T9" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
@@ -8614,7 +8620,7 @@
         <v>52</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" s="53" t="str">
         <f>+A6</f>
@@ -8623,10 +8629,10 @@
     </row>
     <row r="14" spans="1:20" ht="92.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>382</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>383</v>
       </c>
       <c r="C14" s="53" t="str">
         <f>+A7</f>
@@ -8647,44 +8653,44 @@
     </row>
     <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115" t="s">
+      <c r="B17" s="118"/>
+      <c r="C17" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115" t="s">
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115" t="s">
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115" t="s">
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115" t="s">
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="116"/>
+      <c r="R17" s="119"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="125"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="19" t="s">
         <v>28</v>
       </c>
@@ -8697,12 +8703,12 @@
       <c r="J18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="117" t="s">
+      <c r="K18" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
       <c r="O18" s="19" t="s">
         <v>30</v>
       </c>
@@ -8717,284 +8723,288 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="150" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="151"/>
-      <c r="C19" s="156" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="165" t="s">
-        <v>381</v>
-      </c>
-      <c r="H19" s="168" t="s">
-        <v>381</v>
-      </c>
-      <c r="I19" s="171" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="168"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="158"/>
+      <c r="A19" s="153" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="154"/>
+      <c r="C19" s="159" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="168" t="s">
+        <v>380</v>
+      </c>
+      <c r="H19" s="171" t="s">
+        <v>380</v>
+      </c>
+      <c r="I19" s="174" t="s">
+        <v>257</v>
+      </c>
+      <c r="J19" s="171"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="161"/>
       <c r="O19" s="20">
         <v>1</v>
       </c>
       <c r="P19" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="R19" s="82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="152"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="161"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="164"/>
       <c r="O20" s="20">
         <v>2</v>
       </c>
       <c r="P20" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="73" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R20" s="82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="154"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="164"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="167"/>
       <c r="O21" s="20">
         <v>3</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q21" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R21" s="82" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="126" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="174" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="183" t="s">
-        <v>381</v>
-      </c>
-      <c r="H22" s="189" t="s">
-        <v>381</v>
-      </c>
-      <c r="I22" s="186" t="s">
-        <v>259</v>
-      </c>
-      <c r="J22" s="183"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="176"/>
+      <c r="A22" s="129" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="130"/>
+      <c r="C22" s="177" t="s">
+        <v>250</v>
+      </c>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="186" t="s">
+        <v>380</v>
+      </c>
+      <c r="H22" s="192" t="s">
+        <v>380</v>
+      </c>
+      <c r="I22" s="189" t="s">
+        <v>258</v>
+      </c>
+      <c r="J22" s="186"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="179"/>
       <c r="O22" s="23">
         <v>4</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R22" s="83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="128"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="184"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="184"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="179"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="182"/>
       <c r="O23" s="23">
         <v>5</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q23" s="44" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="R23" s="83" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="130"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="182"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="185"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="181"/>
-      <c r="M24" s="181"/>
-      <c r="N24" s="182"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="185"/>
       <c r="O24" s="23">
         <v>6</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q24" s="44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R24" s="83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="136" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="142" t="s">
+      <c r="A25" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" s="136"/>
+      <c r="C25" s="139" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="144" t="s">
+      <c r="H25" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="208" t="s">
-        <v>261</v>
-      </c>
-      <c r="J25" s="142"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="138"/>
+      <c r="I25" s="211" t="s">
+        <v>260</v>
+      </c>
+      <c r="J25" s="145"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="141"/>
       <c r="O25" s="28">
         <v>4</v>
       </c>
       <c r="P25" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q25" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="R25" s="84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="134"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="141"/>
+      <c r="A26" s="137"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="144"/>
       <c r="O26" s="28">
         <v>7</v>
       </c>
       <c r="P26" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R26" s="84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="210" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="211"/>
-      <c r="C27" s="212" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" s="212"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="212"/>
+      <c r="A27" s="213" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="214"/>
+      <c r="C27" s="215" t="s">
+        <v>252</v>
+      </c>
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="215"/>
       <c r="G27" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H27" s="48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="213"/>
-      <c r="L27" s="213"/>
-      <c r="M27" s="213"/>
-      <c r="N27" s="213"/>
+        <v>259</v>
+      </c>
+      <c r="J27" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="K27" s="216" t="s">
+        <v>399</v>
+      </c>
+      <c r="L27" s="216"/>
+      <c r="M27" s="216"/>
+      <c r="N27" s="216"/>
       <c r="O27" s="31"/>
       <c r="P27" s="32"/>
       <c r="Q27" s="32"/>
@@ -9096,70 +9106,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="str">
+      <c r="B2" s="122" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>NumeroCelular</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la información del número de celular de cada uno de los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -9275,10 +9285,10 @@
     </row>
     <row r="6" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -9293,7 +9303,7 @@
         <v>58</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>46</v>
@@ -9308,7 +9318,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="34"/>
       <c r="R6" s="23"/>
@@ -9317,11 +9327,11 @@
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="126"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
@@ -9336,10 +9346,10 @@
     </row>
     <row r="10" spans="1:20" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="53" t="str">
         <f>+A6</f>
@@ -9353,44 +9363,44 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="115"/>
-      <c r="C13" s="115" t="s">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115" t="s">
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115" t="s">
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115" t="s">
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115" t="s">
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="116"/>
+      <c r="R13" s="119"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="125"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
@@ -9403,12 +9413,12 @@
       <c r="J14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="117" t="s">
+      <c r="K14" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
       <c r="O14" s="19" t="s">
         <v>30</v>
       </c>
@@ -9423,88 +9433,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="263" t="s">
+      <c r="A15" s="266" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="264"/>
-      <c r="C15" s="265"/>
-      <c r="D15" s="265"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="265"/>
+      <c r="B15" s="267"/>
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="268"/>
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="265"/>
-      <c r="L15" s="265"/>
-      <c r="M15" s="265"/>
-      <c r="N15" s="265"/>
+      <c r="K15" s="268"/>
+      <c r="L15" s="268"/>
+      <c r="M15" s="268"/>
+      <c r="N15" s="268"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
       <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="232"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="233"/>
-      <c r="F16" s="233"/>
+      <c r="B16" s="235"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
+      <c r="F16" s="236"/>
       <c r="G16" s="45"/>
       <c r="H16" s="43"/>
       <c r="I16" s="44"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="234"/>
-      <c r="L16" s="234"/>
-      <c r="M16" s="234"/>
-      <c r="N16" s="234"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="237"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
       <c r="R16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="222" t="s">
+      <c r="A17" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="223"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
       <c r="G17" s="41"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="262"/>
-      <c r="L17" s="262"/>
-      <c r="M17" s="262"/>
-      <c r="N17" s="262"/>
+      <c r="K17" s="265"/>
+      <c r="L17" s="265"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="265"/>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
       <c r="R17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="210" t="s">
+      <c r="A18" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="211"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="215"/>
       <c r="G18" s="47"/>
       <c r="H18" s="48"/>
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
-      <c r="K18" s="213"/>
-      <c r="L18" s="213"/>
-      <c r="M18" s="213"/>
-      <c r="N18" s="213"/>
+      <c r="K18" s="216"/>
+      <c r="L18" s="216"/>
+      <c r="M18" s="216"/>
+      <c r="N18" s="216"/>
       <c r="O18" s="31"/>
       <c r="P18" s="32"/>
       <c r="Q18" s="32"/>
@@ -9593,69 +9603,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -10341,11 +10351,11 @@
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
@@ -10365,44 +10375,44 @@
     </row>
     <row r="24" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="124" t="s">
+      <c r="A25" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115" t="s">
+      <c r="B25" s="118"/>
+      <c r="C25" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115" t="s">
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115" t="s">
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="115"/>
-      <c r="O25" s="115" t="s">
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115" t="s">
+      <c r="P25" s="118"/>
+      <c r="Q25" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="116"/>
+      <c r="R25" s="119"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="125"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
+      <c r="A26" s="128"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="19" t="s">
         <v>28</v>
       </c>
@@ -10415,12 +10425,12 @@
       <c r="J26" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K26" s="117" t="s">
+      <c r="K26" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
       <c r="O26" s="19" t="s">
         <v>30</v>
       </c>
@@ -10435,88 +10445,88 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="263" t="s">
+      <c r="A27" s="266" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="264"/>
-      <c r="C27" s="265"/>
-      <c r="D27" s="265"/>
-      <c r="E27" s="265"/>
-      <c r="F27" s="265"/>
+      <c r="B27" s="267"/>
+      <c r="C27" s="268"/>
+      <c r="D27" s="268"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="268"/>
       <c r="G27" s="20"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="265"/>
-      <c r="L27" s="265"/>
-      <c r="M27" s="265"/>
-      <c r="N27" s="265"/>
+      <c r="K27" s="268"/>
+      <c r="L27" s="268"/>
+      <c r="M27" s="268"/>
+      <c r="N27" s="268"/>
       <c r="O27" s="20"/>
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="26"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="231" t="s">
+      <c r="A28" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="232"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="233"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="236"/>
+      <c r="E28" s="236"/>
+      <c r="F28" s="236"/>
       <c r="G28" s="45"/>
       <c r="H28" s="43"/>
       <c r="I28" s="44"/>
       <c r="J28" s="38"/>
-      <c r="K28" s="234"/>
-      <c r="L28" s="234"/>
-      <c r="M28" s="234"/>
-      <c r="N28" s="234"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="237"/>
+      <c r="M28" s="237"/>
+      <c r="N28" s="237"/>
       <c r="O28" s="23"/>
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="27"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="222" t="s">
+      <c r="A29" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="223"/>
-      <c r="C29" s="261"/>
-      <c r="D29" s="261"/>
-      <c r="E29" s="261"/>
-      <c r="F29" s="261"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="264"/>
       <c r="G29" s="41"/>
       <c r="H29" s="39"/>
       <c r="I29" s="40"/>
       <c r="J29" s="42"/>
-      <c r="K29" s="262"/>
-      <c r="L29" s="262"/>
-      <c r="M29" s="262"/>
-      <c r="N29" s="262"/>
+      <c r="K29" s="265"/>
+      <c r="L29" s="265"/>
+      <c r="M29" s="265"/>
+      <c r="N29" s="265"/>
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="30"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="210" t="s">
+      <c r="A30" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="211"/>
-      <c r="C30" s="212"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="212"/>
-      <c r="F30" s="212"/>
+      <c r="B30" s="214"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
       <c r="G30" s="47"/>
       <c r="H30" s="48"/>
       <c r="I30" s="46"/>
       <c r="J30" s="47"/>
-      <c r="K30" s="213"/>
-      <c r="L30" s="213"/>
-      <c r="M30" s="213"/>
-      <c r="N30" s="213"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="216"/>
+      <c r="M30" s="216"/>
+      <c r="N30" s="216"/>
       <c r="O30" s="31"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
@@ -10604,69 +10614,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la información de los países de los cuales son los clientes del restaurante.</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -10976,11 +10986,11 @@
     </row>
     <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="123"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
@@ -11019,44 +11029,44 @@
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="124" t="s">
+      <c r="A18" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="118"/>
+      <c r="C18" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115" t="s">
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115" t="s">
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115" t="s">
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115" t="s">
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="116"/>
+      <c r="R18" s="119"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="125"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
+      <c r="A19" s="128"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="19" t="s">
         <v>28</v>
       </c>
@@ -11069,12 +11079,12 @@
       <c r="J19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="117" t="s">
+      <c r="K19" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
       <c r="O19" s="19" t="s">
         <v>30</v>
       </c>
@@ -11089,88 +11099,88 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="263" t="s">
+      <c r="A20" s="266" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="264"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
+      <c r="B20" s="267"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="268"/>
+      <c r="E20" s="268"/>
+      <c r="F20" s="268"/>
       <c r="G20" s="20"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="265"/>
-      <c r="L20" s="265"/>
-      <c r="M20" s="265"/>
-      <c r="N20" s="265"/>
+      <c r="K20" s="268"/>
+      <c r="L20" s="268"/>
+      <c r="M20" s="268"/>
+      <c r="N20" s="268"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="26"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="231" t="s">
+      <c r="A21" s="234" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="232"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="233"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="236"/>
+      <c r="D21" s="236"/>
+      <c r="E21" s="236"/>
+      <c r="F21" s="236"/>
       <c r="G21" s="45"/>
       <c r="H21" s="43"/>
       <c r="I21" s="44"/>
       <c r="J21" s="38"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="234"/>
-      <c r="M21" s="234"/>
-      <c r="N21" s="234"/>
+      <c r="K21" s="237"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="237"/>
       <c r="O21" s="23"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="222" t="s">
+      <c r="A22" s="225" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="223"/>
-      <c r="C22" s="261"/>
-      <c r="D22" s="261"/>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="264"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="264"/>
       <c r="G22" s="41"/>
       <c r="H22" s="39"/>
       <c r="I22" s="40"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="262"/>
-      <c r="L22" s="262"/>
-      <c r="M22" s="262"/>
-      <c r="N22" s="262"/>
+      <c r="K22" s="265"/>
+      <c r="L22" s="265"/>
+      <c r="M22" s="265"/>
+      <c r="N22" s="265"/>
       <c r="O22" s="28"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
       <c r="R22" s="30"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="210" t="s">
+      <c r="A23" s="213" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="211"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
       <c r="G23" s="47"/>
       <c r="H23" s="48"/>
       <c r="I23" s="46"/>
       <c r="J23" s="47"/>
-      <c r="K23" s="213"/>
-      <c r="L23" s="213"/>
-      <c r="M23" s="213"/>
-      <c r="N23" s="213"/>
+      <c r="K23" s="216"/>
+      <c r="L23" s="216"/>
+      <c r="M23" s="216"/>
+      <c r="N23" s="216"/>
       <c r="O23" s="31"/>
       <c r="P23" s="32"/>
       <c r="Q23" s="32"/>
@@ -11228,8 +11238,8 @@
   </sheetPr>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11259,70 +11269,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="119" t="str">
+      <c r="B2" s="122" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>Plato</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120" t="str">
+      <c r="B3" s="123" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la información de los platos del restaurante</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -11436,19 +11446,19 @@
         <v>42</v>
       </c>
       <c r="Q5" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="T5" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="R5" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="T5" s="97" t="s">
+      <c r="U5" s="74" t="s">
         <v>215</v>
-      </c>
-      <c r="U5" s="74" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
@@ -11490,22 +11500,22 @@
         <v>46</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q6" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T6" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="R6" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="T6" s="97" t="s">
-        <v>215</v>
-      </c>
       <c r="U6" s="77" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -11545,22 +11555,22 @@
         <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T7" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="R7" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S7" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="T7" s="97" t="s">
-        <v>215</v>
-      </c>
       <c r="U7" s="74" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -11596,22 +11606,22 @@
         <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q8" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T8" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="R8" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S8" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="T8" s="97" t="s">
-        <v>215</v>
-      </c>
       <c r="U8" s="77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -11651,22 +11661,22 @@
         <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q9" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T9" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="R9" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="T9" s="97" t="s">
-        <v>215</v>
-      </c>
       <c r="U9" s="77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -11706,22 +11716,22 @@
         <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T10" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="R10" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S10" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="T10" s="63" t="s">
-        <v>215</v>
-      </c>
       <c r="U10" s="77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -11755,22 +11765,22 @@
         <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q11" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T11" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="R11" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="S11" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="T11" s="31" t="s">
-        <v>215</v>
-      </c>
       <c r="U11" s="74" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -11778,7 +11788,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="74"/>
       <c r="D12" s="5"/>
@@ -11789,7 +11799,7 @@
         <v>50</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="5" t="s">
@@ -11808,31 +11818,31 @@
         <v>46</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T12" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="U12" s="74" t="s">
         <v>220</v>
-      </c>
-      <c r="U12" s="74" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
@@ -11850,7 +11860,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C16" s="53" t="str">
         <f>+A6</f>
@@ -11862,7 +11872,7 @@
         <v>128</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C17" s="53" t="str">
         <f>+A7</f>
@@ -11871,10 +11881,10 @@
     </row>
     <row r="18" spans="1:18" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C18" s="53" t="str">
         <f>+A11</f>
@@ -11883,44 +11893,44 @@
     </row>
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="127" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115" t="s">
+      <c r="B20" s="118"/>
+      <c r="C20" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115" t="s">
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115" t="s">
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115" t="s">
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115" t="s">
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="R20" s="116"/>
+      <c r="R20" s="119"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="125"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
+      <c r="A21" s="128"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="19" t="s">
         <v>28</v>
       </c>
@@ -11933,12 +11943,12 @@
       <c r="J21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="117" t="s">
+      <c r="K21" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
       <c r="O21" s="19" t="s">
         <v>30</v>
       </c>
@@ -11953,204 +11963,204 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="235" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="236"/>
-      <c r="C22" s="241" t="s">
+      <c r="A22" s="238" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="239"/>
+      <c r="C22" s="244" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="245"/>
+      <c r="E22" s="245"/>
+      <c r="F22" s="246"/>
+      <c r="G22" s="253" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="231" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="317" t="s">
+        <v>289</v>
+      </c>
+      <c r="J22" s="231"/>
+      <c r="K22" s="244"/>
+      <c r="L22" s="245"/>
+      <c r="M22" s="245"/>
+      <c r="N22" s="246"/>
+      <c r="O22" s="99">
+        <v>1</v>
+      </c>
+      <c r="P22" s="99" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q22" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="R22" s="82" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="240"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="318"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="247"/>
+      <c r="L23" s="248"/>
+      <c r="M23" s="248"/>
+      <c r="N23" s="249"/>
+      <c r="O23" s="99">
+        <v>2</v>
+      </c>
+      <c r="P23" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q23" s="99" t="s">
+        <v>303</v>
+      </c>
+      <c r="R23" s="82" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="242"/>
+      <c r="B24" s="243"/>
+      <c r="C24" s="250"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="255"/>
+      <c r="H24" s="233"/>
+      <c r="I24" s="319"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="251"/>
+      <c r="M24" s="251"/>
+      <c r="N24" s="252"/>
+      <c r="O24" s="99">
+        <v>3</v>
+      </c>
+      <c r="P24" s="99" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q24" s="99" t="s">
+        <v>304</v>
+      </c>
+      <c r="R24" s="82" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="281" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="282"/>
+      <c r="C25" s="272" t="s">
         <v>285</v>
       </c>
-      <c r="D22" s="242"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="243"/>
-      <c r="G22" s="250" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="228" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="289" t="s">
+      <c r="D25" s="273"/>
+      <c r="E25" s="273"/>
+      <c r="F25" s="274"/>
+      <c r="G25" s="269" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="302" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="299" t="s">
         <v>290</v>
       </c>
-      <c r="J22" s="228"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="242"/>
-      <c r="M22" s="242"/>
-      <c r="N22" s="243"/>
-      <c r="O22" s="290">
-        <v>1</v>
-      </c>
-      <c r="P22" s="290" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q22" s="290" t="s">
-        <v>303</v>
-      </c>
-      <c r="R22" s="82" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="237"/>
-      <c r="B23" s="238"/>
-      <c r="C23" s="244"/>
-      <c r="D23" s="245"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="246"/>
-      <c r="G23" s="251"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="291"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="244"/>
-      <c r="L23" s="245"/>
-      <c r="M23" s="245"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="290">
-        <v>2</v>
-      </c>
-      <c r="P23" s="290" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q23" s="290" t="s">
-        <v>304</v>
-      </c>
-      <c r="R23" s="82" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="239"/>
-      <c r="B24" s="240"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="248"/>
-      <c r="E24" s="248"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="252"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="292"/>
-      <c r="J24" s="230"/>
-      <c r="K24" s="247"/>
-      <c r="L24" s="248"/>
-      <c r="M24" s="248"/>
-      <c r="N24" s="249"/>
-      <c r="O24" s="290">
-        <v>3</v>
-      </c>
-      <c r="P24" s="290" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q24" s="290" t="s">
-        <v>305</v>
-      </c>
-      <c r="R24" s="82" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="266" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="267"/>
-      <c r="C25" s="293" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="294"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="295"/>
-      <c r="G25" s="281" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="296" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="297" t="s">
-        <v>291</v>
-      </c>
-      <c r="J25" s="281"/>
-      <c r="K25" s="293"/>
-      <c r="L25" s="294"/>
-      <c r="M25" s="294"/>
-      <c r="N25" s="295"/>
+      <c r="J25" s="269"/>
+      <c r="K25" s="272"/>
+      <c r="L25" s="273"/>
+      <c r="M25" s="273"/>
+      <c r="N25" s="274"/>
       <c r="O25" s="45">
         <v>4</v>
       </c>
       <c r="P25" s="44" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="R25" s="83" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="268"/>
-      <c r="B26" s="269"/>
-      <c r="C26" s="298"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="300"/>
-      <c r="G26" s="301"/>
-      <c r="H26" s="302"/>
-      <c r="I26" s="303"/>
-      <c r="J26" s="301"/>
-      <c r="K26" s="298"/>
-      <c r="L26" s="299"/>
-      <c r="M26" s="299"/>
-      <c r="N26" s="300"/>
+      <c r="A26" s="283"/>
+      <c r="B26" s="284"/>
+      <c r="C26" s="275"/>
+      <c r="D26" s="276"/>
+      <c r="E26" s="276"/>
+      <c r="F26" s="277"/>
+      <c r="G26" s="270"/>
+      <c r="H26" s="303"/>
+      <c r="I26" s="300"/>
+      <c r="J26" s="270"/>
+      <c r="K26" s="275"/>
+      <c r="L26" s="276"/>
+      <c r="M26" s="276"/>
+      <c r="N26" s="277"/>
       <c r="O26" s="45">
         <v>5</v>
       </c>
       <c r="P26" s="44" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R26" s="83" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="270"/>
-      <c r="B27" s="271"/>
-      <c r="C27" s="304"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="306"/>
-      <c r="G27" s="282"/>
-      <c r="H27" s="307"/>
-      <c r="I27" s="308"/>
-      <c r="J27" s="282"/>
-      <c r="K27" s="304"/>
-      <c r="L27" s="305"/>
-      <c r="M27" s="305"/>
-      <c r="N27" s="306"/>
+      <c r="A27" s="285"/>
+      <c r="B27" s="286"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="280"/>
+      <c r="G27" s="271"/>
+      <c r="H27" s="304"/>
+      <c r="I27" s="301"/>
+      <c r="J27" s="271"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="279"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="280"/>
       <c r="O27" s="45">
         <v>6</v>
       </c>
       <c r="P27" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q27" s="44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R27" s="83" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="222" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="223"/>
-      <c r="C28" s="261" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="261"/>
-      <c r="E28" s="261"/>
-      <c r="F28" s="261"/>
+      <c r="A28" s="225" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="226"/>
+      <c r="C28" s="264" t="s">
+        <v>286</v>
+      </c>
+      <c r="D28" s="264"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="264"/>
       <c r="G28" s="41" t="s">
         <v>38</v>
       </c>
@@ -12158,121 +12168,121 @@
         <v>39</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J28" s="41"/>
-      <c r="K28" s="261"/>
-      <c r="L28" s="261"/>
-      <c r="M28" s="261"/>
-      <c r="N28" s="261"/>
+      <c r="K28" s="264"/>
+      <c r="L28" s="264"/>
+      <c r="M28" s="264"/>
+      <c r="N28" s="264"/>
       <c r="O28" s="41">
         <v>4</v>
       </c>
       <c r="P28" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="R28" s="309" t="s">
-        <v>316</v>
+        <v>305</v>
+      </c>
+      <c r="R28" s="100" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="272" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" s="273"/>
-      <c r="C29" s="310" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="311"/>
-      <c r="E29" s="311"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="313" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="314" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="315" t="s">
-        <v>292</v>
-      </c>
-      <c r="J29" s="313"/>
-      <c r="K29" s="310"/>
-      <c r="L29" s="311"/>
-      <c r="M29" s="311"/>
-      <c r="N29" s="312"/>
+      <c r="A29" s="305" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="306"/>
+      <c r="C29" s="287" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="288"/>
+      <c r="E29" s="288"/>
+      <c r="F29" s="289"/>
+      <c r="G29" s="293" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="295" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="297" t="s">
+        <v>291</v>
+      </c>
+      <c r="J29" s="293"/>
+      <c r="K29" s="287"/>
+      <c r="L29" s="288"/>
+      <c r="M29" s="288"/>
+      <c r="N29" s="289"/>
       <c r="O29" s="80">
         <v>4</v>
       </c>
       <c r="P29" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>306</v>
-      </c>
-      <c r="R29" s="316" t="s">
-        <v>317</v>
+        <v>305</v>
+      </c>
+      <c r="R29" s="101" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="274"/>
-      <c r="B30" s="275"/>
-      <c r="C30" s="317"/>
-      <c r="D30" s="318"/>
-      <c r="E30" s="318"/>
-      <c r="F30" s="319"/>
-      <c r="G30" s="320"/>
-      <c r="H30" s="321"/>
-      <c r="I30" s="322"/>
-      <c r="J30" s="320"/>
-      <c r="K30" s="317"/>
-      <c r="L30" s="318"/>
-      <c r="M30" s="318"/>
-      <c r="N30" s="319"/>
+      <c r="A30" s="307"/>
+      <c r="B30" s="308"/>
+      <c r="C30" s="290"/>
+      <c r="D30" s="291"/>
+      <c r="E30" s="291"/>
+      <c r="F30" s="292"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="296"/>
+      <c r="I30" s="298"/>
+      <c r="J30" s="294"/>
+      <c r="K30" s="290"/>
+      <c r="L30" s="291"/>
+      <c r="M30" s="291"/>
+      <c r="N30" s="292"/>
       <c r="O30" s="80">
         <v>7</v>
       </c>
       <c r="P30" s="46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="R30" s="316" t="s">
-        <v>318</v>
+        <v>308</v>
+      </c>
+      <c r="R30" s="101" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="276" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31" s="277"/>
-      <c r="C31" s="278" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="279"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="280"/>
+      <c r="A31" s="309" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="310"/>
+      <c r="C31" s="311" t="s">
+        <v>288</v>
+      </c>
+      <c r="D31" s="312"/>
+      <c r="E31" s="312"/>
+      <c r="F31" s="313"/>
       <c r="G31" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="H31" s="81" t="s">
-        <v>135</v>
+        <v>167</v>
+      </c>
+      <c r="H31" s="326" t="s">
+        <v>167</v>
       </c>
       <c r="I31" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="J31" s="81" t="s">
         <v>293</v>
       </c>
-      <c r="J31" s="81" t="s">
+      <c r="K31" s="314" t="s">
         <v>294</v>
       </c>
-      <c r="K31" s="323" t="s">
-        <v>295</v>
-      </c>
-      <c r="L31" s="324"/>
-      <c r="M31" s="324"/>
-      <c r="N31" s="325"/>
+      <c r="L31" s="315"/>
+      <c r="M31" s="315"/>
+      <c r="N31" s="316"/>
       <c r="O31" s="81"/>
       <c r="P31" s="81"/>
       <c r="Q31" s="81"/>
@@ -12336,12 +12346,21 @@
     <hyperlink ref="A31:B31" location="Menu!U4" display="Cosultar" xr:uid="{521363E3-64A2-4BCB-A36E-8BA4795CFD41}"/>
     <hyperlink ref="T4" location="Menu!A29" display="Menu!A29" xr:uid="{61939482-869A-4349-9FD7-89A7D4A43762}"/>
     <hyperlink ref="U4" location="Menu!A31" display="Menu!A31" xr:uid="{289EE7D2-2513-488E-AB0C-071D4C511F7F}"/>
+    <hyperlink ref="H22:H24" location="Plato!A2" display="Plato" xr:uid="{9653C76D-B1F2-45CF-97A1-AB626E743161}"/>
+    <hyperlink ref="H25:H27" location="Plato!A2" display="Plato" xr:uid="{B7B25C07-805B-4FCA-B063-08487E11DF74}"/>
+    <hyperlink ref="H29:H31" location="Plato!A2" display="Plato" xr:uid="{3B9B1148-3C51-42B8-A6EE-96883EA798F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12350,7 +12369,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0DE5568C0AE848B2F225150E15E78E" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="643d399a24376eab49db33c80db032ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="915fd109-ae29-4648-8de1-7f064f1d0fe5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2a54904d818499acdea7742e4a0622bc" ns2:_="">
     <xsd:import namespace="915fd109-ae29-4648-8de1-7f064f1d0fe5"/>
@@ -12488,13 +12507,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -12502,7 +12524,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C779E5F7-74AC-4CCB-8FB1-CBA1DF721FBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12520,15 +12542,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>
